--- a/kreditu_salidzinasana.xlsx
+++ b/kreditu_salidzinasana.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C2" t="n">
         <v>1000</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1500</v>
       </c>
     </row>
     <row r="3">
@@ -458,10 +458,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -471,10 +471,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -484,23 +484,23 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>84.69</v>
+        <v>88.64</v>
       </c>
       <c r="C5" t="n">
-        <v>102.69</v>
+        <v>147.66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Kopējie procenti (€)</t>
+          <t>Kopējā interese (€)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.31</v>
+        <v>127.38</v>
       </c>
       <c r="C7" t="n">
-        <v>40.3</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="8">
@@ -510,369 +510,511 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1016.3</v>
+        <v>2127.38</v>
       </c>
       <c r="C8" t="n">
-        <v>1540.32</v>
+        <v>1033.62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Interese % no aizņēmuma summas</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Mēnesis</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>A - Procenti</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>B - Procenti</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>A - Interese</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>A - Pamatsumma</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>A - Atlikums</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>B - Interese</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>B - Pamatsumma</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>A - Atlikums</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>B - Atlikums</t>
         </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>82.19</v>
-      </c>
-      <c r="D11" t="n">
-        <v>917.8099999999999</v>
-      </c>
-      <c r="E11" t="n">
-        <v>5</v>
-      </c>
-      <c r="F11" t="n">
-        <v>97.69</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1402.31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>2.29</v>
+        <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>82.40000000000001</v>
+        <v>78.64</v>
       </c>
       <c r="D12" t="n">
-        <v>835.41</v>
+        <v>1921.36</v>
       </c>
       <c r="E12" t="n">
-        <v>4.67</v>
+        <v>8.33</v>
       </c>
       <c r="F12" t="n">
-        <v>98.01000000000001</v>
+        <v>139.33</v>
       </c>
       <c r="G12" t="n">
-        <v>1304.3</v>
+        <v>860.67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="n">
-        <v>2.09</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>82.61</v>
+        <v>79.03</v>
       </c>
       <c r="D13" t="n">
-        <v>752.8</v>
+        <v>1842.32</v>
       </c>
       <c r="E13" t="n">
-        <v>4.35</v>
+        <v>7.17</v>
       </c>
       <c r="F13" t="n">
-        <v>98.34</v>
+        <v>140.49</v>
       </c>
       <c r="G13" t="n">
-        <v>1205.96</v>
+        <v>720.1900000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" t="n">
-        <v>1.88</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>82.81</v>
+        <v>79.43000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>669.99</v>
+        <v>1762.89</v>
       </c>
       <c r="E14" t="n">
-        <v>4.02</v>
+        <v>6</v>
       </c>
       <c r="F14" t="n">
-        <v>98.67</v>
+        <v>141.66</v>
       </c>
       <c r="G14" t="n">
-        <v>1107.29</v>
+        <v>578.53</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" t="n">
-        <v>1.67</v>
+        <v>8.81</v>
       </c>
       <c r="C15" t="n">
-        <v>83.02</v>
+        <v>79.83</v>
       </c>
       <c r="D15" t="n">
-        <v>586.97</v>
+        <v>1683.07</v>
       </c>
       <c r="E15" t="n">
-        <v>3.69</v>
+        <v>4.82</v>
       </c>
       <c r="F15" t="n">
-        <v>99</v>
+        <v>142.84</v>
       </c>
       <c r="G15" t="n">
-        <v>1008.3</v>
+        <v>435.69</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" t="n">
-        <v>1.47</v>
+        <v>8.42</v>
       </c>
       <c r="C16" t="n">
-        <v>83.23</v>
+        <v>80.23</v>
       </c>
       <c r="D16" t="n">
-        <v>503.75</v>
+        <v>1602.84</v>
       </c>
       <c r="E16" t="n">
-        <v>3.36</v>
+        <v>3.63</v>
       </c>
       <c r="F16" t="n">
-        <v>99.33</v>
+        <v>144.03</v>
       </c>
       <c r="G16" t="n">
-        <v>908.97</v>
+        <v>291.67</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" t="n">
-        <v>1.26</v>
+        <v>8.01</v>
       </c>
       <c r="C17" t="n">
-        <v>83.43000000000001</v>
+        <v>80.63</v>
       </c>
       <c r="D17" t="n">
-        <v>420.31</v>
+        <v>1522.22</v>
       </c>
       <c r="E17" t="n">
-        <v>3.03</v>
+        <v>2.43</v>
       </c>
       <c r="F17" t="n">
-        <v>99.66</v>
+        <v>145.23</v>
       </c>
       <c r="G17" t="n">
-        <v>809.3099999999999</v>
+        <v>146.44</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" t="n">
-        <v>1.05</v>
+        <v>7.61</v>
       </c>
       <c r="C18" t="n">
-        <v>83.64</v>
+        <v>81.03</v>
       </c>
       <c r="D18" t="n">
-        <v>336.67</v>
+        <v>1441.18</v>
       </c>
       <c r="E18" t="n">
-        <v>2.7</v>
+        <v>1.22</v>
       </c>
       <c r="F18" t="n">
-        <v>99.98999999999999</v>
+        <v>146.44</v>
       </c>
       <c r="G18" t="n">
-        <v>709.3200000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" t="n">
-        <v>0.84</v>
+        <v>7.21</v>
       </c>
       <c r="C19" t="n">
-        <v>83.84999999999999</v>
+        <v>81.44</v>
       </c>
       <c r="D19" t="n">
-        <v>252.82</v>
-      </c>
-      <c r="E19" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100.32</v>
-      </c>
-      <c r="G19" t="n">
-        <v>609</v>
-      </c>
+        <v>1359.75</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" t="n">
-        <v>0.63</v>
+        <v>6.8</v>
       </c>
       <c r="C20" t="n">
-        <v>84.06</v>
+        <v>81.84</v>
       </c>
       <c r="D20" t="n">
-        <v>168.75</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100.66</v>
-      </c>
-      <c r="G20" t="n">
-        <v>508.34</v>
-      </c>
+        <v>1277.91</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" t="n">
-        <v>0.42</v>
+        <v>6.39</v>
       </c>
       <c r="C21" t="n">
-        <v>84.27</v>
+        <v>82.25</v>
       </c>
       <c r="D21" t="n">
-        <v>84.48</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100.99</v>
-      </c>
-      <c r="G21" t="n">
-        <v>407.35</v>
-      </c>
+        <v>1195.66</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
+        <v>11</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="C22" t="n">
+        <v>82.66</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1112.99</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
         <v>12</v>
       </c>
-      <c r="B22" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="C22" t="n">
-        <v>84.48</v>
-      </c>
-      <c r="D22" t="n">
+      <c r="B23" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="C23" t="n">
+        <v>83.08</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1029.92</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>13</v>
+      </c>
+      <c r="B24" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="C24" t="n">
+        <v>83.48999999999999</v>
+      </c>
+      <c r="D24" t="n">
+        <v>946.42</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>14</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="C25" t="n">
+        <v>83.91</v>
+      </c>
+      <c r="D25" t="n">
+        <v>862.52</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>15</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="C26" t="n">
+        <v>84.33</v>
+      </c>
+      <c r="D26" t="n">
+        <v>778.1900000000001</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>16</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="C27" t="n">
+        <v>84.75</v>
+      </c>
+      <c r="D27" t="n">
+        <v>693.4400000000001</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>17</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="C28" t="n">
+        <v>85.17</v>
+      </c>
+      <c r="D28" t="n">
+        <v>608.26</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>18</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="C29" t="n">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="D29" t="n">
+        <v>522.66</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>19</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="C30" t="n">
+        <v>86.03</v>
+      </c>
+      <c r="D30" t="n">
+        <v>436.63</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>20</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="C31" t="n">
+        <v>86.45999999999999</v>
+      </c>
+      <c r="D31" t="n">
+        <v>350.18</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>21</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="C32" t="n">
+        <v>86.89</v>
+      </c>
+      <c r="D32" t="n">
+        <v>263.29</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>22</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="C33" t="n">
+        <v>87.31999999999999</v>
+      </c>
+      <c r="D33" t="n">
+        <v>175.96</v>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>23</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C34" t="n">
+        <v>87.76000000000001</v>
+      </c>
+      <c r="D34" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>24</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="C35" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="D35" t="n">
         <v>0</v>
       </c>
-      <c r="E22" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="F22" t="n">
-        <v>101.33</v>
-      </c>
-      <c r="G22" t="n">
-        <v>306.02</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="F23" t="n">
-        <v>101.67</v>
-      </c>
-      <c r="G23" t="n">
-        <v>204.35</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="F24" t="n">
-        <v>102.01</v>
-      </c>
-      <c r="G24" t="n">
-        <v>102.35</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="F25" t="n">
-        <v>102.35</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/kreditu_salidzinasana.xlsx
+++ b/kreditu_salidzinasana.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="C2" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="3">
@@ -458,23 +458,23 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Termiņš (mēneši)</t>
+          <t>Termiņš (mēnešos)</t>
         </is>
       </c>
       <c r="B4" t="n">
+        <v>28</v>
+      </c>
+      <c r="C4" t="n">
         <v>24</v>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -484,36 +484,36 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>88.64</v>
+        <v>189.56</v>
       </c>
       <c r="C5" t="n">
-        <v>147.66</v>
+        <v>114.21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Kopējā atmaksas summa (€)</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5307.74</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2741.07</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>Kopējā interese (€)</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>127.38</v>
-      </c>
-      <c r="C7" t="n">
-        <v>33.6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Kopējā atmaksas summa (€)</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2127.38</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1033.62</v>
+      <c r="B9" t="n">
+        <v>307.73</v>
+      </c>
+      <c r="C9" t="n">
+        <v>241.07</v>
       </c>
     </row>
     <row r="10">
@@ -523,498 +523,681 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.37</v>
+        <v>6.15</v>
       </c>
       <c r="C10" t="n">
-        <v>3.36</v>
+        <v>9.640000000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Aizņēmuma koeficients</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.0615</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.0964</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>Mēnesis</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>A - Interese</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>A - Pamatsumma</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>A - Atlikums</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>B - Interese</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>B - Pamatsumma</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>B - Atlikums</t>
         </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>78.64</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1921.36</v>
-      </c>
-      <c r="E12" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="F12" t="n">
-        <v>139.33</v>
-      </c>
-      <c r="G12" t="n">
-        <v>860.67</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>2</v>
-      </c>
-      <c r="B13" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="C13" t="n">
-        <v>79.03</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1842.32</v>
-      </c>
-      <c r="E13" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="F13" t="n">
-        <v>140.49</v>
-      </c>
-      <c r="G13" t="n">
-        <v>720.1900000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>9.210000000000001</v>
+        <v>20.83</v>
       </c>
       <c r="C14" t="n">
-        <v>79.43000000000001</v>
+        <v>168.73</v>
       </c>
       <c r="D14" t="n">
-        <v>1762.89</v>
+        <v>4831.27</v>
       </c>
       <c r="E14" t="n">
-        <v>6</v>
+        <v>18.75</v>
       </c>
       <c r="F14" t="n">
-        <v>141.66</v>
+        <v>95.45999999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>578.53</v>
+        <v>2404.54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15" t="n">
-        <v>8.81</v>
+        <v>20.13</v>
       </c>
       <c r="C15" t="n">
-        <v>79.83</v>
+        <v>169.43</v>
       </c>
       <c r="D15" t="n">
-        <v>1683.07</v>
+        <v>4661.84</v>
       </c>
       <c r="E15" t="n">
-        <v>4.82</v>
+        <v>18.03</v>
       </c>
       <c r="F15" t="n">
-        <v>142.84</v>
+        <v>96.18000000000001</v>
       </c>
       <c r="G15" t="n">
-        <v>435.69</v>
+        <v>2308.36</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16" t="n">
-        <v>8.42</v>
+        <v>19.42</v>
       </c>
       <c r="C16" t="n">
-        <v>80.23</v>
+        <v>170.14</v>
       </c>
       <c r="D16" t="n">
-        <v>1602.84</v>
+        <v>4491.7</v>
       </c>
       <c r="E16" t="n">
-        <v>3.63</v>
+        <v>17.31</v>
       </c>
       <c r="F16" t="n">
-        <v>144.03</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>291.67</v>
+        <v>2211.46</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B17" t="n">
-        <v>8.01</v>
+        <v>18.72</v>
       </c>
       <c r="C17" t="n">
-        <v>80.63</v>
+        <v>170.85</v>
       </c>
       <c r="D17" t="n">
-        <v>1522.22</v>
+        <v>4320.86</v>
       </c>
       <c r="E17" t="n">
-        <v>2.43</v>
+        <v>16.59</v>
       </c>
       <c r="F17" t="n">
-        <v>145.23</v>
+        <v>97.63</v>
       </c>
       <c r="G17" t="n">
-        <v>146.44</v>
+        <v>2113.84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B18" t="n">
-        <v>7.61</v>
+        <v>18</v>
       </c>
       <c r="C18" t="n">
-        <v>81.03</v>
+        <v>171.56</v>
       </c>
       <c r="D18" t="n">
-        <v>1441.18</v>
+        <v>4149.3</v>
       </c>
       <c r="E18" t="n">
-        <v>1.22</v>
+        <v>15.85</v>
       </c>
       <c r="F18" t="n">
-        <v>146.44</v>
+        <v>98.36</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>2015.48</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B19" t="n">
-        <v>7.21</v>
+        <v>17.29</v>
       </c>
       <c r="C19" t="n">
-        <v>81.44</v>
+        <v>172.27</v>
       </c>
       <c r="D19" t="n">
-        <v>1359.75</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+        <v>3977.02</v>
+      </c>
+      <c r="E19" t="n">
+        <v>15.12</v>
+      </c>
+      <c r="F19" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1916.38</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B20" t="n">
-        <v>6.8</v>
+        <v>16.57</v>
       </c>
       <c r="C20" t="n">
-        <v>81.84</v>
+        <v>172.99</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.91</v>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+        <v>3804.03</v>
+      </c>
+      <c r="E20" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="F20" t="n">
+        <v>99.84</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1816.54</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B21" t="n">
-        <v>6.39</v>
+        <v>15.85</v>
       </c>
       <c r="C21" t="n">
-        <v>82.25</v>
+        <v>173.71</v>
       </c>
       <c r="D21" t="n">
-        <v>1195.66</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+        <v>3630.32</v>
+      </c>
+      <c r="E21" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100.59</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1715.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B22" t="n">
-        <v>5.98</v>
+        <v>15.13</v>
       </c>
       <c r="C22" t="n">
-        <v>82.66</v>
+        <v>174.44</v>
       </c>
       <c r="D22" t="n">
-        <v>1112.99</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+        <v>3455.89</v>
+      </c>
+      <c r="E22" t="n">
+        <v>12.87</v>
+      </c>
+      <c r="F22" t="n">
+        <v>101.34</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1614.61</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B23" t="n">
-        <v>5.56</v>
+        <v>14.4</v>
       </c>
       <c r="C23" t="n">
-        <v>83.08</v>
+        <v>175.16</v>
       </c>
       <c r="D23" t="n">
-        <v>1029.92</v>
-      </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+        <v>3280.72</v>
+      </c>
+      <c r="E23" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="F23" t="n">
+        <v>102.1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1512.51</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24" t="n">
-        <v>5.15</v>
+        <v>13.67</v>
       </c>
       <c r="C24" t="n">
-        <v>83.48999999999999</v>
+        <v>175.89</v>
       </c>
       <c r="D24" t="n">
-        <v>946.42</v>
-      </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+        <v>3104.83</v>
+      </c>
+      <c r="E24" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="F24" t="n">
+        <v>102.87</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1409.64</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B25" t="n">
-        <v>4.73</v>
+        <v>12.94</v>
       </c>
       <c r="C25" t="n">
-        <v>83.91</v>
+        <v>176.63</v>
       </c>
       <c r="D25" t="n">
-        <v>862.52</v>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+        <v>2928.21</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="F25" t="n">
+        <v>103.64</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1306</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B26" t="n">
-        <v>4.31</v>
+        <v>12.2</v>
       </c>
       <c r="C26" t="n">
-        <v>84.33</v>
+        <v>177.36</v>
       </c>
       <c r="D26" t="n">
-        <v>778.1900000000001</v>
-      </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+        <v>2750.84</v>
+      </c>
+      <c r="E26" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="F26" t="n">
+        <v>104.42</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1201.59</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B27" t="n">
-        <v>3.89</v>
+        <v>11.46</v>
       </c>
       <c r="C27" t="n">
-        <v>84.75</v>
+        <v>178.1</v>
       </c>
       <c r="D27" t="n">
-        <v>693.4400000000001</v>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+        <v>2572.74</v>
+      </c>
+      <c r="E27" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="F27" t="n">
+        <v>105.2</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1096.39</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B28" t="n">
-        <v>3.47</v>
+        <v>10.72</v>
       </c>
       <c r="C28" t="n">
-        <v>85.17</v>
+        <v>178.84</v>
       </c>
       <c r="D28" t="n">
-        <v>608.26</v>
-      </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+        <v>2393.9</v>
+      </c>
+      <c r="E28" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="F28" t="n">
+        <v>105.99</v>
+      </c>
+      <c r="G28" t="n">
+        <v>990.4</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B29" t="n">
-        <v>3.04</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>85.59999999999999</v>
+        <v>179.59</v>
       </c>
       <c r="D29" t="n">
-        <v>522.66</v>
-      </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+        <v>2214.32</v>
+      </c>
+      <c r="E29" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="F29" t="n">
+        <v>106.78</v>
+      </c>
+      <c r="G29" t="n">
+        <v>883.61</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B30" t="n">
-        <v>2.61</v>
+        <v>9.23</v>
       </c>
       <c r="C30" t="n">
-        <v>86.03</v>
+        <v>180.34</v>
       </c>
       <c r="D30" t="n">
-        <v>436.63</v>
-      </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+        <v>2033.98</v>
+      </c>
+      <c r="E30" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="F30" t="n">
+        <v>107.58</v>
+      </c>
+      <c r="G30" t="n">
+        <v>776.03</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B31" t="n">
-        <v>2.18</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>86.45999999999999</v>
+        <v>181.09</v>
       </c>
       <c r="D31" t="n">
-        <v>350.18</v>
-      </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+        <v>1852.89</v>
+      </c>
+      <c r="E31" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="F31" t="n">
+        <v>108.39</v>
+      </c>
+      <c r="G31" t="n">
+        <v>667.64</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B32" t="n">
-        <v>1.75</v>
+        <v>7.72</v>
       </c>
       <c r="C32" t="n">
-        <v>86.89</v>
+        <v>181.84</v>
       </c>
       <c r="D32" t="n">
-        <v>263.29</v>
-      </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+        <v>1671.05</v>
+      </c>
+      <c r="E32" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="F32" t="n">
+        <v>109.2</v>
+      </c>
+      <c r="G32" t="n">
+        <v>558.4299999999999</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B33" t="n">
-        <v>1.32</v>
+        <v>6.96</v>
       </c>
       <c r="C33" t="n">
-        <v>87.31999999999999</v>
+        <v>182.6</v>
       </c>
       <c r="D33" t="n">
-        <v>175.96</v>
-      </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+        <v>1488.45</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="F33" t="n">
+        <v>110.02</v>
+      </c>
+      <c r="G33" t="n">
+        <v>448.41</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B34" t="n">
-        <v>0.88</v>
+        <v>6.2</v>
       </c>
       <c r="C34" t="n">
-        <v>87.76000000000001</v>
+        <v>183.36</v>
       </c>
       <c r="D34" t="n">
-        <v>88.2</v>
-      </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+        <v>1305.09</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="F34" t="n">
+        <v>110.85</v>
+      </c>
+      <c r="G34" t="n">
+        <v>337.56</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
+        <v>22</v>
+      </c>
+      <c r="B35" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="C35" t="n">
+        <v>184.12</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1120.97</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="F35" t="n">
+        <v>111.68</v>
+      </c>
+      <c r="G35" t="n">
+        <v>225.88</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>23</v>
+      </c>
+      <c r="B36" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="C36" t="n">
+        <v>184.89</v>
+      </c>
+      <c r="D36" t="n">
+        <v>936.08</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="F36" t="n">
+        <v>112.52</v>
+      </c>
+      <c r="G36" t="n">
+        <v>113.36</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
         <v>24</v>
       </c>
-      <c r="B35" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="C35" t="n">
-        <v>88.2</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="B37" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="C37" t="n">
+        <v>185.66</v>
+      </c>
+      <c r="D37" t="n">
+        <v>750.41</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F37" t="n">
+        <v>113.36</v>
+      </c>
+      <c r="G37" t="n">
         <v>0</v>
       </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>25</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="C38" t="n">
+        <v>186.44</v>
+      </c>
+      <c r="D38" t="n">
+        <v>563.98</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>26</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="C39" t="n">
+        <v>187.21</v>
+      </c>
+      <c r="D39" t="n">
+        <v>376.77</v>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>27</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="C40" t="n">
+        <v>187.99</v>
+      </c>
+      <c r="D40" t="n">
+        <v>188.78</v>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>28</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C41" t="n">
+        <v>188.78</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/kreditu_salidzinasana.xlsx
+++ b/kreditu_salidzinasana.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5000</v>
+        <v>70000</v>
       </c>
       <c r="C2" t="n">
-        <v>2500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="3">
@@ -458,10 +458,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -471,10 +471,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28</v>
+        <v>240</v>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
@@ -484,10 +484,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>189.56</v>
+        <v>585.51</v>
       </c>
       <c r="C5" t="n">
-        <v>114.21</v>
+        <v>1016.06</v>
       </c>
     </row>
     <row r="7">
@@ -497,10 +497,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5307.74</v>
+        <v>140521.96</v>
       </c>
       <c r="C7" t="n">
-        <v>2741.07</v>
+        <v>48770.74</v>
       </c>
     </row>
     <row r="9">
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>307.73</v>
+        <v>70521.92999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>241.07</v>
+        <v>3770.77</v>
       </c>
     </row>
     <row r="10">
@@ -523,681 +523,4442 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.15</v>
+        <v>100.75</v>
       </c>
       <c r="C10" t="n">
-        <v>9.640000000000001</v>
+        <v>8.380000000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Anuitātes summa (€)</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>585.5080482954264</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1016.057458876028</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Aizņēmuma koeficients</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>1.0615</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.0964</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="B12" t="n">
+        <v>2.0075</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.0838</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Mēnesis</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>A - Interese</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
-          <t>A - Pamatsumma</t>
+          <t>A - Summa, kas iet nost no parāda</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>A - Atlikums</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>B - Interese</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
-          <t>B - Pamatsumma</t>
+          <t>B - Summa, kas iet nost no parāda</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>B - Atlikums</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="n">
-        <v>20.83</v>
-      </c>
-      <c r="C14" t="n">
-        <v>168.73</v>
-      </c>
-      <c r="D14" t="n">
-        <v>4831.27</v>
-      </c>
-      <c r="E14" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="F14" t="n">
-        <v>95.45999999999999</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2404.54</v>
-      </c>
-    </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>20.13</v>
+        <v>466.67</v>
       </c>
       <c r="C15" t="n">
-        <v>169.43</v>
+        <v>118.84</v>
       </c>
       <c r="D15" t="n">
-        <v>4661.84</v>
+        <v>69881.16</v>
       </c>
       <c r="E15" t="n">
-        <v>18.03</v>
+        <v>150</v>
       </c>
       <c r="F15" t="n">
-        <v>96.18000000000001</v>
+        <v>866.0599999999999</v>
       </c>
       <c r="G15" t="n">
-        <v>2308.36</v>
+        <v>44133.94</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" t="n">
-        <v>19.42</v>
+        <v>465.87</v>
       </c>
       <c r="C16" t="n">
-        <v>170.14</v>
+        <v>119.63</v>
       </c>
       <c r="D16" t="n">
-        <v>4491.7</v>
+        <v>69761.52</v>
       </c>
       <c r="E16" t="n">
-        <v>17.31</v>
+        <v>147.11</v>
       </c>
       <c r="F16" t="n">
-        <v>96.90000000000001</v>
+        <v>868.9400000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>2211.46</v>
+        <v>43265</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" t="n">
-        <v>18.72</v>
+        <v>465.08</v>
       </c>
       <c r="C17" t="n">
-        <v>170.85</v>
+        <v>120.43</v>
       </c>
       <c r="D17" t="n">
-        <v>4320.86</v>
+        <v>69641.09</v>
       </c>
       <c r="E17" t="n">
-        <v>16.59</v>
+        <v>144.22</v>
       </c>
       <c r="F17" t="n">
-        <v>97.63</v>
+        <v>871.84</v>
       </c>
       <c r="G17" t="n">
-        <v>2113.84</v>
+        <v>42393.16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" t="n">
-        <v>18</v>
+        <v>464.27</v>
       </c>
       <c r="C18" t="n">
-        <v>171.56</v>
+        <v>121.23</v>
       </c>
       <c r="D18" t="n">
-        <v>4149.3</v>
+        <v>69519.86</v>
       </c>
       <c r="E18" t="n">
-        <v>15.85</v>
+        <v>141.31</v>
       </c>
       <c r="F18" t="n">
-        <v>98.36</v>
+        <v>874.75</v>
       </c>
       <c r="G18" t="n">
-        <v>2015.48</v>
+        <v>41518.41</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" t="n">
-        <v>17.29</v>
+        <v>463.47</v>
       </c>
       <c r="C19" t="n">
-        <v>172.27</v>
+        <v>122.04</v>
       </c>
       <c r="D19" t="n">
-        <v>3977.02</v>
+        <v>69397.82000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>15.12</v>
+        <v>138.39</v>
       </c>
       <c r="F19" t="n">
-        <v>99.09999999999999</v>
+        <v>877.66</v>
       </c>
       <c r="G19" t="n">
-        <v>1916.38</v>
+        <v>40640.75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" t="n">
-        <v>16.57</v>
+        <v>462.65</v>
       </c>
       <c r="C20" t="n">
-        <v>172.99</v>
+        <v>122.86</v>
       </c>
       <c r="D20" t="n">
-        <v>3804.03</v>
+        <v>69274.96000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>14.37</v>
+        <v>135.47</v>
       </c>
       <c r="F20" t="n">
-        <v>99.84</v>
+        <v>880.59</v>
       </c>
       <c r="G20" t="n">
-        <v>1816.54</v>
+        <v>39760.16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" t="n">
-        <v>15.85</v>
+        <v>461.83</v>
       </c>
       <c r="C21" t="n">
-        <v>173.71</v>
+        <v>123.67</v>
       </c>
       <c r="D21" t="n">
-        <v>3630.32</v>
+        <v>69151.28999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>13.62</v>
+        <v>132.53</v>
       </c>
       <c r="F21" t="n">
-        <v>100.59</v>
+        <v>883.52</v>
       </c>
       <c r="G21" t="n">
-        <v>1715.95</v>
+        <v>38876.64</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22" t="n">
-        <v>15.13</v>
+        <v>461.01</v>
       </c>
       <c r="C22" t="n">
-        <v>174.44</v>
+        <v>124.5</v>
       </c>
       <c r="D22" t="n">
-        <v>3455.89</v>
+        <v>69026.78999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>12.87</v>
+        <v>129.59</v>
       </c>
       <c r="F22" t="n">
-        <v>101.34</v>
+        <v>886.47</v>
       </c>
       <c r="G22" t="n">
-        <v>1614.61</v>
+        <v>37990.17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" t="n">
-        <v>14.4</v>
+        <v>460.18</v>
       </c>
       <c r="C23" t="n">
-        <v>175.16</v>
+        <v>125.33</v>
       </c>
       <c r="D23" t="n">
-        <v>3280.72</v>
+        <v>68901.46000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>12.11</v>
+        <v>126.63</v>
       </c>
       <c r="F23" t="n">
-        <v>102.1</v>
+        <v>889.42</v>
       </c>
       <c r="G23" t="n">
-        <v>1512.51</v>
+        <v>37100.74</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24" t="n">
-        <v>13.67</v>
+        <v>459.34</v>
       </c>
       <c r="C24" t="n">
-        <v>175.89</v>
+        <v>126.16</v>
       </c>
       <c r="D24" t="n">
-        <v>3104.83</v>
+        <v>68775.28999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>11.34</v>
+        <v>123.67</v>
       </c>
       <c r="F24" t="n">
-        <v>102.87</v>
+        <v>892.39</v>
       </c>
       <c r="G24" t="n">
-        <v>1409.64</v>
+        <v>36208.36</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" t="n">
-        <v>12.94</v>
+        <v>458.5</v>
       </c>
       <c r="C25" t="n">
-        <v>176.63</v>
+        <v>127.01</v>
       </c>
       <c r="D25" t="n">
-        <v>2928.21</v>
+        <v>68648.28999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>10.57</v>
+        <v>120.69</v>
       </c>
       <c r="F25" t="n">
-        <v>103.64</v>
+        <v>895.36</v>
       </c>
       <c r="G25" t="n">
-        <v>1306</v>
+        <v>35312.99</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26" t="n">
-        <v>12.2</v>
+        <v>457.66</v>
       </c>
       <c r="C26" t="n">
-        <v>177.36</v>
+        <v>127.85</v>
       </c>
       <c r="D26" t="n">
-        <v>2750.84</v>
+        <v>68520.42999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>9.800000000000001</v>
+        <v>117.71</v>
       </c>
       <c r="F26" t="n">
-        <v>104.42</v>
+        <v>898.35</v>
       </c>
       <c r="G26" t="n">
-        <v>1201.59</v>
+        <v>34414.64</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27" t="n">
-        <v>11.46</v>
+        <v>456.8</v>
       </c>
       <c r="C27" t="n">
-        <v>178.1</v>
+        <v>128.71</v>
       </c>
       <c r="D27" t="n">
-        <v>2572.74</v>
+        <v>68391.73</v>
       </c>
       <c r="E27" t="n">
-        <v>9.01</v>
+        <v>114.72</v>
       </c>
       <c r="F27" t="n">
-        <v>105.2</v>
+        <v>901.34</v>
       </c>
       <c r="G27" t="n">
-        <v>1096.39</v>
+        <v>33513.3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B28" t="n">
-        <v>10.72</v>
+        <v>455.94</v>
       </c>
       <c r="C28" t="n">
-        <v>178.84</v>
+        <v>129.56</v>
       </c>
       <c r="D28" t="n">
-        <v>2393.9</v>
+        <v>68262.17</v>
       </c>
       <c r="E28" t="n">
-        <v>8.220000000000001</v>
+        <v>111.71</v>
       </c>
       <c r="F28" t="n">
-        <v>105.99</v>
+        <v>904.35</v>
       </c>
       <c r="G28" t="n">
-        <v>990.4</v>
+        <v>32608.96</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" t="n">
-        <v>9.970000000000001</v>
+        <v>455.08</v>
       </c>
       <c r="C29" t="n">
-        <v>179.59</v>
+        <v>130.43</v>
       </c>
       <c r="D29" t="n">
-        <v>2214.32</v>
+        <v>68131.74000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>7.43</v>
+        <v>108.7</v>
       </c>
       <c r="F29" t="n">
-        <v>106.78</v>
+        <v>907.36</v>
       </c>
       <c r="G29" t="n">
-        <v>883.61</v>
+        <v>31701.6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30" t="n">
-        <v>9.23</v>
+        <v>454.21</v>
       </c>
       <c r="C30" t="n">
-        <v>180.34</v>
+        <v>131.3</v>
       </c>
       <c r="D30" t="n">
-        <v>2033.98</v>
+        <v>68000.44</v>
       </c>
       <c r="E30" t="n">
-        <v>6.63</v>
+        <v>105.67</v>
       </c>
       <c r="F30" t="n">
-        <v>107.58</v>
+        <v>910.39</v>
       </c>
       <c r="G30" t="n">
-        <v>776.03</v>
+        <v>30791.21</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" t="n">
-        <v>8.470000000000001</v>
+        <v>453.34</v>
       </c>
       <c r="C31" t="n">
-        <v>181.09</v>
+        <v>132.17</v>
       </c>
       <c r="D31" t="n">
-        <v>1852.89</v>
+        <v>67868.27</v>
       </c>
       <c r="E31" t="n">
-        <v>5.82</v>
+        <v>102.64</v>
       </c>
       <c r="F31" t="n">
-        <v>108.39</v>
+        <v>913.42</v>
       </c>
       <c r="G31" t="n">
-        <v>667.64</v>
+        <v>29877.79</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B32" t="n">
-        <v>7.72</v>
+        <v>452.46</v>
       </c>
       <c r="C32" t="n">
-        <v>181.84</v>
+        <v>133.05</v>
       </c>
       <c r="D32" t="n">
-        <v>1671.05</v>
+        <v>67735.22</v>
       </c>
       <c r="E32" t="n">
-        <v>5.01</v>
+        <v>99.59</v>
       </c>
       <c r="F32" t="n">
-        <v>109.2</v>
+        <v>916.46</v>
       </c>
       <c r="G32" t="n">
-        <v>558.4299999999999</v>
+        <v>28961.33</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B33" t="n">
-        <v>6.96</v>
+        <v>451.57</v>
       </c>
       <c r="C33" t="n">
-        <v>182.6</v>
+        <v>133.94</v>
       </c>
       <c r="D33" t="n">
-        <v>1488.45</v>
+        <v>67601.28</v>
       </c>
       <c r="E33" t="n">
-        <v>4.19</v>
+        <v>96.54000000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>110.02</v>
+        <v>919.52</v>
       </c>
       <c r="G33" t="n">
-        <v>448.41</v>
+        <v>28041.81</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B34" t="n">
-        <v>6.2</v>
+        <v>450.68</v>
       </c>
       <c r="C34" t="n">
-        <v>183.36</v>
+        <v>134.83</v>
       </c>
       <c r="D34" t="n">
-        <v>1305.09</v>
+        <v>67466.44</v>
       </c>
       <c r="E34" t="n">
-        <v>3.36</v>
+        <v>93.47</v>
       </c>
       <c r="F34" t="n">
-        <v>110.85</v>
+        <v>922.58</v>
       </c>
       <c r="G34" t="n">
-        <v>337.56</v>
+        <v>27119.22</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B35" t="n">
-        <v>5.44</v>
+        <v>449.78</v>
       </c>
       <c r="C35" t="n">
-        <v>184.12</v>
+        <v>135.73</v>
       </c>
       <c r="D35" t="n">
-        <v>1120.97</v>
+        <v>67330.71000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>2.53</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>111.68</v>
+        <v>925.66</v>
       </c>
       <c r="G35" t="n">
-        <v>225.88</v>
+        <v>26193.56</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36" t="n">
-        <v>4.67</v>
+        <v>448.87</v>
       </c>
       <c r="C36" t="n">
-        <v>184.89</v>
+        <v>136.64</v>
       </c>
       <c r="D36" t="n">
-        <v>936.08</v>
+        <v>67194.08</v>
       </c>
       <c r="E36" t="n">
-        <v>1.69</v>
+        <v>87.31</v>
       </c>
       <c r="F36" t="n">
-        <v>112.52</v>
+        <v>928.75</v>
       </c>
       <c r="G36" t="n">
-        <v>113.36</v>
+        <v>25264.81</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B37" t="n">
-        <v>3.9</v>
+        <v>447.96</v>
       </c>
       <c r="C37" t="n">
-        <v>185.66</v>
+        <v>137.55</v>
       </c>
       <c r="D37" t="n">
-        <v>750.41</v>
+        <v>67056.53</v>
       </c>
       <c r="E37" t="n">
-        <v>0.85</v>
+        <v>84.22</v>
       </c>
       <c r="F37" t="n">
-        <v>113.36</v>
+        <v>931.84</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24332.97</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38" t="n">
-        <v>3.13</v>
+        <v>447.04</v>
       </c>
       <c r="C38" t="n">
-        <v>186.44</v>
+        <v>138.46</v>
       </c>
       <c r="D38" t="n">
-        <v>563.98</v>
-      </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+        <v>66918.06</v>
+      </c>
+      <c r="E38" t="n">
+        <v>81.11</v>
+      </c>
+      <c r="F38" t="n">
+        <v>934.95</v>
+      </c>
+      <c r="G38" t="n">
+        <v>23398.03</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B39" t="n">
-        <v>2.35</v>
+        <v>446.12</v>
       </c>
       <c r="C39" t="n">
-        <v>187.21</v>
+        <v>139.39</v>
       </c>
       <c r="D39" t="n">
-        <v>376.77</v>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+        <v>66778.67999999999</v>
+      </c>
+      <c r="E39" t="n">
+        <v>77.98999999999999</v>
+      </c>
+      <c r="F39" t="n">
+        <v>938.0599999999999</v>
+      </c>
+      <c r="G39" t="n">
+        <v>22459.96</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B40" t="n">
-        <v>1.57</v>
+        <v>445.19</v>
       </c>
       <c r="C40" t="n">
-        <v>187.99</v>
+        <v>140.32</v>
       </c>
       <c r="D40" t="n">
-        <v>188.78</v>
-      </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+        <v>66638.36</v>
+      </c>
+      <c r="E40" t="n">
+        <v>74.87</v>
+      </c>
+      <c r="F40" t="n">
+        <v>941.1900000000001</v>
+      </c>
+      <c r="G40" t="n">
+        <v>21518.77</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
+        <v>27</v>
+      </c>
+      <c r="B41" t="n">
+        <v>444.26</v>
+      </c>
+      <c r="C41" t="n">
+        <v>141.25</v>
+      </c>
+      <c r="D41" t="n">
+        <v>66497.11</v>
+      </c>
+      <c r="E41" t="n">
+        <v>71.73</v>
+      </c>
+      <c r="F41" t="n">
+        <v>944.33</v>
+      </c>
+      <c r="G41" t="n">
+        <v>20574.44</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
         <v>28</v>
       </c>
-      <c r="B41" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="C41" t="n">
-        <v>188.78</v>
-      </c>
-      <c r="D41" t="n">
+      <c r="B42" t="n">
+        <v>443.31</v>
+      </c>
+      <c r="C42" t="n">
+        <v>142.19</v>
+      </c>
+      <c r="D42" t="n">
+        <v>66354.91</v>
+      </c>
+      <c r="E42" t="n">
+        <v>68.58</v>
+      </c>
+      <c r="F42" t="n">
+        <v>947.48</v>
+      </c>
+      <c r="G42" t="n">
+        <v>19626.97</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>29</v>
+      </c>
+      <c r="B43" t="n">
+        <v>442.37</v>
+      </c>
+      <c r="C43" t="n">
+        <v>143.14</v>
+      </c>
+      <c r="D43" t="n">
+        <v>66211.77</v>
+      </c>
+      <c r="E43" t="n">
+        <v>65.42</v>
+      </c>
+      <c r="F43" t="n">
+        <v>950.63</v>
+      </c>
+      <c r="G43" t="n">
+        <v>18676.33</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>30</v>
+      </c>
+      <c r="B44" t="n">
+        <v>441.41</v>
+      </c>
+      <c r="C44" t="n">
+        <v>144.1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>66067.67</v>
+      </c>
+      <c r="E44" t="n">
+        <v>62.25</v>
+      </c>
+      <c r="F44" t="n">
+        <v>953.8</v>
+      </c>
+      <c r="G44" t="n">
+        <v>17722.53</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>31</v>
+      </c>
+      <c r="B45" t="n">
+        <v>440.45</v>
+      </c>
+      <c r="C45" t="n">
+        <v>145.06</v>
+      </c>
+      <c r="D45" t="n">
+        <v>65922.62</v>
+      </c>
+      <c r="E45" t="n">
+        <v>59.08</v>
+      </c>
+      <c r="F45" t="n">
+        <v>956.98</v>
+      </c>
+      <c r="G45" t="n">
+        <v>16765.55</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>32</v>
+      </c>
+      <c r="B46" t="n">
+        <v>439.48</v>
+      </c>
+      <c r="C46" t="n">
+        <v>146.02</v>
+      </c>
+      <c r="D46" t="n">
+        <v>65776.59</v>
+      </c>
+      <c r="E46" t="n">
+        <v>55.89</v>
+      </c>
+      <c r="F46" t="n">
+        <v>960.17</v>
+      </c>
+      <c r="G46" t="n">
+        <v>15805.37</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>33</v>
+      </c>
+      <c r="B47" t="n">
+        <v>438.51</v>
+      </c>
+      <c r="C47" t="n">
+        <v>147</v>
+      </c>
+      <c r="D47" t="n">
+        <v>65629.60000000001</v>
+      </c>
+      <c r="E47" t="n">
+        <v>52.68</v>
+      </c>
+      <c r="F47" t="n">
+        <v>963.37</v>
+      </c>
+      <c r="G47" t="n">
+        <v>14842</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>34</v>
+      </c>
+      <c r="B48" t="n">
+        <v>437.53</v>
+      </c>
+      <c r="C48" t="n">
+        <v>147.98</v>
+      </c>
+      <c r="D48" t="n">
+        <v>65481.62</v>
+      </c>
+      <c r="E48" t="n">
+        <v>49.47</v>
+      </c>
+      <c r="F48" t="n">
+        <v>966.58</v>
+      </c>
+      <c r="G48" t="n">
+        <v>13875.42</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>35</v>
+      </c>
+      <c r="B49" t="n">
+        <v>436.54</v>
+      </c>
+      <c r="C49" t="n">
+        <v>148.96</v>
+      </c>
+      <c r="D49" t="n">
+        <v>65332.66</v>
+      </c>
+      <c r="E49" t="n">
+        <v>46.25</v>
+      </c>
+      <c r="F49" t="n">
+        <v>969.8099999999999</v>
+      </c>
+      <c r="G49" t="n">
+        <v>12905.61</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>36</v>
+      </c>
+      <c r="B50" t="n">
+        <v>435.55</v>
+      </c>
+      <c r="C50" t="n">
+        <v>149.96</v>
+      </c>
+      <c r="D50" t="n">
+        <v>65182.7</v>
+      </c>
+      <c r="E50" t="n">
+        <v>43.02</v>
+      </c>
+      <c r="F50" t="n">
+        <v>973.04</v>
+      </c>
+      <c r="G50" t="n">
+        <v>11932.57</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>37</v>
+      </c>
+      <c r="B51" t="n">
+        <v>434.55</v>
+      </c>
+      <c r="C51" t="n">
+        <v>150.96</v>
+      </c>
+      <c r="D51" t="n">
+        <v>65031.74</v>
+      </c>
+      <c r="E51" t="n">
+        <v>39.78</v>
+      </c>
+      <c r="F51" t="n">
+        <v>976.28</v>
+      </c>
+      <c r="G51" t="n">
+        <v>10956.29</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>38</v>
+      </c>
+      <c r="B52" t="n">
+        <v>433.54</v>
+      </c>
+      <c r="C52" t="n">
+        <v>151.96</v>
+      </c>
+      <c r="D52" t="n">
+        <v>64879.78</v>
+      </c>
+      <c r="E52" t="n">
+        <v>36.52</v>
+      </c>
+      <c r="F52" t="n">
+        <v>979.54</v>
+      </c>
+      <c r="G52" t="n">
+        <v>9976.75</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>39</v>
+      </c>
+      <c r="B53" t="n">
+        <v>432.53</v>
+      </c>
+      <c r="C53" t="n">
+        <v>152.98</v>
+      </c>
+      <c r="D53" t="n">
+        <v>64726.8</v>
+      </c>
+      <c r="E53" t="n">
+        <v>33.26</v>
+      </c>
+      <c r="F53" t="n">
+        <v>982.8</v>
+      </c>
+      <c r="G53" t="n">
+        <v>8993.950000000001</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>40</v>
+      </c>
+      <c r="B54" t="n">
+        <v>431.51</v>
+      </c>
+      <c r="C54" t="n">
+        <v>154</v>
+      </c>
+      <c r="D54" t="n">
+        <v>64572.81</v>
+      </c>
+      <c r="E54" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="F54" t="n">
+        <v>986.08</v>
+      </c>
+      <c r="G54" t="n">
+        <v>8007.88</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>41</v>
+      </c>
+      <c r="B55" t="n">
+        <v>430.49</v>
+      </c>
+      <c r="C55" t="n">
+        <v>155.02</v>
+      </c>
+      <c r="D55" t="n">
+        <v>64417.78</v>
+      </c>
+      <c r="E55" t="n">
+        <v>26.69</v>
+      </c>
+      <c r="F55" t="n">
+        <v>989.36</v>
+      </c>
+      <c r="G55" t="n">
+        <v>7018.51</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>42</v>
+      </c>
+      <c r="B56" t="n">
+        <v>429.45</v>
+      </c>
+      <c r="C56" t="n">
+        <v>156.06</v>
+      </c>
+      <c r="D56" t="n">
+        <v>64261.73</v>
+      </c>
+      <c r="E56" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="F56" t="n">
+        <v>992.66</v>
+      </c>
+      <c r="G56" t="n">
+        <v>6025.85</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>43</v>
+      </c>
+      <c r="B57" t="n">
+        <v>428.41</v>
+      </c>
+      <c r="C57" t="n">
+        <v>157.1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>64104.63</v>
+      </c>
+      <c r="E57" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="F57" t="n">
+        <v>995.97</v>
+      </c>
+      <c r="G57" t="n">
+        <v>5029.88</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>44</v>
+      </c>
+      <c r="B58" t="n">
+        <v>427.36</v>
+      </c>
+      <c r="C58" t="n">
+        <v>158.14</v>
+      </c>
+      <c r="D58" t="n">
+        <v>63946.49</v>
+      </c>
+      <c r="E58" t="n">
+        <v>16.77</v>
+      </c>
+      <c r="F58" t="n">
+        <v>999.29</v>
+      </c>
+      <c r="G58" t="n">
+        <v>4030.59</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>45</v>
+      </c>
+      <c r="B59" t="n">
+        <v>426.31</v>
+      </c>
+      <c r="C59" t="n">
+        <v>159.2</v>
+      </c>
+      <c r="D59" t="n">
+        <v>63787.29</v>
+      </c>
+      <c r="E59" t="n">
+        <v>13.44</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1002.62</v>
+      </c>
+      <c r="G59" t="n">
+        <v>3027.96</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>46</v>
+      </c>
+      <c r="B60" t="n">
+        <v>425.25</v>
+      </c>
+      <c r="C60" t="n">
+        <v>160.26</v>
+      </c>
+      <c r="D60" t="n">
+        <v>63627.03</v>
+      </c>
+      <c r="E60" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1005.96</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>47</v>
+      </c>
+      <c r="B61" t="n">
+        <v>424.18</v>
+      </c>
+      <c r="C61" t="n">
+        <v>161.33</v>
+      </c>
+      <c r="D61" t="n">
+        <v>63465.7</v>
+      </c>
+      <c r="E61" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1009.32</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1012.68</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>48</v>
+      </c>
+      <c r="B62" t="n">
+        <v>423.1</v>
+      </c>
+      <c r="C62" t="n">
+        <v>162.4</v>
+      </c>
+      <c r="D62" t="n">
+        <v>63303.3</v>
+      </c>
+      <c r="E62" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1012.68</v>
+      </c>
+      <c r="G62" t="n">
         <v>0</v>
       </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>49</v>
+      </c>
+      <c r="B63" t="n">
+        <v>422.02</v>
+      </c>
+      <c r="C63" t="n">
+        <v>163.49</v>
+      </c>
+      <c r="D63" t="n">
+        <v>63139.81</v>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>50</v>
+      </c>
+      <c r="B64" t="n">
+        <v>420.93</v>
+      </c>
+      <c r="C64" t="n">
+        <v>164.58</v>
+      </c>
+      <c r="D64" t="n">
+        <v>62975.24</v>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>51</v>
+      </c>
+      <c r="B65" t="n">
+        <v>419.83</v>
+      </c>
+      <c r="C65" t="n">
+        <v>165.67</v>
+      </c>
+      <c r="D65" t="n">
+        <v>62809.56</v>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>52</v>
+      </c>
+      <c r="B66" t="n">
+        <v>418.73</v>
+      </c>
+      <c r="C66" t="n">
+        <v>166.78</v>
+      </c>
+      <c r="D66" t="n">
+        <v>62642.79</v>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>53</v>
+      </c>
+      <c r="B67" t="n">
+        <v>417.62</v>
+      </c>
+      <c r="C67" t="n">
+        <v>167.89</v>
+      </c>
+      <c r="D67" t="n">
+        <v>62474.9</v>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>54</v>
+      </c>
+      <c r="B68" t="n">
+        <v>416.5</v>
+      </c>
+      <c r="C68" t="n">
+        <v>169.01</v>
+      </c>
+      <c r="D68" t="n">
+        <v>62305.89</v>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>55</v>
+      </c>
+      <c r="B69" t="n">
+        <v>415.37</v>
+      </c>
+      <c r="C69" t="n">
+        <v>170.14</v>
+      </c>
+      <c r="D69" t="n">
+        <v>62135.75</v>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>56</v>
+      </c>
+      <c r="B70" t="n">
+        <v>414.24</v>
+      </c>
+      <c r="C70" t="n">
+        <v>171.27</v>
+      </c>
+      <c r="D70" t="n">
+        <v>61964.48</v>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>57</v>
+      </c>
+      <c r="B71" t="n">
+        <v>413.1</v>
+      </c>
+      <c r="C71" t="n">
+        <v>172.41</v>
+      </c>
+      <c r="D71" t="n">
+        <v>61792.07</v>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>58</v>
+      </c>
+      <c r="B72" t="n">
+        <v>411.95</v>
+      </c>
+      <c r="C72" t="n">
+        <v>173.56</v>
+      </c>
+      <c r="D72" t="n">
+        <v>61618.51</v>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>59</v>
+      </c>
+      <c r="B73" t="n">
+        <v>410.79</v>
+      </c>
+      <c r="C73" t="n">
+        <v>174.72</v>
+      </c>
+      <c r="D73" t="n">
+        <v>61443.79</v>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>60</v>
+      </c>
+      <c r="B74" t="n">
+        <v>409.63</v>
+      </c>
+      <c r="C74" t="n">
+        <v>175.88</v>
+      </c>
+      <c r="D74" t="n">
+        <v>61267.91</v>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>61</v>
+      </c>
+      <c r="B75" t="n">
+        <v>408.45</v>
+      </c>
+      <c r="C75" t="n">
+        <v>177.06</v>
+      </c>
+      <c r="D75" t="n">
+        <v>61090.85</v>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>62</v>
+      </c>
+      <c r="B76" t="n">
+        <v>407.27</v>
+      </c>
+      <c r="C76" t="n">
+        <v>178.24</v>
+      </c>
+      <c r="D76" t="n">
+        <v>60912.62</v>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>63</v>
+      </c>
+      <c r="B77" t="n">
+        <v>406.08</v>
+      </c>
+      <c r="C77" t="n">
+        <v>179.42</v>
+      </c>
+      <c r="D77" t="n">
+        <v>60733.19</v>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>64</v>
+      </c>
+      <c r="B78" t="n">
+        <v>404.89</v>
+      </c>
+      <c r="C78" t="n">
+        <v>180.62</v>
+      </c>
+      <c r="D78" t="n">
+        <v>60552.57</v>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>65</v>
+      </c>
+      <c r="B79" t="n">
+        <v>403.68</v>
+      </c>
+      <c r="C79" t="n">
+        <v>181.82</v>
+      </c>
+      <c r="D79" t="n">
+        <v>60370.75</v>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>66</v>
+      </c>
+      <c r="B80" t="n">
+        <v>402.47</v>
+      </c>
+      <c r="C80" t="n">
+        <v>183.04</v>
+      </c>
+      <c r="D80" t="n">
+        <v>60187.71</v>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>67</v>
+      </c>
+      <c r="B81" t="n">
+        <v>401.25</v>
+      </c>
+      <c r="C81" t="n">
+        <v>184.26</v>
+      </c>
+      <c r="D81" t="n">
+        <v>60003.46</v>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>68</v>
+      </c>
+      <c r="B82" t="n">
+        <v>400.02</v>
+      </c>
+      <c r="C82" t="n">
+        <v>185.49</v>
+      </c>
+      <c r="D82" t="n">
+        <v>59817.97</v>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>69</v>
+      </c>
+      <c r="B83" t="n">
+        <v>398.79</v>
+      </c>
+      <c r="C83" t="n">
+        <v>186.72</v>
+      </c>
+      <c r="D83" t="n">
+        <v>59631.25</v>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>70</v>
+      </c>
+      <c r="B84" t="n">
+        <v>397.54</v>
+      </c>
+      <c r="C84" t="n">
+        <v>187.97</v>
+      </c>
+      <c r="D84" t="n">
+        <v>59443.28</v>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>71</v>
+      </c>
+      <c r="B85" t="n">
+        <v>396.29</v>
+      </c>
+      <c r="C85" t="n">
+        <v>189.22</v>
+      </c>
+      <c r="D85" t="n">
+        <v>59254.06</v>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>72</v>
+      </c>
+      <c r="B86" t="n">
+        <v>395.03</v>
+      </c>
+      <c r="C86" t="n">
+        <v>190.48</v>
+      </c>
+      <c r="D86" t="n">
+        <v>59063.58</v>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>73</v>
+      </c>
+      <c r="B87" t="n">
+        <v>393.76</v>
+      </c>
+      <c r="C87" t="n">
+        <v>191.75</v>
+      </c>
+      <c r="D87" t="n">
+        <v>58871.83</v>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>74</v>
+      </c>
+      <c r="B88" t="n">
+        <v>392.48</v>
+      </c>
+      <c r="C88" t="n">
+        <v>193.03</v>
+      </c>
+      <c r="D88" t="n">
+        <v>58678.8</v>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>75</v>
+      </c>
+      <c r="B89" t="n">
+        <v>391.19</v>
+      </c>
+      <c r="C89" t="n">
+        <v>194.32</v>
+      </c>
+      <c r="D89" t="n">
+        <v>58484.49</v>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>76</v>
+      </c>
+      <c r="B90" t="n">
+        <v>389.9</v>
+      </c>
+      <c r="C90" t="n">
+        <v>195.61</v>
+      </c>
+      <c r="D90" t="n">
+        <v>58288.88</v>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>77</v>
+      </c>
+      <c r="B91" t="n">
+        <v>388.59</v>
+      </c>
+      <c r="C91" t="n">
+        <v>196.92</v>
+      </c>
+      <c r="D91" t="n">
+        <v>58091.96</v>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>78</v>
+      </c>
+      <c r="B92" t="n">
+        <v>387.28</v>
+      </c>
+      <c r="C92" t="n">
+        <v>198.23</v>
+      </c>
+      <c r="D92" t="n">
+        <v>57893.73</v>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>79</v>
+      </c>
+      <c r="B93" t="n">
+        <v>385.96</v>
+      </c>
+      <c r="C93" t="n">
+        <v>199.55</v>
+      </c>
+      <c r="D93" t="n">
+        <v>57694.18</v>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>80</v>
+      </c>
+      <c r="B94" t="n">
+        <v>384.63</v>
+      </c>
+      <c r="C94" t="n">
+        <v>200.88</v>
+      </c>
+      <c r="D94" t="n">
+        <v>57493.3</v>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>81</v>
+      </c>
+      <c r="B95" t="n">
+        <v>383.29</v>
+      </c>
+      <c r="C95" t="n">
+        <v>202.22</v>
+      </c>
+      <c r="D95" t="n">
+        <v>57291.08</v>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>82</v>
+      </c>
+      <c r="B96" t="n">
+        <v>381.94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>203.57</v>
+      </c>
+      <c r="D96" t="n">
+        <v>57087.52</v>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>83</v>
+      </c>
+      <c r="B97" t="n">
+        <v>380.58</v>
+      </c>
+      <c r="C97" t="n">
+        <v>204.92</v>
+      </c>
+      <c r="D97" t="n">
+        <v>56882.59</v>
+      </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>84</v>
+      </c>
+      <c r="B98" t="n">
+        <v>379.22</v>
+      </c>
+      <c r="C98" t="n">
+        <v>206.29</v>
+      </c>
+      <c r="D98" t="n">
+        <v>56676.3</v>
+      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>85</v>
+      </c>
+      <c r="B99" t="n">
+        <v>377.84</v>
+      </c>
+      <c r="C99" t="n">
+        <v>207.67</v>
+      </c>
+      <c r="D99" t="n">
+        <v>56468.63</v>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>86</v>
+      </c>
+      <c r="B100" t="n">
+        <v>376.46</v>
+      </c>
+      <c r="C100" t="n">
+        <v>209.05</v>
+      </c>
+      <c r="D100" t="n">
+        <v>56259.58</v>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>87</v>
+      </c>
+      <c r="B101" t="n">
+        <v>375.06</v>
+      </c>
+      <c r="C101" t="n">
+        <v>210.44</v>
+      </c>
+      <c r="D101" t="n">
+        <v>56049.14</v>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>88</v>
+      </c>
+      <c r="B102" t="n">
+        <v>373.66</v>
+      </c>
+      <c r="C102" t="n">
+        <v>211.85</v>
+      </c>
+      <c r="D102" t="n">
+        <v>55837.29</v>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>89</v>
+      </c>
+      <c r="B103" t="n">
+        <v>372.25</v>
+      </c>
+      <c r="C103" t="n">
+        <v>213.26</v>
+      </c>
+      <c r="D103" t="n">
+        <v>55624.03</v>
+      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>90</v>
+      </c>
+      <c r="B104" t="n">
+        <v>370.83</v>
+      </c>
+      <c r="C104" t="n">
+        <v>214.68</v>
+      </c>
+      <c r="D104" t="n">
+        <v>55409.35</v>
+      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>91</v>
+      </c>
+      <c r="B105" t="n">
+        <v>369.4</v>
+      </c>
+      <c r="C105" t="n">
+        <v>216.11</v>
+      </c>
+      <c r="D105" t="n">
+        <v>55193.24</v>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>92</v>
+      </c>
+      <c r="B106" t="n">
+        <v>367.95</v>
+      </c>
+      <c r="C106" t="n">
+        <v>217.55</v>
+      </c>
+      <c r="D106" t="n">
+        <v>54975.69</v>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>93</v>
+      </c>
+      <c r="B107" t="n">
+        <v>366.5</v>
+      </c>
+      <c r="C107" t="n">
+        <v>219</v>
+      </c>
+      <c r="D107" t="n">
+        <v>54756.68</v>
+      </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>94</v>
+      </c>
+      <c r="B108" t="n">
+        <v>365.04</v>
+      </c>
+      <c r="C108" t="n">
+        <v>220.46</v>
+      </c>
+      <c r="D108" t="n">
+        <v>54536.22</v>
+      </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>95</v>
+      </c>
+      <c r="B109" t="n">
+        <v>363.57</v>
+      </c>
+      <c r="C109" t="n">
+        <v>221.93</v>
+      </c>
+      <c r="D109" t="n">
+        <v>54314.29</v>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>96</v>
+      </c>
+      <c r="B110" t="n">
+        <v>362.1</v>
+      </c>
+      <c r="C110" t="n">
+        <v>223.41</v>
+      </c>
+      <c r="D110" t="n">
+        <v>54090.87</v>
+      </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>97</v>
+      </c>
+      <c r="B111" t="n">
+        <v>360.61</v>
+      </c>
+      <c r="C111" t="n">
+        <v>224.9</v>
+      </c>
+      <c r="D111" t="n">
+        <v>53865.97</v>
+      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>98</v>
+      </c>
+      <c r="B112" t="n">
+        <v>359.11</v>
+      </c>
+      <c r="C112" t="n">
+        <v>226.4</v>
+      </c>
+      <c r="D112" t="n">
+        <v>53639.57</v>
+      </c>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>99</v>
+      </c>
+      <c r="B113" t="n">
+        <v>357.6</v>
+      </c>
+      <c r="C113" t="n">
+        <v>227.91</v>
+      </c>
+      <c r="D113" t="n">
+        <v>53411.66</v>
+      </c>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>100</v>
+      </c>
+      <c r="B114" t="n">
+        <v>356.08</v>
+      </c>
+      <c r="C114" t="n">
+        <v>229.43</v>
+      </c>
+      <c r="D114" t="n">
+        <v>53182.23</v>
+      </c>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>101</v>
+      </c>
+      <c r="B115" t="n">
+        <v>354.55</v>
+      </c>
+      <c r="C115" t="n">
+        <v>230.96</v>
+      </c>
+      <c r="D115" t="n">
+        <v>52951.27</v>
+      </c>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>102</v>
+      </c>
+      <c r="B116" t="n">
+        <v>353.01</v>
+      </c>
+      <c r="C116" t="n">
+        <v>232.5</v>
+      </c>
+      <c r="D116" t="n">
+        <v>52718.77</v>
+      </c>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>103</v>
+      </c>
+      <c r="B117" t="n">
+        <v>351.46</v>
+      </c>
+      <c r="C117" t="n">
+        <v>234.05</v>
+      </c>
+      <c r="D117" t="n">
+        <v>52484.72</v>
+      </c>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>104</v>
+      </c>
+      <c r="B118" t="n">
+        <v>349.9</v>
+      </c>
+      <c r="C118" t="n">
+        <v>235.61</v>
+      </c>
+      <c r="D118" t="n">
+        <v>52249.11</v>
+      </c>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>105</v>
+      </c>
+      <c r="B119" t="n">
+        <v>348.33</v>
+      </c>
+      <c r="C119" t="n">
+        <v>237.18</v>
+      </c>
+      <c r="D119" t="n">
+        <v>52011.93</v>
+      </c>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>106</v>
+      </c>
+      <c r="B120" t="n">
+        <v>346.75</v>
+      </c>
+      <c r="C120" t="n">
+        <v>238.76</v>
+      </c>
+      <c r="D120" t="n">
+        <v>51773.17</v>
+      </c>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>107</v>
+      </c>
+      <c r="B121" t="n">
+        <v>345.15</v>
+      </c>
+      <c r="C121" t="n">
+        <v>240.35</v>
+      </c>
+      <c r="D121" t="n">
+        <v>51532.81</v>
+      </c>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>108</v>
+      </c>
+      <c r="B122" t="n">
+        <v>343.55</v>
+      </c>
+      <c r="C122" t="n">
+        <v>241.96</v>
+      </c>
+      <c r="D122" t="n">
+        <v>51290.86</v>
+      </c>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>109</v>
+      </c>
+      <c r="B123" t="n">
+        <v>341.94</v>
+      </c>
+      <c r="C123" t="n">
+        <v>243.57</v>
+      </c>
+      <c r="D123" t="n">
+        <v>51047.29</v>
+      </c>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>110</v>
+      </c>
+      <c r="B124" t="n">
+        <v>340.32</v>
+      </c>
+      <c r="C124" t="n">
+        <v>245.19</v>
+      </c>
+      <c r="D124" t="n">
+        <v>50802.09</v>
+      </c>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>111</v>
+      </c>
+      <c r="B125" t="n">
+        <v>338.68</v>
+      </c>
+      <c r="C125" t="n">
+        <v>246.83</v>
+      </c>
+      <c r="D125" t="n">
+        <v>50555.27</v>
+      </c>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>112</v>
+      </c>
+      <c r="B126" t="n">
+        <v>337.04</v>
+      </c>
+      <c r="C126" t="n">
+        <v>248.47</v>
+      </c>
+      <c r="D126" t="n">
+        <v>50306.79</v>
+      </c>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>113</v>
+      </c>
+      <c r="B127" t="n">
+        <v>335.38</v>
+      </c>
+      <c r="C127" t="n">
+        <v>250.13</v>
+      </c>
+      <c r="D127" t="n">
+        <v>50056.66</v>
+      </c>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>114</v>
+      </c>
+      <c r="B128" t="n">
+        <v>333.71</v>
+      </c>
+      <c r="C128" t="n">
+        <v>251.8</v>
+      </c>
+      <c r="D128" t="n">
+        <v>49804.87</v>
+      </c>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>115</v>
+      </c>
+      <c r="B129" t="n">
+        <v>332.03</v>
+      </c>
+      <c r="C129" t="n">
+        <v>253.48</v>
+      </c>
+      <c r="D129" t="n">
+        <v>49551.39</v>
+      </c>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>116</v>
+      </c>
+      <c r="B130" t="n">
+        <v>330.34</v>
+      </c>
+      <c r="C130" t="n">
+        <v>255.17</v>
+      </c>
+      <c r="D130" t="n">
+        <v>49296.23</v>
+      </c>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>117</v>
+      </c>
+      <c r="B131" t="n">
+        <v>328.64</v>
+      </c>
+      <c r="C131" t="n">
+        <v>256.87</v>
+      </c>
+      <c r="D131" t="n">
+        <v>49039.36</v>
+      </c>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>118</v>
+      </c>
+      <c r="B132" t="n">
+        <v>326.93</v>
+      </c>
+      <c r="C132" t="n">
+        <v>258.58</v>
+      </c>
+      <c r="D132" t="n">
+        <v>48780.78</v>
+      </c>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>119</v>
+      </c>
+      <c r="B133" t="n">
+        <v>325.21</v>
+      </c>
+      <c r="C133" t="n">
+        <v>260.3</v>
+      </c>
+      <c r="D133" t="n">
+        <v>48520.48</v>
+      </c>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>120</v>
+      </c>
+      <c r="B134" t="n">
+        <v>323.47</v>
+      </c>
+      <c r="C134" t="n">
+        <v>262.04</v>
+      </c>
+      <c r="D134" t="n">
+        <v>48258.44</v>
+      </c>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>121</v>
+      </c>
+      <c r="B135" t="n">
+        <v>321.72</v>
+      </c>
+      <c r="C135" t="n">
+        <v>263.79</v>
+      </c>
+      <c r="D135" t="n">
+        <v>47994.66</v>
+      </c>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>122</v>
+      </c>
+      <c r="B136" t="n">
+        <v>319.96</v>
+      </c>
+      <c r="C136" t="n">
+        <v>265.54</v>
+      </c>
+      <c r="D136" t="n">
+        <v>47729.11</v>
+      </c>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>123</v>
+      </c>
+      <c r="B137" t="n">
+        <v>318.19</v>
+      </c>
+      <c r="C137" t="n">
+        <v>267.31</v>
+      </c>
+      <c r="D137" t="n">
+        <v>47461.8</v>
+      </c>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>124</v>
+      </c>
+      <c r="B138" t="n">
+        <v>316.41</v>
+      </c>
+      <c r="C138" t="n">
+        <v>269.1</v>
+      </c>
+      <c r="D138" t="n">
+        <v>47192.7</v>
+      </c>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>125</v>
+      </c>
+      <c r="B139" t="n">
+        <v>314.62</v>
+      </c>
+      <c r="C139" t="n">
+        <v>270.89</v>
+      </c>
+      <c r="D139" t="n">
+        <v>46921.81</v>
+      </c>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>126</v>
+      </c>
+      <c r="B140" t="n">
+        <v>312.81</v>
+      </c>
+      <c r="C140" t="n">
+        <v>272.7</v>
+      </c>
+      <c r="D140" t="n">
+        <v>46649.12</v>
+      </c>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>127</v>
+      </c>
+      <c r="B141" t="n">
+        <v>310.99</v>
+      </c>
+      <c r="C141" t="n">
+        <v>274.51</v>
+      </c>
+      <c r="D141" t="n">
+        <v>46374.6</v>
+      </c>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>128</v>
+      </c>
+      <c r="B142" t="n">
+        <v>309.16</v>
+      </c>
+      <c r="C142" t="n">
+        <v>276.34</v>
+      </c>
+      <c r="D142" t="n">
+        <v>46098.26</v>
+      </c>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>129</v>
+      </c>
+      <c r="B143" t="n">
+        <v>307.32</v>
+      </c>
+      <c r="C143" t="n">
+        <v>278.19</v>
+      </c>
+      <c r="D143" t="n">
+        <v>45820.07</v>
+      </c>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>130</v>
+      </c>
+      <c r="B144" t="n">
+        <v>305.47</v>
+      </c>
+      <c r="C144" t="n">
+        <v>280.04</v>
+      </c>
+      <c r="D144" t="n">
+        <v>45540.03</v>
+      </c>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>131</v>
+      </c>
+      <c r="B145" t="n">
+        <v>303.6</v>
+      </c>
+      <c r="C145" t="n">
+        <v>281.91</v>
+      </c>
+      <c r="D145" t="n">
+        <v>45258.12</v>
+      </c>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>132</v>
+      </c>
+      <c r="B146" t="n">
+        <v>301.72</v>
+      </c>
+      <c r="C146" t="n">
+        <v>283.79</v>
+      </c>
+      <c r="D146" t="n">
+        <v>44974.34</v>
+      </c>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>133</v>
+      </c>
+      <c r="B147" t="n">
+        <v>299.83</v>
+      </c>
+      <c r="C147" t="n">
+        <v>285.68</v>
+      </c>
+      <c r="D147" t="n">
+        <v>44688.66</v>
+      </c>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>134</v>
+      </c>
+      <c r="B148" t="n">
+        <v>297.92</v>
+      </c>
+      <c r="C148" t="n">
+        <v>287.58</v>
+      </c>
+      <c r="D148" t="n">
+        <v>44401.07</v>
+      </c>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>135</v>
+      </c>
+      <c r="B149" t="n">
+        <v>296.01</v>
+      </c>
+      <c r="C149" t="n">
+        <v>289.5</v>
+      </c>
+      <c r="D149" t="n">
+        <v>44111.57</v>
+      </c>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>136</v>
+      </c>
+      <c r="B150" t="n">
+        <v>294.08</v>
+      </c>
+      <c r="C150" t="n">
+        <v>291.43</v>
+      </c>
+      <c r="D150" t="n">
+        <v>43820.14</v>
+      </c>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>137</v>
+      </c>
+      <c r="B151" t="n">
+        <v>292.13</v>
+      </c>
+      <c r="C151" t="n">
+        <v>293.37</v>
+      </c>
+      <c r="D151" t="n">
+        <v>43526.77</v>
+      </c>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>138</v>
+      </c>
+      <c r="B152" t="n">
+        <v>290.18</v>
+      </c>
+      <c r="C152" t="n">
+        <v>295.33</v>
+      </c>
+      <c r="D152" t="n">
+        <v>43231.44</v>
+      </c>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>139</v>
+      </c>
+      <c r="B153" t="n">
+        <v>288.21</v>
+      </c>
+      <c r="C153" t="n">
+        <v>297.3</v>
+      </c>
+      <c r="D153" t="n">
+        <v>42934.14</v>
+      </c>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>140</v>
+      </c>
+      <c r="B154" t="n">
+        <v>286.23</v>
+      </c>
+      <c r="C154" t="n">
+        <v>299.28</v>
+      </c>
+      <c r="D154" t="n">
+        <v>42634.86</v>
+      </c>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>141</v>
+      </c>
+      <c r="B155" t="n">
+        <v>284.23</v>
+      </c>
+      <c r="C155" t="n">
+        <v>301.28</v>
+      </c>
+      <c r="D155" t="n">
+        <v>42333.58</v>
+      </c>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>142</v>
+      </c>
+      <c r="B156" t="n">
+        <v>282.22</v>
+      </c>
+      <c r="C156" t="n">
+        <v>303.28</v>
+      </c>
+      <c r="D156" t="n">
+        <v>42030.3</v>
+      </c>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>143</v>
+      </c>
+      <c r="B157" t="n">
+        <v>280.2</v>
+      </c>
+      <c r="C157" t="n">
+        <v>305.31</v>
+      </c>
+      <c r="D157" t="n">
+        <v>41724.99</v>
+      </c>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>144</v>
+      </c>
+      <c r="B158" t="n">
+        <v>278.17</v>
+      </c>
+      <c r="C158" t="n">
+        <v>307.34</v>
+      </c>
+      <c r="D158" t="n">
+        <v>41417.65</v>
+      </c>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>145</v>
+      </c>
+      <c r="B159" t="n">
+        <v>276.12</v>
+      </c>
+      <c r="C159" t="n">
+        <v>309.39</v>
+      </c>
+      <c r="D159" t="n">
+        <v>41108.26</v>
+      </c>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>146</v>
+      </c>
+      <c r="B160" t="n">
+        <v>274.06</v>
+      </c>
+      <c r="C160" t="n">
+        <v>311.45</v>
+      </c>
+      <c r="D160" t="n">
+        <v>40796.81</v>
+      </c>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>147</v>
+      </c>
+      <c r="B161" t="n">
+        <v>271.98</v>
+      </c>
+      <c r="C161" t="n">
+        <v>313.53</v>
+      </c>
+      <c r="D161" t="n">
+        <v>40483.28</v>
+      </c>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>148</v>
+      </c>
+      <c r="B162" t="n">
+        <v>269.89</v>
+      </c>
+      <c r="C162" t="n">
+        <v>315.62</v>
+      </c>
+      <c r="D162" t="n">
+        <v>40167.66</v>
+      </c>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>149</v>
+      </c>
+      <c r="B163" t="n">
+        <v>267.78</v>
+      </c>
+      <c r="C163" t="n">
+        <v>317.72</v>
+      </c>
+      <c r="D163" t="n">
+        <v>39849.94</v>
+      </c>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>150</v>
+      </c>
+      <c r="B164" t="n">
+        <v>265.67</v>
+      </c>
+      <c r="C164" t="n">
+        <v>319.84</v>
+      </c>
+      <c r="D164" t="n">
+        <v>39530.09</v>
+      </c>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>151</v>
+      </c>
+      <c r="B165" t="n">
+        <v>263.53</v>
+      </c>
+      <c r="C165" t="n">
+        <v>321.97</v>
+      </c>
+      <c r="D165" t="n">
+        <v>39208.12</v>
+      </c>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>152</v>
+      </c>
+      <c r="B166" t="n">
+        <v>261.39</v>
+      </c>
+      <c r="C166" t="n">
+        <v>324.12</v>
+      </c>
+      <c r="D166" t="n">
+        <v>38884</v>
+      </c>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>153</v>
+      </c>
+      <c r="B167" t="n">
+        <v>259.23</v>
+      </c>
+      <c r="C167" t="n">
+        <v>326.28</v>
+      </c>
+      <c r="D167" t="n">
+        <v>38557.72</v>
+      </c>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>154</v>
+      </c>
+      <c r="B168" t="n">
+        <v>257.05</v>
+      </c>
+      <c r="C168" t="n">
+        <v>328.46</v>
+      </c>
+      <c r="D168" t="n">
+        <v>38229.26</v>
+      </c>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>155</v>
+      </c>
+      <c r="B169" t="n">
+        <v>254.86</v>
+      </c>
+      <c r="C169" t="n">
+        <v>330.65</v>
+      </c>
+      <c r="D169" t="n">
+        <v>37898.61</v>
+      </c>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>156</v>
+      </c>
+      <c r="B170" t="n">
+        <v>252.66</v>
+      </c>
+      <c r="C170" t="n">
+        <v>332.85</v>
+      </c>
+      <c r="D170" t="n">
+        <v>37565.76</v>
+      </c>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>157</v>
+      </c>
+      <c r="B171" t="n">
+        <v>250.44</v>
+      </c>
+      <c r="C171" t="n">
+        <v>335.07</v>
+      </c>
+      <c r="D171" t="n">
+        <v>37230.69</v>
+      </c>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>158</v>
+      </c>
+      <c r="B172" t="n">
+        <v>248.2</v>
+      </c>
+      <c r="C172" t="n">
+        <v>337.3</v>
+      </c>
+      <c r="D172" t="n">
+        <v>36893.39</v>
+      </c>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>159</v>
+      </c>
+      <c r="B173" t="n">
+        <v>245.96</v>
+      </c>
+      <c r="C173" t="n">
+        <v>339.55</v>
+      </c>
+      <c r="D173" t="n">
+        <v>36553.84</v>
+      </c>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>160</v>
+      </c>
+      <c r="B174" t="n">
+        <v>243.69</v>
+      </c>
+      <c r="C174" t="n">
+        <v>341.82</v>
+      </c>
+      <c r="D174" t="n">
+        <v>36212.02</v>
+      </c>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>161</v>
+      </c>
+      <c r="B175" t="n">
+        <v>241.41</v>
+      </c>
+      <c r="C175" t="n">
+        <v>344.09</v>
+      </c>
+      <c r="D175" t="n">
+        <v>35867.93</v>
+      </c>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>162</v>
+      </c>
+      <c r="B176" t="n">
+        <v>239.12</v>
+      </c>
+      <c r="C176" t="n">
+        <v>346.39</v>
+      </c>
+      <c r="D176" t="n">
+        <v>35521.54</v>
+      </c>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>163</v>
+      </c>
+      <c r="B177" t="n">
+        <v>236.81</v>
+      </c>
+      <c r="C177" t="n">
+        <v>348.7</v>
+      </c>
+      <c r="D177" t="n">
+        <v>35172.84</v>
+      </c>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>164</v>
+      </c>
+      <c r="B178" t="n">
+        <v>234.49</v>
+      </c>
+      <c r="C178" t="n">
+        <v>351.02</v>
+      </c>
+      <c r="D178" t="n">
+        <v>34821.82</v>
+      </c>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>165</v>
+      </c>
+      <c r="B179" t="n">
+        <v>232.15</v>
+      </c>
+      <c r="C179" t="n">
+        <v>353.36</v>
+      </c>
+      <c r="D179" t="n">
+        <v>34468.46</v>
+      </c>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>166</v>
+      </c>
+      <c r="B180" t="n">
+        <v>229.79</v>
+      </c>
+      <c r="C180" t="n">
+        <v>355.72</v>
+      </c>
+      <c r="D180" t="n">
+        <v>34112.74</v>
+      </c>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>167</v>
+      </c>
+      <c r="B181" t="n">
+        <v>227.42</v>
+      </c>
+      <c r="C181" t="n">
+        <v>358.09</v>
+      </c>
+      <c r="D181" t="n">
+        <v>33754.65</v>
+      </c>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>168</v>
+      </c>
+      <c r="B182" t="n">
+        <v>225.03</v>
+      </c>
+      <c r="C182" t="n">
+        <v>360.48</v>
+      </c>
+      <c r="D182" t="n">
+        <v>33394.17</v>
+      </c>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>169</v>
+      </c>
+      <c r="B183" t="n">
+        <v>222.63</v>
+      </c>
+      <c r="C183" t="n">
+        <v>362.88</v>
+      </c>
+      <c r="D183" t="n">
+        <v>33031.29</v>
+      </c>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>170</v>
+      </c>
+      <c r="B184" t="n">
+        <v>220.21</v>
+      </c>
+      <c r="C184" t="n">
+        <v>365.3</v>
+      </c>
+      <c r="D184" t="n">
+        <v>32665.99</v>
+      </c>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>171</v>
+      </c>
+      <c r="B185" t="n">
+        <v>217.77</v>
+      </c>
+      <c r="C185" t="n">
+        <v>367.73</v>
+      </c>
+      <c r="D185" t="n">
+        <v>32298.26</v>
+      </c>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>172</v>
+      </c>
+      <c r="B186" t="n">
+        <v>215.32</v>
+      </c>
+      <c r="C186" t="n">
+        <v>370.19</v>
+      </c>
+      <c r="D186" t="n">
+        <v>31928.07</v>
+      </c>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>173</v>
+      </c>
+      <c r="B187" t="n">
+        <v>212.85</v>
+      </c>
+      <c r="C187" t="n">
+        <v>372.65</v>
+      </c>
+      <c r="D187" t="n">
+        <v>31555.42</v>
+      </c>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>174</v>
+      </c>
+      <c r="B188" t="n">
+        <v>210.37</v>
+      </c>
+      <c r="C188" t="n">
+        <v>375.14</v>
+      </c>
+      <c r="D188" t="n">
+        <v>31180.28</v>
+      </c>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>175</v>
+      </c>
+      <c r="B189" t="n">
+        <v>207.87</v>
+      </c>
+      <c r="C189" t="n">
+        <v>377.64</v>
+      </c>
+      <c r="D189" t="n">
+        <v>30802.64</v>
+      </c>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>176</v>
+      </c>
+      <c r="B190" t="n">
+        <v>205.35</v>
+      </c>
+      <c r="C190" t="n">
+        <v>380.16</v>
+      </c>
+      <c r="D190" t="n">
+        <v>30422.48</v>
+      </c>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>177</v>
+      </c>
+      <c r="B191" t="n">
+        <v>202.82</v>
+      </c>
+      <c r="C191" t="n">
+        <v>382.69</v>
+      </c>
+      <c r="D191" t="n">
+        <v>30039.79</v>
+      </c>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>178</v>
+      </c>
+      <c r="B192" t="n">
+        <v>200.27</v>
+      </c>
+      <c r="C192" t="n">
+        <v>385.24</v>
+      </c>
+      <c r="D192" t="n">
+        <v>29654.55</v>
+      </c>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>179</v>
+      </c>
+      <c r="B193" t="n">
+        <v>197.7</v>
+      </c>
+      <c r="C193" t="n">
+        <v>387.81</v>
+      </c>
+      <c r="D193" t="n">
+        <v>29266.74</v>
+      </c>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>180</v>
+      </c>
+      <c r="B194" t="n">
+        <v>195.11</v>
+      </c>
+      <c r="C194" t="n">
+        <v>390.4</v>
+      </c>
+      <c r="D194" t="n">
+        <v>28876.34</v>
+      </c>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>181</v>
+      </c>
+      <c r="B195" t="n">
+        <v>192.51</v>
+      </c>
+      <c r="C195" t="n">
+        <v>393</v>
+      </c>
+      <c r="D195" t="n">
+        <v>28483.34</v>
+      </c>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>182</v>
+      </c>
+      <c r="B196" t="n">
+        <v>189.89</v>
+      </c>
+      <c r="C196" t="n">
+        <v>395.62</v>
+      </c>
+      <c r="D196" t="n">
+        <v>28087.72</v>
+      </c>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>183</v>
+      </c>
+      <c r="B197" t="n">
+        <v>187.25</v>
+      </c>
+      <c r="C197" t="n">
+        <v>398.26</v>
+      </c>
+      <c r="D197" t="n">
+        <v>27689.46</v>
+      </c>
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" t="inlineStr"/>
+      <c r="G197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>184</v>
+      </c>
+      <c r="B198" t="n">
+        <v>184.6</v>
+      </c>
+      <c r="C198" t="n">
+        <v>400.91</v>
+      </c>
+      <c r="D198" t="n">
+        <v>27288.55</v>
+      </c>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>185</v>
+      </c>
+      <c r="B199" t="n">
+        <v>181.92</v>
+      </c>
+      <c r="C199" t="n">
+        <v>403.58</v>
+      </c>
+      <c r="D199" t="n">
+        <v>26884.97</v>
+      </c>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>186</v>
+      </c>
+      <c r="B200" t="n">
+        <v>179.23</v>
+      </c>
+      <c r="C200" t="n">
+        <v>406.27</v>
+      </c>
+      <c r="D200" t="n">
+        <v>26478.69</v>
+      </c>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>187</v>
+      </c>
+      <c r="B201" t="n">
+        <v>176.52</v>
+      </c>
+      <c r="C201" t="n">
+        <v>408.98</v>
+      </c>
+      <c r="D201" t="n">
+        <v>26069.71</v>
+      </c>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>188</v>
+      </c>
+      <c r="B202" t="n">
+        <v>173.8</v>
+      </c>
+      <c r="C202" t="n">
+        <v>411.71</v>
+      </c>
+      <c r="D202" t="n">
+        <v>25658</v>
+      </c>
+      <c r="E202" t="inlineStr"/>
+      <c r="F202" t="inlineStr"/>
+      <c r="G202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>189</v>
+      </c>
+      <c r="B203" t="n">
+        <v>171.05</v>
+      </c>
+      <c r="C203" t="n">
+        <v>414.45</v>
+      </c>
+      <c r="D203" t="n">
+        <v>25243.55</v>
+      </c>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>190</v>
+      </c>
+      <c r="B204" t="n">
+        <v>168.29</v>
+      </c>
+      <c r="C204" t="n">
+        <v>417.22</v>
+      </c>
+      <c r="D204" t="n">
+        <v>24826.33</v>
+      </c>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>191</v>
+      </c>
+      <c r="B205" t="n">
+        <v>165.51</v>
+      </c>
+      <c r="C205" t="n">
+        <v>420</v>
+      </c>
+      <c r="D205" t="n">
+        <v>24406.33</v>
+      </c>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>192</v>
+      </c>
+      <c r="B206" t="n">
+        <v>162.71</v>
+      </c>
+      <c r="C206" t="n">
+        <v>422.8</v>
+      </c>
+      <c r="D206" t="n">
+        <v>23983.53</v>
+      </c>
+      <c r="E206" t="inlineStr"/>
+      <c r="F206" t="inlineStr"/>
+      <c r="G206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>193</v>
+      </c>
+      <c r="B207" t="n">
+        <v>159.89</v>
+      </c>
+      <c r="C207" t="n">
+        <v>425.62</v>
+      </c>
+      <c r="D207" t="n">
+        <v>23557.91</v>
+      </c>
+      <c r="E207" t="inlineStr"/>
+      <c r="F207" t="inlineStr"/>
+      <c r="G207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>194</v>
+      </c>
+      <c r="B208" t="n">
+        <v>157.05</v>
+      </c>
+      <c r="C208" t="n">
+        <v>428.46</v>
+      </c>
+      <c r="D208" t="n">
+        <v>23129.46</v>
+      </c>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>195</v>
+      </c>
+      <c r="B209" t="n">
+        <v>154.2</v>
+      </c>
+      <c r="C209" t="n">
+        <v>431.31</v>
+      </c>
+      <c r="D209" t="n">
+        <v>22698.14</v>
+      </c>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="inlineStr"/>
+      <c r="G209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>196</v>
+      </c>
+      <c r="B210" t="n">
+        <v>151.32</v>
+      </c>
+      <c r="C210" t="n">
+        <v>434.19</v>
+      </c>
+      <c r="D210" t="n">
+        <v>22263.96</v>
+      </c>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>197</v>
+      </c>
+      <c r="B211" t="n">
+        <v>148.43</v>
+      </c>
+      <c r="C211" t="n">
+        <v>437.08</v>
+      </c>
+      <c r="D211" t="n">
+        <v>21826.88</v>
+      </c>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>198</v>
+      </c>
+      <c r="B212" t="n">
+        <v>145.51</v>
+      </c>
+      <c r="C212" t="n">
+        <v>440</v>
+      </c>
+      <c r="D212" t="n">
+        <v>21386.88</v>
+      </c>
+      <c r="E212" t="inlineStr"/>
+      <c r="F212" t="inlineStr"/>
+      <c r="G212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>199</v>
+      </c>
+      <c r="B213" t="n">
+        <v>142.58</v>
+      </c>
+      <c r="C213" t="n">
+        <v>442.93</v>
+      </c>
+      <c r="D213" t="n">
+        <v>20943.95</v>
+      </c>
+      <c r="E213" t="inlineStr"/>
+      <c r="F213" t="inlineStr"/>
+      <c r="G213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>200</v>
+      </c>
+      <c r="B214" t="n">
+        <v>139.63</v>
+      </c>
+      <c r="C214" t="n">
+        <v>445.88</v>
+      </c>
+      <c r="D214" t="n">
+        <v>20498.07</v>
+      </c>
+      <c r="E214" t="inlineStr"/>
+      <c r="F214" t="inlineStr"/>
+      <c r="G214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>201</v>
+      </c>
+      <c r="B215" t="n">
+        <v>136.65</v>
+      </c>
+      <c r="C215" t="n">
+        <v>448.85</v>
+      </c>
+      <c r="D215" t="n">
+        <v>20049.22</v>
+      </c>
+      <c r="E215" t="inlineStr"/>
+      <c r="F215" t="inlineStr"/>
+      <c r="G215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>202</v>
+      </c>
+      <c r="B216" t="n">
+        <v>133.66</v>
+      </c>
+      <c r="C216" t="n">
+        <v>451.85</v>
+      </c>
+      <c r="D216" t="n">
+        <v>19597.37</v>
+      </c>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>203</v>
+      </c>
+      <c r="B217" t="n">
+        <v>130.65</v>
+      </c>
+      <c r="C217" t="n">
+        <v>454.86</v>
+      </c>
+      <c r="D217" t="n">
+        <v>19142.51</v>
+      </c>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>204</v>
+      </c>
+      <c r="B218" t="n">
+        <v>127.62</v>
+      </c>
+      <c r="C218" t="n">
+        <v>457.89</v>
+      </c>
+      <c r="D218" t="n">
+        <v>18684.62</v>
+      </c>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>205</v>
+      </c>
+      <c r="B219" t="n">
+        <v>124.56</v>
+      </c>
+      <c r="C219" t="n">
+        <v>460.94</v>
+      </c>
+      <c r="D219" t="n">
+        <v>18223.68</v>
+      </c>
+      <c r="E219" t="inlineStr"/>
+      <c r="F219" t="inlineStr"/>
+      <c r="G219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>206</v>
+      </c>
+      <c r="B220" t="n">
+        <v>121.49</v>
+      </c>
+      <c r="C220" t="n">
+        <v>464.02</v>
+      </c>
+      <c r="D220" t="n">
+        <v>17759.66</v>
+      </c>
+      <c r="E220" t="inlineStr"/>
+      <c r="F220" t="inlineStr"/>
+      <c r="G220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>207</v>
+      </c>
+      <c r="B221" t="n">
+        <v>118.4</v>
+      </c>
+      <c r="C221" t="n">
+        <v>467.11</v>
+      </c>
+      <c r="D221" t="n">
+        <v>17292.55</v>
+      </c>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>208</v>
+      </c>
+      <c r="B222" t="n">
+        <v>115.28</v>
+      </c>
+      <c r="C222" t="n">
+        <v>470.22</v>
+      </c>
+      <c r="D222" t="n">
+        <v>16822.32</v>
+      </c>
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="inlineStr"/>
+      <c r="G222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>209</v>
+      </c>
+      <c r="B223" t="n">
+        <v>112.15</v>
+      </c>
+      <c r="C223" t="n">
+        <v>473.36</v>
+      </c>
+      <c r="D223" t="n">
+        <v>16348.96</v>
+      </c>
+      <c r="E223" t="inlineStr"/>
+      <c r="F223" t="inlineStr"/>
+      <c r="G223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>210</v>
+      </c>
+      <c r="B224" t="n">
+        <v>108.99</v>
+      </c>
+      <c r="C224" t="n">
+        <v>476.51</v>
+      </c>
+      <c r="D224" t="n">
+        <v>15872.45</v>
+      </c>
+      <c r="E224" t="inlineStr"/>
+      <c r="F224" t="inlineStr"/>
+      <c r="G224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>211</v>
+      </c>
+      <c r="B225" t="n">
+        <v>105.82</v>
+      </c>
+      <c r="C225" t="n">
+        <v>479.69</v>
+      </c>
+      <c r="D225" t="n">
+        <v>15392.76</v>
+      </c>
+      <c r="E225" t="inlineStr"/>
+      <c r="F225" t="inlineStr"/>
+      <c r="G225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>212</v>
+      </c>
+      <c r="B226" t="n">
+        <v>102.62</v>
+      </c>
+      <c r="C226" t="n">
+        <v>482.89</v>
+      </c>
+      <c r="D226" t="n">
+        <v>14909.87</v>
+      </c>
+      <c r="E226" t="inlineStr"/>
+      <c r="F226" t="inlineStr"/>
+      <c r="G226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>213</v>
+      </c>
+      <c r="B227" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="C227" t="n">
+        <v>486.11</v>
+      </c>
+      <c r="D227" t="n">
+        <v>14423.76</v>
+      </c>
+      <c r="E227" t="inlineStr"/>
+      <c r="F227" t="inlineStr"/>
+      <c r="G227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>214</v>
+      </c>
+      <c r="B228" t="n">
+        <v>96.16</v>
+      </c>
+      <c r="C228" t="n">
+        <v>489.35</v>
+      </c>
+      <c r="D228" t="n">
+        <v>13934.41</v>
+      </c>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>215</v>
+      </c>
+      <c r="B229" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="C229" t="n">
+        <v>492.61</v>
+      </c>
+      <c r="D229" t="n">
+        <v>13441.8</v>
+      </c>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>216</v>
+      </c>
+      <c r="B230" t="n">
+        <v>89.61</v>
+      </c>
+      <c r="C230" t="n">
+        <v>495.9</v>
+      </c>
+      <c r="D230" t="n">
+        <v>12945.9</v>
+      </c>
+      <c r="E230" t="inlineStr"/>
+      <c r="F230" t="inlineStr"/>
+      <c r="G230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>217</v>
+      </c>
+      <c r="B231" t="n">
+        <v>86.31</v>
+      </c>
+      <c r="C231" t="n">
+        <v>499.2</v>
+      </c>
+      <c r="D231" t="n">
+        <v>12446.7</v>
+      </c>
+      <c r="E231" t="inlineStr"/>
+      <c r="F231" t="inlineStr"/>
+      <c r="G231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>218</v>
+      </c>
+      <c r="B232" t="n">
+        <v>82.98</v>
+      </c>
+      <c r="C232" t="n">
+        <v>502.53</v>
+      </c>
+      <c r="D232" t="n">
+        <v>11944.17</v>
+      </c>
+      <c r="E232" t="inlineStr"/>
+      <c r="F232" t="inlineStr"/>
+      <c r="G232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>219</v>
+      </c>
+      <c r="B233" t="n">
+        <v>79.63</v>
+      </c>
+      <c r="C233" t="n">
+        <v>505.88</v>
+      </c>
+      <c r="D233" t="n">
+        <v>11438.29</v>
+      </c>
+      <c r="E233" t="inlineStr"/>
+      <c r="F233" t="inlineStr"/>
+      <c r="G233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>220</v>
+      </c>
+      <c r="B234" t="n">
+        <v>76.26000000000001</v>
+      </c>
+      <c r="C234" t="n">
+        <v>509.25</v>
+      </c>
+      <c r="D234" t="n">
+        <v>10929.04</v>
+      </c>
+      <c r="E234" t="inlineStr"/>
+      <c r="F234" t="inlineStr"/>
+      <c r="G234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>221</v>
+      </c>
+      <c r="B235" t="n">
+        <v>72.86</v>
+      </c>
+      <c r="C235" t="n">
+        <v>512.65</v>
+      </c>
+      <c r="D235" t="n">
+        <v>10416.39</v>
+      </c>
+      <c r="E235" t="inlineStr"/>
+      <c r="F235" t="inlineStr"/>
+      <c r="G235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>222</v>
+      </c>
+      <c r="B236" t="n">
+        <v>69.44</v>
+      </c>
+      <c r="C236" t="n">
+        <v>516.0700000000001</v>
+      </c>
+      <c r="D236" t="n">
+        <v>9900.32</v>
+      </c>
+      <c r="E236" t="inlineStr"/>
+      <c r="F236" t="inlineStr"/>
+      <c r="G236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>223</v>
+      </c>
+      <c r="B237" t="n">
+        <v>66</v>
+      </c>
+      <c r="C237" t="n">
+        <v>519.51</v>
+      </c>
+      <c r="D237" t="n">
+        <v>9380.82</v>
+      </c>
+      <c r="E237" t="inlineStr"/>
+      <c r="F237" t="inlineStr"/>
+      <c r="G237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>224</v>
+      </c>
+      <c r="B238" t="n">
+        <v>62.54</v>
+      </c>
+      <c r="C238" t="n">
+        <v>522.97</v>
+      </c>
+      <c r="D238" t="n">
+        <v>8857.85</v>
+      </c>
+      <c r="E238" t="inlineStr"/>
+      <c r="F238" t="inlineStr"/>
+      <c r="G238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>225</v>
+      </c>
+      <c r="B239" t="n">
+        <v>59.05</v>
+      </c>
+      <c r="C239" t="n">
+        <v>526.46</v>
+      </c>
+      <c r="D239" t="n">
+        <v>8331.389999999999</v>
+      </c>
+      <c r="E239" t="inlineStr"/>
+      <c r="F239" t="inlineStr"/>
+      <c r="G239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>226</v>
+      </c>
+      <c r="B240" t="n">
+        <v>55.54</v>
+      </c>
+      <c r="C240" t="n">
+        <v>529.97</v>
+      </c>
+      <c r="D240" t="n">
+        <v>7801.43</v>
+      </c>
+      <c r="E240" t="inlineStr"/>
+      <c r="F240" t="inlineStr"/>
+      <c r="G240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>227</v>
+      </c>
+      <c r="B241" t="n">
+        <v>52.01</v>
+      </c>
+      <c r="C241" t="n">
+        <v>533.5</v>
+      </c>
+      <c r="D241" t="n">
+        <v>7267.93</v>
+      </c>
+      <c r="E241" t="inlineStr"/>
+      <c r="F241" t="inlineStr"/>
+      <c r="G241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>228</v>
+      </c>
+      <c r="B242" t="n">
+        <v>48.45</v>
+      </c>
+      <c r="C242" t="n">
+        <v>537.0599999999999</v>
+      </c>
+      <c r="D242" t="n">
+        <v>6730.87</v>
+      </c>
+      <c r="E242" t="inlineStr"/>
+      <c r="F242" t="inlineStr"/>
+      <c r="G242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>229</v>
+      </c>
+      <c r="B243" t="n">
+        <v>44.87</v>
+      </c>
+      <c r="C243" t="n">
+        <v>540.64</v>
+      </c>
+      <c r="D243" t="n">
+        <v>6190.24</v>
+      </c>
+      <c r="E243" t="inlineStr"/>
+      <c r="F243" t="inlineStr"/>
+      <c r="G243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>230</v>
+      </c>
+      <c r="B244" t="n">
+        <v>41.27</v>
+      </c>
+      <c r="C244" t="n">
+        <v>544.24</v>
+      </c>
+      <c r="D244" t="n">
+        <v>5646</v>
+      </c>
+      <c r="E244" t="inlineStr"/>
+      <c r="F244" t="inlineStr"/>
+      <c r="G244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>231</v>
+      </c>
+      <c r="B245" t="n">
+        <v>37.64</v>
+      </c>
+      <c r="C245" t="n">
+        <v>547.87</v>
+      </c>
+      <c r="D245" t="n">
+        <v>5098.13</v>
+      </c>
+      <c r="E245" t="inlineStr"/>
+      <c r="F245" t="inlineStr"/>
+      <c r="G245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>232</v>
+      </c>
+      <c r="B246" t="n">
+        <v>33.99</v>
+      </c>
+      <c r="C246" t="n">
+        <v>551.52</v>
+      </c>
+      <c r="D246" t="n">
+        <v>4546.61</v>
+      </c>
+      <c r="E246" t="inlineStr"/>
+      <c r="F246" t="inlineStr"/>
+      <c r="G246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>233</v>
+      </c>
+      <c r="B247" t="n">
+        <v>30.31</v>
+      </c>
+      <c r="C247" t="n">
+        <v>555.2</v>
+      </c>
+      <c r="D247" t="n">
+        <v>3991.41</v>
+      </c>
+      <c r="E247" t="inlineStr"/>
+      <c r="F247" t="inlineStr"/>
+      <c r="G247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>234</v>
+      </c>
+      <c r="B248" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="C248" t="n">
+        <v>558.9</v>
+      </c>
+      <c r="D248" t="n">
+        <v>3432.51</v>
+      </c>
+      <c r="E248" t="inlineStr"/>
+      <c r="F248" t="inlineStr"/>
+      <c r="G248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>235</v>
+      </c>
+      <c r="B249" t="n">
+        <v>22.88</v>
+      </c>
+      <c r="C249" t="n">
+        <v>562.62</v>
+      </c>
+      <c r="D249" t="n">
+        <v>2869.89</v>
+      </c>
+      <c r="E249" t="inlineStr"/>
+      <c r="F249" t="inlineStr"/>
+      <c r="G249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>236</v>
+      </c>
+      <c r="B250" t="n">
+        <v>19.13</v>
+      </c>
+      <c r="C250" t="n">
+        <v>566.38</v>
+      </c>
+      <c r="D250" t="n">
+        <v>2303.51</v>
+      </c>
+      <c r="E250" t="inlineStr"/>
+      <c r="F250" t="inlineStr"/>
+      <c r="G250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>237</v>
+      </c>
+      <c r="B251" t="n">
+        <v>15.36</v>
+      </c>
+      <c r="C251" t="n">
+        <v>570.15</v>
+      </c>
+      <c r="D251" t="n">
+        <v>1733.36</v>
+      </c>
+      <c r="E251" t="inlineStr"/>
+      <c r="F251" t="inlineStr"/>
+      <c r="G251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>238</v>
+      </c>
+      <c r="B252" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="C252" t="n">
+        <v>573.95</v>
+      </c>
+      <c r="D252" t="n">
+        <v>1159.41</v>
+      </c>
+      <c r="E252" t="inlineStr"/>
+      <c r="F252" t="inlineStr"/>
+      <c r="G252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>239</v>
+      </c>
+      <c r="B253" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="C253" t="n">
+        <v>577.78</v>
+      </c>
+      <c r="D253" t="n">
+        <v>581.63</v>
+      </c>
+      <c r="E253" t="inlineStr"/>
+      <c r="F253" t="inlineStr"/>
+      <c r="G253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>240</v>
+      </c>
+      <c r="B254" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="C254" t="n">
+        <v>581.63</v>
+      </c>
+      <c r="D254" t="n">
+        <v>0</v>
+      </c>
+      <c r="E254" t="inlineStr"/>
+      <c r="F254" t="inlineStr"/>
+      <c r="G254" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/kreditu_salidzinasana.xlsx
+++ b/kreditu_salidzinasana.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="C2" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="3">
@@ -461,7 +461,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +474,7 @@
         <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
@@ -484,10 +484,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2213.29</v>
+        <v>8853.200000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>2436.45</v>
+        <v>5383.83</v>
       </c>
     </row>
     <row r="8">
@@ -497,10 +497,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>213.29</v>
+        <v>853.2</v>
       </c>
       <c r="C8" t="n">
-        <v>436.46</v>
+        <v>383.83</v>
       </c>
     </row>
     <row r="9">
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.66</v>
+        <v>10.67</v>
       </c>
       <c r="C9" t="n">
-        <v>21.82</v>
+        <v>7.68</v>
       </c>
     </row>
     <row r="10">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>73.78</v>
+        <v>295.11</v>
       </c>
       <c r="C10" t="n">
-        <v>60.91</v>
+        <v>153.82</v>
       </c>
     </row>
     <row r="11">
@@ -536,10 +536,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.1066</v>
+        <v>1.1067</v>
       </c>
       <c r="C11" t="n">
-        <v>1.2182</v>
+        <v>1.0768</v>
       </c>
     </row>
     <row r="13">
@@ -584,22 +584,22 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>13.33</v>
+        <v>53.33</v>
       </c>
       <c r="C14" t="n">
-        <v>60.44</v>
+        <v>241.77</v>
       </c>
       <c r="D14" t="n">
-        <v>1939.56</v>
+        <v>7758.23</v>
       </c>
       <c r="E14" t="n">
-        <v>20</v>
+        <v>20.83</v>
       </c>
       <c r="F14" t="n">
-        <v>40.91</v>
+        <v>132.99</v>
       </c>
       <c r="G14" t="n">
-        <v>1959.09</v>
+        <v>4867.01</v>
       </c>
     </row>
     <row r="15">
@@ -607,22 +607,22 @@
         <v>2</v>
       </c>
       <c r="B15" t="n">
-        <v>12.93</v>
+        <v>51.72</v>
       </c>
       <c r="C15" t="n">
-        <v>60.85</v>
+        <v>243.39</v>
       </c>
       <c r="D15" t="n">
-        <v>1878.71</v>
+        <v>7514.84</v>
       </c>
       <c r="E15" t="n">
-        <v>19.59</v>
+        <v>20.28</v>
       </c>
       <c r="F15" t="n">
-        <v>41.32</v>
+        <v>133.54</v>
       </c>
       <c r="G15" t="n">
-        <v>1917.77</v>
+        <v>4733.46</v>
       </c>
     </row>
     <row r="16">
@@ -630,22 +630,22 @@
         <v>3</v>
       </c>
       <c r="B16" t="n">
-        <v>12.52</v>
+        <v>50.1</v>
       </c>
       <c r="C16" t="n">
-        <v>61.25</v>
+        <v>245.01</v>
       </c>
       <c r="D16" t="n">
-        <v>1817.46</v>
+        <v>7269.83</v>
       </c>
       <c r="E16" t="n">
-        <v>19.18</v>
+        <v>19.72</v>
       </c>
       <c r="F16" t="n">
-        <v>41.73</v>
+        <v>134.1</v>
       </c>
       <c r="G16" t="n">
-        <v>1876.03</v>
+        <v>4599.36</v>
       </c>
     </row>
     <row r="17">
@@ -653,22 +653,22 @@
         <v>4</v>
       </c>
       <c r="B17" t="n">
-        <v>12.12</v>
+        <v>48.47</v>
       </c>
       <c r="C17" t="n">
-        <v>61.66</v>
+        <v>246.64</v>
       </c>
       <c r="D17" t="n">
-        <v>1755.8</v>
+        <v>7023.19</v>
       </c>
       <c r="E17" t="n">
-        <v>18.76</v>
+        <v>19.16</v>
       </c>
       <c r="F17" t="n">
-        <v>42.15</v>
+        <v>134.66</v>
       </c>
       <c r="G17" t="n">
-        <v>1833.88</v>
+        <v>4464.7</v>
       </c>
     </row>
     <row r="18">
@@ -676,22 +676,22 @@
         <v>5</v>
       </c>
       <c r="B18" t="n">
-        <v>11.71</v>
+        <v>46.82</v>
       </c>
       <c r="C18" t="n">
-        <v>62.07</v>
+        <v>248.29</v>
       </c>
       <c r="D18" t="n">
-        <v>1693.73</v>
+        <v>6774.91</v>
       </c>
       <c r="E18" t="n">
-        <v>18.34</v>
+        <v>18.6</v>
       </c>
       <c r="F18" t="n">
-        <v>42.57</v>
+        <v>135.22</v>
       </c>
       <c r="G18" t="n">
-        <v>1791.31</v>
+        <v>4329.48</v>
       </c>
     </row>
     <row r="19">
@@ -699,22 +699,22 @@
         <v>6</v>
       </c>
       <c r="B19" t="n">
-        <v>11.29</v>
+        <v>45.17</v>
       </c>
       <c r="C19" t="n">
-        <v>62.49</v>
+        <v>249.94</v>
       </c>
       <c r="D19" t="n">
-        <v>1631.24</v>
+        <v>6524.97</v>
       </c>
       <c r="E19" t="n">
-        <v>17.91</v>
+        <v>18.04</v>
       </c>
       <c r="F19" t="n">
-        <v>43</v>
+        <v>135.78</v>
       </c>
       <c r="G19" t="n">
-        <v>1748.31</v>
+        <v>4193.7</v>
       </c>
     </row>
     <row r="20">
@@ -722,22 +722,22 @@
         <v>7</v>
       </c>
       <c r="B20" t="n">
-        <v>10.87</v>
+        <v>43.5</v>
       </c>
       <c r="C20" t="n">
-        <v>62.9</v>
+        <v>251.61</v>
       </c>
       <c r="D20" t="n">
-        <v>1568.34</v>
+        <v>6273.36</v>
       </c>
       <c r="E20" t="n">
-        <v>17.48</v>
+        <v>17.47</v>
       </c>
       <c r="F20" t="n">
-        <v>43.43</v>
+        <v>136.35</v>
       </c>
       <c r="G20" t="n">
-        <v>1704.89</v>
+        <v>4057.35</v>
       </c>
     </row>
     <row r="21">
@@ -745,22 +745,22 @@
         <v>8</v>
       </c>
       <c r="B21" t="n">
-        <v>10.46</v>
+        <v>41.82</v>
       </c>
       <c r="C21" t="n">
-        <v>63.32</v>
+        <v>253.28</v>
       </c>
       <c r="D21" t="n">
-        <v>1505.02</v>
+        <v>6020.08</v>
       </c>
       <c r="E21" t="n">
-        <v>17.05</v>
+        <v>16.91</v>
       </c>
       <c r="F21" t="n">
-        <v>43.86</v>
+        <v>136.92</v>
       </c>
       <c r="G21" t="n">
-        <v>1661.02</v>
+        <v>3920.43</v>
       </c>
     </row>
     <row r="22">
@@ -768,22 +768,22 @@
         <v>9</v>
       </c>
       <c r="B22" t="n">
-        <v>10.03</v>
+        <v>40.13</v>
       </c>
       <c r="C22" t="n">
-        <v>63.74</v>
+        <v>254.97</v>
       </c>
       <c r="D22" t="n">
-        <v>1441.28</v>
+        <v>5765.1</v>
       </c>
       <c r="E22" t="n">
-        <v>16.61</v>
+        <v>16.34</v>
       </c>
       <c r="F22" t="n">
-        <v>44.3</v>
+        <v>137.49</v>
       </c>
       <c r="G22" t="n">
-        <v>1616.72</v>
+        <v>3782.94</v>
       </c>
     </row>
     <row r="23">
@@ -791,22 +791,22 @@
         <v>10</v>
       </c>
       <c r="B23" t="n">
-        <v>9.609999999999999</v>
+        <v>38.43</v>
       </c>
       <c r="C23" t="n">
-        <v>64.17</v>
+        <v>256.67</v>
       </c>
       <c r="D23" t="n">
-        <v>1377.11</v>
+        <v>5508.43</v>
       </c>
       <c r="E23" t="n">
-        <v>16.17</v>
+        <v>15.76</v>
       </c>
       <c r="F23" t="n">
-        <v>44.74</v>
+        <v>138.06</v>
       </c>
       <c r="G23" t="n">
-        <v>1571.98</v>
+        <v>3644.88</v>
       </c>
     </row>
     <row r="24">
@@ -814,22 +814,22 @@
         <v>11</v>
       </c>
       <c r="B24" t="n">
-        <v>9.18</v>
+        <v>36.72</v>
       </c>
       <c r="C24" t="n">
-        <v>64.59999999999999</v>
+        <v>258.38</v>
       </c>
       <c r="D24" t="n">
-        <v>1312.51</v>
+        <v>5250.05</v>
       </c>
       <c r="E24" t="n">
-        <v>15.72</v>
+        <v>15.19</v>
       </c>
       <c r="F24" t="n">
-        <v>45.19</v>
+        <v>138.64</v>
       </c>
       <c r="G24" t="n">
-        <v>1526.79</v>
+        <v>3506.24</v>
       </c>
     </row>
     <row r="25">
@@ -837,22 +837,22 @@
         <v>12</v>
       </c>
       <c r="B25" t="n">
-        <v>8.75</v>
+        <v>35</v>
       </c>
       <c r="C25" t="n">
-        <v>65.03</v>
+        <v>260.11</v>
       </c>
       <c r="D25" t="n">
-        <v>1247.49</v>
+        <v>4989.94</v>
       </c>
       <c r="E25" t="n">
-        <v>15.27</v>
+        <v>14.61</v>
       </c>
       <c r="F25" t="n">
-        <v>45.64</v>
+        <v>139.21</v>
       </c>
       <c r="G25" t="n">
-        <v>1481.14</v>
+        <v>3367.03</v>
       </c>
     </row>
     <row r="26">
@@ -860,22 +860,22 @@
         <v>13</v>
       </c>
       <c r="B26" t="n">
-        <v>8.32</v>
+        <v>33.27</v>
       </c>
       <c r="C26" t="n">
-        <v>65.45999999999999</v>
+        <v>261.84</v>
       </c>
       <c r="D26" t="n">
-        <v>1182.03</v>
+        <v>4728.1</v>
       </c>
       <c r="E26" t="n">
-        <v>14.81</v>
+        <v>14.03</v>
       </c>
       <c r="F26" t="n">
-        <v>46.1</v>
+        <v>139.79</v>
       </c>
       <c r="G26" t="n">
-        <v>1435.04</v>
+        <v>3227.23</v>
       </c>
     </row>
     <row r="27">
@@ -883,22 +883,22 @@
         <v>14</v>
       </c>
       <c r="B27" t="n">
-        <v>7.88</v>
+        <v>31.52</v>
       </c>
       <c r="C27" t="n">
-        <v>65.90000000000001</v>
+        <v>263.59</v>
       </c>
       <c r="D27" t="n">
-        <v>1116.13</v>
+        <v>4464.51</v>
       </c>
       <c r="E27" t="n">
-        <v>14.35</v>
+        <v>13.45</v>
       </c>
       <c r="F27" t="n">
-        <v>46.56</v>
+        <v>140.38</v>
       </c>
       <c r="G27" t="n">
-        <v>1388.48</v>
+        <v>3086.86</v>
       </c>
     </row>
     <row r="28">
@@ -906,22 +906,22 @@
         <v>15</v>
       </c>
       <c r="B28" t="n">
-        <v>7.44</v>
+        <v>29.76</v>
       </c>
       <c r="C28" t="n">
-        <v>66.34</v>
+        <v>265.34</v>
       </c>
       <c r="D28" t="n">
-        <v>1049.79</v>
+        <v>4199.17</v>
       </c>
       <c r="E28" t="n">
-        <v>13.88</v>
+        <v>12.86</v>
       </c>
       <c r="F28" t="n">
-        <v>47.03</v>
+        <v>140.96</v>
       </c>
       <c r="G28" t="n">
-        <v>1341.46</v>
+        <v>2945.9</v>
       </c>
     </row>
     <row r="29">
@@ -929,22 +929,22 @@
         <v>16</v>
       </c>
       <c r="B29" t="n">
-        <v>7</v>
+        <v>27.99</v>
       </c>
       <c r="C29" t="n">
-        <v>66.78</v>
+        <v>267.11</v>
       </c>
       <c r="D29" t="n">
-        <v>983.01</v>
+        <v>3932.06</v>
       </c>
       <c r="E29" t="n">
-        <v>13.41</v>
+        <v>12.27</v>
       </c>
       <c r="F29" t="n">
-        <v>47.5</v>
+        <v>141.55</v>
       </c>
       <c r="G29" t="n">
-        <v>1293.96</v>
+        <v>2804.35</v>
       </c>
     </row>
     <row r="30">
@@ -952,22 +952,22 @@
         <v>17</v>
       </c>
       <c r="B30" t="n">
-        <v>6.55</v>
+        <v>26.21</v>
       </c>
       <c r="C30" t="n">
-        <v>67.22</v>
+        <v>268.89</v>
       </c>
       <c r="D30" t="n">
-        <v>915.79</v>
+        <v>3663.17</v>
       </c>
       <c r="E30" t="n">
-        <v>12.94</v>
+        <v>11.68</v>
       </c>
       <c r="F30" t="n">
-        <v>47.97</v>
+        <v>142.14</v>
       </c>
       <c r="G30" t="n">
-        <v>1245.99</v>
+        <v>2662.21</v>
       </c>
     </row>
     <row r="31">
@@ -975,22 +975,22 @@
         <v>18</v>
       </c>
       <c r="B31" t="n">
-        <v>6.11</v>
+        <v>24.42</v>
       </c>
       <c r="C31" t="n">
-        <v>67.67</v>
+        <v>270.69</v>
       </c>
       <c r="D31" t="n">
-        <v>848.12</v>
+        <v>3392.48</v>
       </c>
       <c r="E31" t="n">
-        <v>12.46</v>
+        <v>11.09</v>
       </c>
       <c r="F31" t="n">
-        <v>48.45</v>
+        <v>142.73</v>
       </c>
       <c r="G31" t="n">
-        <v>1197.54</v>
+        <v>2519.48</v>
       </c>
     </row>
     <row r="32">
@@ -998,22 +998,22 @@
         <v>19</v>
       </c>
       <c r="B32" t="n">
-        <v>5.65</v>
+        <v>22.62</v>
       </c>
       <c r="C32" t="n">
-        <v>68.12</v>
+        <v>272.49</v>
       </c>
       <c r="D32" t="n">
-        <v>780</v>
+        <v>3119.99</v>
       </c>
       <c r="E32" t="n">
-        <v>11.98</v>
+        <v>10.5</v>
       </c>
       <c r="F32" t="n">
-        <v>48.94</v>
+        <v>143.33</v>
       </c>
       <c r="G32" t="n">
-        <v>1148.6</v>
+        <v>2376.15</v>
       </c>
     </row>
     <row r="33">
@@ -1021,22 +1021,22 @@
         <v>20</v>
       </c>
       <c r="B33" t="n">
-        <v>5.2</v>
+        <v>20.8</v>
       </c>
       <c r="C33" t="n">
-        <v>68.58</v>
+        <v>274.31</v>
       </c>
       <c r="D33" t="n">
-        <v>711.42</v>
+        <v>2845.68</v>
       </c>
       <c r="E33" t="n">
-        <v>11.49</v>
+        <v>9.9</v>
       </c>
       <c r="F33" t="n">
-        <v>49.43</v>
+        <v>143.92</v>
       </c>
       <c r="G33" t="n">
-        <v>1099.18</v>
+        <v>2232.23</v>
       </c>
     </row>
     <row r="34">
@@ -1044,22 +1044,22 @@
         <v>21</v>
       </c>
       <c r="B34" t="n">
-        <v>4.74</v>
+        <v>18.97</v>
       </c>
       <c r="C34" t="n">
-        <v>69.03</v>
+        <v>276.14</v>
       </c>
       <c r="D34" t="n">
-        <v>642.39</v>
+        <v>2569.55</v>
       </c>
       <c r="E34" t="n">
-        <v>10.99</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>49.92</v>
+        <v>144.52</v>
       </c>
       <c r="G34" t="n">
-        <v>1049.26</v>
+        <v>2087.7</v>
       </c>
     </row>
     <row r="35">
@@ -1067,22 +1067,22 @@
         <v>22</v>
       </c>
       <c r="B35" t="n">
-        <v>4.28</v>
+        <v>17.13</v>
       </c>
       <c r="C35" t="n">
-        <v>69.48999999999999</v>
+        <v>277.98</v>
       </c>
       <c r="D35" t="n">
-        <v>572.89</v>
+        <v>2291.57</v>
       </c>
       <c r="E35" t="n">
-        <v>10.49</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>50.42</v>
+        <v>145.13</v>
       </c>
       <c r="G35" t="n">
-        <v>998.84</v>
+        <v>1942.58</v>
       </c>
     </row>
     <row r="36">
@@ -1090,22 +1090,22 @@
         <v>23</v>
       </c>
       <c r="B36" t="n">
-        <v>3.82</v>
+        <v>15.28</v>
       </c>
       <c r="C36" t="n">
-        <v>69.95999999999999</v>
+        <v>279.83</v>
       </c>
       <c r="D36" t="n">
-        <v>502.94</v>
+        <v>2011.74</v>
       </c>
       <c r="E36" t="n">
-        <v>9.99</v>
+        <v>8.09</v>
       </c>
       <c r="F36" t="n">
-        <v>50.92</v>
+        <v>145.73</v>
       </c>
       <c r="G36" t="n">
-        <v>947.92</v>
+        <v>1796.85</v>
       </c>
     </row>
     <row r="37">
@@ -1113,22 +1113,22 @@
         <v>24</v>
       </c>
       <c r="B37" t="n">
-        <v>3.35</v>
+        <v>13.41</v>
       </c>
       <c r="C37" t="n">
-        <v>70.42</v>
+        <v>281.69</v>
       </c>
       <c r="D37" t="n">
-        <v>432.51</v>
+        <v>1730.05</v>
       </c>
       <c r="E37" t="n">
-        <v>9.48</v>
+        <v>7.49</v>
       </c>
       <c r="F37" t="n">
-        <v>51.43</v>
+        <v>146.34</v>
       </c>
       <c r="G37" t="n">
-        <v>896.48</v>
+        <v>1650.51</v>
       </c>
     </row>
     <row r="38">
@@ -1136,22 +1136,22 @@
         <v>25</v>
       </c>
       <c r="B38" t="n">
-        <v>2.88</v>
+        <v>11.53</v>
       </c>
       <c r="C38" t="n">
-        <v>70.89</v>
+        <v>283.57</v>
       </c>
       <c r="D38" t="n">
-        <v>361.62</v>
+        <v>1446.48</v>
       </c>
       <c r="E38" t="n">
-        <v>8.960000000000001</v>
+        <v>6.88</v>
       </c>
       <c r="F38" t="n">
-        <v>51.95</v>
+        <v>146.95</v>
       </c>
       <c r="G38" t="n">
-        <v>844.54</v>
+        <v>1503.57</v>
       </c>
     </row>
     <row r="39">
@@ -1159,22 +1159,22 @@
         <v>26</v>
       </c>
       <c r="B39" t="n">
-        <v>2.41</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>71.37</v>
+        <v>285.46</v>
       </c>
       <c r="D39" t="n">
-        <v>290.25</v>
+        <v>1161.01</v>
       </c>
       <c r="E39" t="n">
-        <v>8.449999999999999</v>
+        <v>6.26</v>
       </c>
       <c r="F39" t="n">
-        <v>52.47</v>
+        <v>147.56</v>
       </c>
       <c r="G39" t="n">
-        <v>792.0700000000001</v>
+        <v>1356.01</v>
       </c>
     </row>
     <row r="40">
@@ -1182,22 +1182,22 @@
         <v>27</v>
       </c>
       <c r="B40" t="n">
-        <v>1.94</v>
+        <v>7.74</v>
       </c>
       <c r="C40" t="n">
-        <v>71.84</v>
+        <v>287.37</v>
       </c>
       <c r="D40" t="n">
-        <v>218.41</v>
+        <v>873.65</v>
       </c>
       <c r="E40" t="n">
-        <v>7.92</v>
+        <v>5.65</v>
       </c>
       <c r="F40" t="n">
-        <v>52.99</v>
+        <v>148.17</v>
       </c>
       <c r="G40" t="n">
-        <v>739.08</v>
+        <v>1207.83</v>
       </c>
     </row>
     <row r="41">
@@ -1205,22 +1205,22 @@
         <v>28</v>
       </c>
       <c r="B41" t="n">
-        <v>1.46</v>
+        <v>5.82</v>
       </c>
       <c r="C41" t="n">
-        <v>72.31999999999999</v>
+        <v>289.28</v>
       </c>
       <c r="D41" t="n">
-        <v>146.09</v>
+        <v>584.36</v>
       </c>
       <c r="E41" t="n">
-        <v>7.39</v>
+        <v>5.03</v>
       </c>
       <c r="F41" t="n">
-        <v>53.52</v>
+        <v>148.79</v>
       </c>
       <c r="G41" t="n">
-        <v>685.5599999999999</v>
+        <v>1059.04</v>
       </c>
     </row>
     <row r="42">
@@ -1228,22 +1228,22 @@
         <v>29</v>
       </c>
       <c r="B42" t="n">
-        <v>0.97</v>
+        <v>3.9</v>
       </c>
       <c r="C42" t="n">
-        <v>72.8</v>
+        <v>291.21</v>
       </c>
       <c r="D42" t="n">
-        <v>73.29000000000001</v>
+        <v>293.15</v>
       </c>
       <c r="E42" t="n">
-        <v>6.86</v>
+        <v>4.41</v>
       </c>
       <c r="F42" t="n">
-        <v>54.06</v>
+        <v>149.41</v>
       </c>
       <c r="G42" t="n">
-        <v>631.5</v>
+        <v>909.63</v>
       </c>
     </row>
     <row r="43">
@@ -1251,22 +1251,22 @@
         <v>30</v>
       </c>
       <c r="B43" t="n">
-        <v>0.49</v>
+        <v>1.95</v>
       </c>
       <c r="C43" t="n">
-        <v>73.29000000000001</v>
+        <v>293.15</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>6.32</v>
+        <v>3.79</v>
       </c>
       <c r="F43" t="n">
-        <v>54.6</v>
+        <v>150.03</v>
       </c>
       <c r="G43" t="n">
-        <v>576.91</v>
+        <v>759.6</v>
       </c>
     </row>
     <row r="44">
@@ -1277,13 +1277,13 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="n">
-        <v>5.77</v>
+        <v>3.16</v>
       </c>
       <c r="F44" t="n">
-        <v>55.14</v>
+        <v>150.66</v>
       </c>
       <c r="G44" t="n">
-        <v>521.77</v>
+        <v>608.9400000000001</v>
       </c>
     </row>
     <row r="45">
@@ -1294,13 +1294,13 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="n">
-        <v>5.22</v>
+        <v>2.54</v>
       </c>
       <c r="F45" t="n">
-        <v>55.69</v>
+        <v>151.29</v>
       </c>
       <c r="G45" t="n">
-        <v>466.07</v>
+        <v>457.65</v>
       </c>
     </row>
     <row r="46">
@@ -1311,13 +1311,13 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="n">
-        <v>4.66</v>
+        <v>1.91</v>
       </c>
       <c r="F46" t="n">
-        <v>56.25</v>
+        <v>151.92</v>
       </c>
       <c r="G46" t="n">
-        <v>409.82</v>
+        <v>305.74</v>
       </c>
     </row>
     <row r="47">
@@ -1328,13 +1328,13 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="n">
-        <v>4.1</v>
+        <v>1.27</v>
       </c>
       <c r="F47" t="n">
-        <v>56.81</v>
+        <v>152.55</v>
       </c>
       <c r="G47" t="n">
-        <v>353.01</v>
+        <v>153.19</v>
       </c>
     </row>
     <row r="48">
@@ -1345,97 +1345,12 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="n">
-        <v>3.53</v>
+        <v>0.64</v>
       </c>
       <c r="F48" t="n">
-        <v>57.38</v>
+        <v>153.19</v>
       </c>
       <c r="G48" t="n">
-        <v>295.63</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>36</v>
-      </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="F49" t="n">
-        <v>57.95</v>
-      </c>
-      <c r="G49" t="n">
-        <v>237.67</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>37</v>
-      </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="F50" t="n">
-        <v>58.53</v>
-      </c>
-      <c r="G50" t="n">
-        <v>179.14</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>38</v>
-      </c>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="F51" t="n">
-        <v>59.12</v>
-      </c>
-      <c r="G51" t="n">
-        <v>120.02</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>39</v>
-      </c>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="F52" t="n">
-        <v>59.71</v>
-      </c>
-      <c r="G52" t="n">
-        <v>60.31</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>40</v>
-      </c>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F53" t="n">
-        <v>60.31</v>
-      </c>
-      <c r="G53" t="n">
         <v>0</v>
       </c>
     </row>

--- a/kreditu_salidzinasana.xlsx
+++ b/kreditu_salidzinasana.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Kredītu salīdzinājums" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Pēc papildiemaksas (11, 200.0)" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +446,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C2" t="n">
         <v>8000</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5000</v>
       </c>
     </row>
     <row r="3">
@@ -461,7 +462,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -471,10 +472,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -484,10 +485,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8853.200000000001</v>
+        <v>4122.58</v>
       </c>
       <c r="C6" t="n">
-        <v>5383.83</v>
+        <v>10349.9</v>
       </c>
     </row>
     <row r="8">
@@ -497,10 +498,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>853.2</v>
+        <v>322.58</v>
       </c>
       <c r="C8" t="n">
-        <v>383.83</v>
+        <v>2549.9</v>
       </c>
     </row>
     <row r="9">
@@ -510,10 +511,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.67</v>
+        <v>8.06</v>
       </c>
       <c r="C9" t="n">
-        <v>7.68</v>
+        <v>31.87</v>
       </c>
     </row>
     <row r="10">
@@ -523,10 +524,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>295.11</v>
+        <v>180.91</v>
       </c>
       <c r="C10" t="n">
-        <v>153.82</v>
+        <v>177.96</v>
       </c>
     </row>
     <row r="11">
@@ -536,10 +537,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.1067</v>
+        <v>1.0306</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0768</v>
+        <v>1.2937</v>
       </c>
     </row>
     <row r="13">
@@ -584,22 +585,22 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>53.33</v>
+        <v>26.67</v>
       </c>
       <c r="C14" t="n">
-        <v>241.77</v>
+        <v>154.24</v>
       </c>
       <c r="D14" t="n">
-        <v>7758.23</v>
+        <v>3845.76</v>
       </c>
       <c r="E14" t="n">
-        <v>20.83</v>
+        <v>80</v>
       </c>
       <c r="F14" t="n">
-        <v>132.99</v>
+        <v>97.95999999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>4867.01</v>
+        <v>7902.04</v>
       </c>
     </row>
     <row r="15">
@@ -607,22 +608,22 @@
         <v>2</v>
       </c>
       <c r="B15" t="n">
-        <v>51.72</v>
+        <v>25.64</v>
       </c>
       <c r="C15" t="n">
-        <v>243.39</v>
+        <v>155.27</v>
       </c>
       <c r="D15" t="n">
-        <v>7514.84</v>
+        <v>3690.49</v>
       </c>
       <c r="E15" t="n">
-        <v>20.28</v>
+        <v>79.02</v>
       </c>
       <c r="F15" t="n">
-        <v>133.54</v>
+        <v>98.94</v>
       </c>
       <c r="G15" t="n">
-        <v>4733.46</v>
+        <v>7803.11</v>
       </c>
     </row>
     <row r="16">
@@ -630,22 +631,22 @@
         <v>3</v>
       </c>
       <c r="B16" t="n">
-        <v>50.1</v>
+        <v>24.6</v>
       </c>
       <c r="C16" t="n">
-        <v>245.01</v>
+        <v>156.31</v>
       </c>
       <c r="D16" t="n">
-        <v>7269.83</v>
+        <v>3534.18</v>
       </c>
       <c r="E16" t="n">
-        <v>19.72</v>
+        <v>78.03</v>
       </c>
       <c r="F16" t="n">
-        <v>134.1</v>
+        <v>99.92</v>
       </c>
       <c r="G16" t="n">
-        <v>4599.36</v>
+        <v>7703.18</v>
       </c>
     </row>
     <row r="17">
@@ -653,22 +654,22 @@
         <v>4</v>
       </c>
       <c r="B17" t="n">
-        <v>48.47</v>
+        <v>23.56</v>
       </c>
       <c r="C17" t="n">
-        <v>246.64</v>
+        <v>157.35</v>
       </c>
       <c r="D17" t="n">
-        <v>7023.19</v>
+        <v>3376.83</v>
       </c>
       <c r="E17" t="n">
-        <v>19.16</v>
+        <v>77.03</v>
       </c>
       <c r="F17" t="n">
-        <v>134.66</v>
+        <v>100.92</v>
       </c>
       <c r="G17" t="n">
-        <v>4464.7</v>
+        <v>7602.26</v>
       </c>
     </row>
     <row r="18">
@@ -676,22 +677,22 @@
         <v>5</v>
       </c>
       <c r="B18" t="n">
-        <v>46.82</v>
+        <v>22.51</v>
       </c>
       <c r="C18" t="n">
-        <v>248.29</v>
+        <v>158.4</v>
       </c>
       <c r="D18" t="n">
-        <v>6774.91</v>
+        <v>3218.44</v>
       </c>
       <c r="E18" t="n">
-        <v>18.6</v>
+        <v>76.02</v>
       </c>
       <c r="F18" t="n">
-        <v>135.22</v>
+        <v>101.93</v>
       </c>
       <c r="G18" t="n">
-        <v>4329.48</v>
+        <v>7500.33</v>
       </c>
     </row>
     <row r="19">
@@ -699,22 +700,22 @@
         <v>6</v>
       </c>
       <c r="B19" t="n">
-        <v>45.17</v>
+        <v>21.46</v>
       </c>
       <c r="C19" t="n">
-        <v>249.94</v>
+        <v>159.45</v>
       </c>
       <c r="D19" t="n">
-        <v>6524.97</v>
+        <v>3058.98</v>
       </c>
       <c r="E19" t="n">
-        <v>18.04</v>
+        <v>75</v>
       </c>
       <c r="F19" t="n">
-        <v>135.78</v>
+        <v>102.95</v>
       </c>
       <c r="G19" t="n">
-        <v>4193.7</v>
+        <v>7397.38</v>
       </c>
     </row>
     <row r="20">
@@ -722,22 +723,22 @@
         <v>7</v>
       </c>
       <c r="B20" t="n">
-        <v>43.5</v>
+        <v>20.39</v>
       </c>
       <c r="C20" t="n">
-        <v>251.61</v>
+        <v>160.52</v>
       </c>
       <c r="D20" t="n">
-        <v>6273.36</v>
+        <v>2898.47</v>
       </c>
       <c r="E20" t="n">
-        <v>17.47</v>
+        <v>73.97</v>
       </c>
       <c r="F20" t="n">
-        <v>136.35</v>
+        <v>103.98</v>
       </c>
       <c r="G20" t="n">
-        <v>4057.35</v>
+        <v>7293.39</v>
       </c>
     </row>
     <row r="21">
@@ -745,22 +746,22 @@
         <v>8</v>
       </c>
       <c r="B21" t="n">
-        <v>41.82</v>
+        <v>19.32</v>
       </c>
       <c r="C21" t="n">
-        <v>253.28</v>
+        <v>161.59</v>
       </c>
       <c r="D21" t="n">
-        <v>6020.08</v>
+        <v>2736.88</v>
       </c>
       <c r="E21" t="n">
-        <v>16.91</v>
+        <v>72.93000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>136.92</v>
+        <v>105.02</v>
       </c>
       <c r="G21" t="n">
-        <v>3920.43</v>
+        <v>7188.37</v>
       </c>
     </row>
     <row r="22">
@@ -768,22 +769,22 @@
         <v>9</v>
       </c>
       <c r="B22" t="n">
-        <v>40.13</v>
+        <v>18.25</v>
       </c>
       <c r="C22" t="n">
-        <v>254.97</v>
+        <v>162.66</v>
       </c>
       <c r="D22" t="n">
-        <v>5765.1</v>
+        <v>2574.22</v>
       </c>
       <c r="E22" t="n">
-        <v>16.34</v>
+        <v>71.88</v>
       </c>
       <c r="F22" t="n">
-        <v>137.49</v>
+        <v>106.07</v>
       </c>
       <c r="G22" t="n">
-        <v>3782.94</v>
+        <v>7082.3</v>
       </c>
     </row>
     <row r="23">
@@ -791,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B23" t="n">
-        <v>38.43</v>
+        <v>17.16</v>
       </c>
       <c r="C23" t="n">
-        <v>256.67</v>
+        <v>163.75</v>
       </c>
       <c r="D23" t="n">
-        <v>5508.43</v>
+        <v>2410.47</v>
       </c>
       <c r="E23" t="n">
-        <v>15.76</v>
+        <v>70.81999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>138.06</v>
+        <v>107.13</v>
       </c>
       <c r="G23" t="n">
-        <v>3644.88</v>
+        <v>6975.17</v>
       </c>
     </row>
     <row r="24">
@@ -814,22 +815,22 @@
         <v>11</v>
       </c>
       <c r="B24" t="n">
-        <v>36.72</v>
+        <v>16.07</v>
       </c>
       <c r="C24" t="n">
-        <v>258.38</v>
+        <v>164.84</v>
       </c>
       <c r="D24" t="n">
-        <v>5250.05</v>
+        <v>2245.63</v>
       </c>
       <c r="E24" t="n">
-        <v>15.19</v>
+        <v>69.75</v>
       </c>
       <c r="F24" t="n">
-        <v>138.64</v>
+        <v>108.2</v>
       </c>
       <c r="G24" t="n">
-        <v>3506.24</v>
+        <v>6866.96</v>
       </c>
     </row>
     <row r="25">
@@ -837,22 +838,22 @@
         <v>12</v>
       </c>
       <c r="B25" t="n">
-        <v>35</v>
+        <v>14.97</v>
       </c>
       <c r="C25" t="n">
-        <v>260.11</v>
+        <v>165.94</v>
       </c>
       <c r="D25" t="n">
-        <v>4989.94</v>
+        <v>2079.69</v>
       </c>
       <c r="E25" t="n">
-        <v>14.61</v>
+        <v>68.67</v>
       </c>
       <c r="F25" t="n">
-        <v>139.21</v>
+        <v>109.29</v>
       </c>
       <c r="G25" t="n">
-        <v>3367.03</v>
+        <v>6757.68</v>
       </c>
     </row>
     <row r="26">
@@ -860,22 +861,22 @@
         <v>13</v>
       </c>
       <c r="B26" t="n">
-        <v>33.27</v>
+        <v>13.86</v>
       </c>
       <c r="C26" t="n">
-        <v>261.84</v>
+        <v>167.04</v>
       </c>
       <c r="D26" t="n">
-        <v>4728.1</v>
+        <v>1912.65</v>
       </c>
       <c r="E26" t="n">
-        <v>14.03</v>
+        <v>67.58</v>
       </c>
       <c r="F26" t="n">
-        <v>139.79</v>
+        <v>110.38</v>
       </c>
       <c r="G26" t="n">
-        <v>3227.23</v>
+        <v>6647.3</v>
       </c>
     </row>
     <row r="27">
@@ -883,22 +884,22 @@
         <v>14</v>
       </c>
       <c r="B27" t="n">
-        <v>31.52</v>
+        <v>12.75</v>
       </c>
       <c r="C27" t="n">
-        <v>263.59</v>
+        <v>168.16</v>
       </c>
       <c r="D27" t="n">
-        <v>4464.51</v>
+        <v>1744.49</v>
       </c>
       <c r="E27" t="n">
-        <v>13.45</v>
+        <v>66.47</v>
       </c>
       <c r="F27" t="n">
-        <v>140.38</v>
+        <v>111.48</v>
       </c>
       <c r="G27" t="n">
-        <v>3086.86</v>
+        <v>6535.82</v>
       </c>
     </row>
     <row r="28">
@@ -906,22 +907,22 @@
         <v>15</v>
       </c>
       <c r="B28" t="n">
-        <v>29.76</v>
+        <v>11.63</v>
       </c>
       <c r="C28" t="n">
-        <v>265.34</v>
+        <v>169.28</v>
       </c>
       <c r="D28" t="n">
-        <v>4199.17</v>
+        <v>1575.21</v>
       </c>
       <c r="E28" t="n">
-        <v>12.86</v>
+        <v>65.36</v>
       </c>
       <c r="F28" t="n">
-        <v>140.96</v>
+        <v>112.6</v>
       </c>
       <c r="G28" t="n">
-        <v>2945.9</v>
+        <v>6423.22</v>
       </c>
     </row>
     <row r="29">
@@ -929,22 +930,22 @@
         <v>16</v>
       </c>
       <c r="B29" t="n">
-        <v>27.99</v>
+        <v>10.5</v>
       </c>
       <c r="C29" t="n">
-        <v>267.11</v>
+        <v>170.41</v>
       </c>
       <c r="D29" t="n">
-        <v>3932.06</v>
+        <v>1404.8</v>
       </c>
       <c r="E29" t="n">
-        <v>12.27</v>
+        <v>64.23</v>
       </c>
       <c r="F29" t="n">
-        <v>141.55</v>
+        <v>113.72</v>
       </c>
       <c r="G29" t="n">
-        <v>2804.35</v>
+        <v>6309.5</v>
       </c>
     </row>
     <row r="30">
@@ -952,22 +953,22 @@
         <v>17</v>
       </c>
       <c r="B30" t="n">
-        <v>26.21</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>268.89</v>
+        <v>171.54</v>
       </c>
       <c r="D30" t="n">
-        <v>3663.17</v>
+        <v>1233.26</v>
       </c>
       <c r="E30" t="n">
-        <v>11.68</v>
+        <v>63.09</v>
       </c>
       <c r="F30" t="n">
-        <v>142.14</v>
+        <v>114.86</v>
       </c>
       <c r="G30" t="n">
-        <v>2662.21</v>
+        <v>6194.64</v>
       </c>
     </row>
     <row r="31">
@@ -975,22 +976,22 @@
         <v>18</v>
       </c>
       <c r="B31" t="n">
-        <v>24.42</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>270.69</v>
+        <v>172.69</v>
       </c>
       <c r="D31" t="n">
-        <v>3392.48</v>
+        <v>1060.57</v>
       </c>
       <c r="E31" t="n">
-        <v>11.09</v>
+        <v>61.95</v>
       </c>
       <c r="F31" t="n">
-        <v>142.73</v>
+        <v>116.01</v>
       </c>
       <c r="G31" t="n">
-        <v>2519.48</v>
+        <v>6078.63</v>
       </c>
     </row>
     <row r="32">
@@ -998,22 +999,22 @@
         <v>19</v>
       </c>
       <c r="B32" t="n">
-        <v>22.62</v>
+        <v>7.07</v>
       </c>
       <c r="C32" t="n">
-        <v>272.49</v>
+        <v>173.84</v>
       </c>
       <c r="D32" t="n">
-        <v>3119.99</v>
+        <v>886.73</v>
       </c>
       <c r="E32" t="n">
-        <v>10.5</v>
+        <v>60.79</v>
       </c>
       <c r="F32" t="n">
-        <v>143.33</v>
+        <v>117.17</v>
       </c>
       <c r="G32" t="n">
-        <v>2376.15</v>
+        <v>5961.46</v>
       </c>
     </row>
     <row r="33">
@@ -1021,22 +1022,22 @@
         <v>20</v>
       </c>
       <c r="B33" t="n">
-        <v>20.8</v>
+        <v>5.91</v>
       </c>
       <c r="C33" t="n">
-        <v>274.31</v>
+        <v>175</v>
       </c>
       <c r="D33" t="n">
-        <v>2845.68</v>
+        <v>711.74</v>
       </c>
       <c r="E33" t="n">
-        <v>9.9</v>
+        <v>59.61</v>
       </c>
       <c r="F33" t="n">
-        <v>143.92</v>
+        <v>118.34</v>
       </c>
       <c r="G33" t="n">
-        <v>2232.23</v>
+        <v>5843.12</v>
       </c>
     </row>
     <row r="34">
@@ -1044,22 +1045,22 @@
         <v>21</v>
       </c>
       <c r="B34" t="n">
-        <v>18.97</v>
+        <v>4.74</v>
       </c>
       <c r="C34" t="n">
-        <v>276.14</v>
+        <v>176.16</v>
       </c>
       <c r="D34" t="n">
-        <v>2569.55</v>
+        <v>535.5700000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>9.300000000000001</v>
+        <v>58.43</v>
       </c>
       <c r="F34" t="n">
-        <v>144.52</v>
+        <v>119.52</v>
       </c>
       <c r="G34" t="n">
-        <v>2087.7</v>
+        <v>5723.59</v>
       </c>
     </row>
     <row r="35">
@@ -1067,22 +1068,22 @@
         <v>22</v>
       </c>
       <c r="B35" t="n">
-        <v>17.13</v>
+        <v>3.57</v>
       </c>
       <c r="C35" t="n">
-        <v>277.98</v>
+        <v>177.34</v>
       </c>
       <c r="D35" t="n">
-        <v>2291.57</v>
+        <v>358.23</v>
       </c>
       <c r="E35" t="n">
-        <v>8.699999999999999</v>
+        <v>57.24</v>
       </c>
       <c r="F35" t="n">
-        <v>145.13</v>
+        <v>120.72</v>
       </c>
       <c r="G35" t="n">
-        <v>1942.58</v>
+        <v>5602.87</v>
       </c>
     </row>
     <row r="36">
@@ -1090,22 +1091,22 @@
         <v>23</v>
       </c>
       <c r="B36" t="n">
-        <v>15.28</v>
+        <v>2.39</v>
       </c>
       <c r="C36" t="n">
-        <v>279.83</v>
+        <v>178.52</v>
       </c>
       <c r="D36" t="n">
-        <v>2011.74</v>
+        <v>179.71</v>
       </c>
       <c r="E36" t="n">
-        <v>8.09</v>
+        <v>56.03</v>
       </c>
       <c r="F36" t="n">
-        <v>145.73</v>
+        <v>121.93</v>
       </c>
       <c r="G36" t="n">
-        <v>1796.85</v>
+        <v>5480.94</v>
       </c>
     </row>
     <row r="37">
@@ -1113,160 +1114,124 @@
         <v>24</v>
       </c>
       <c r="B37" t="n">
-        <v>13.41</v>
+        <v>1.2</v>
       </c>
       <c r="C37" t="n">
-        <v>281.69</v>
+        <v>179.71</v>
       </c>
       <c r="D37" t="n">
-        <v>1730.05</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>7.49</v>
+        <v>54.81</v>
       </c>
       <c r="F37" t="n">
-        <v>146.34</v>
+        <v>123.15</v>
       </c>
       <c r="G37" t="n">
-        <v>1650.51</v>
+        <v>5357.8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>25</v>
       </c>
-      <c r="B38" t="n">
-        <v>11.53</v>
-      </c>
-      <c r="C38" t="n">
-        <v>283.57</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1446.48</v>
-      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="n">
-        <v>6.88</v>
+        <v>53.58</v>
       </c>
       <c r="F38" t="n">
-        <v>146.95</v>
+        <v>124.38</v>
       </c>
       <c r="G38" t="n">
-        <v>1503.57</v>
+        <v>5233.42</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>26</v>
       </c>
-      <c r="B39" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="C39" t="n">
-        <v>285.46</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1161.01</v>
-      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="n">
-        <v>6.26</v>
+        <v>52.33</v>
       </c>
       <c r="F39" t="n">
-        <v>147.56</v>
+        <v>125.62</v>
       </c>
       <c r="G39" t="n">
-        <v>1356.01</v>
+        <v>5107.8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>27</v>
       </c>
-      <c r="B40" t="n">
-        <v>7.74</v>
-      </c>
-      <c r="C40" t="n">
-        <v>287.37</v>
-      </c>
-      <c r="D40" t="n">
-        <v>873.65</v>
-      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="n">
-        <v>5.65</v>
+        <v>51.08</v>
       </c>
       <c r="F40" t="n">
-        <v>148.17</v>
+        <v>126.88</v>
       </c>
       <c r="G40" t="n">
-        <v>1207.83</v>
+        <v>4980.92</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>28</v>
       </c>
-      <c r="B41" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="C41" t="n">
-        <v>289.28</v>
-      </c>
-      <c r="D41" t="n">
-        <v>584.36</v>
-      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="n">
-        <v>5.03</v>
+        <v>49.81</v>
       </c>
       <c r="F41" t="n">
-        <v>148.79</v>
+        <v>128.15</v>
       </c>
       <c r="G41" t="n">
-        <v>1059.04</v>
+        <v>4852.78</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>29</v>
       </c>
-      <c r="B42" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="C42" t="n">
-        <v>291.21</v>
-      </c>
-      <c r="D42" t="n">
-        <v>293.15</v>
-      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="n">
-        <v>4.41</v>
+        <v>48.53</v>
       </c>
       <c r="F42" t="n">
-        <v>149.41</v>
+        <v>129.43</v>
       </c>
       <c r="G42" t="n">
-        <v>909.63</v>
+        <v>4723.35</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>30</v>
       </c>
-      <c r="B43" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="C43" t="n">
-        <v>293.15</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="n">
-        <v>3.79</v>
+        <v>47.23</v>
       </c>
       <c r="F43" t="n">
-        <v>150.03</v>
+        <v>130.72</v>
       </c>
       <c r="G43" t="n">
-        <v>759.6</v>
+        <v>4592.63</v>
       </c>
     </row>
     <row r="44">
@@ -1277,13 +1242,13 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="n">
-        <v>3.16</v>
+        <v>45.93</v>
       </c>
       <c r="F44" t="n">
-        <v>150.66</v>
+        <v>132.03</v>
       </c>
       <c r="G44" t="n">
-        <v>608.9400000000001</v>
+        <v>4460.6</v>
       </c>
     </row>
     <row r="45">
@@ -1294,13 +1259,13 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="n">
-        <v>2.54</v>
+        <v>44.61</v>
       </c>
       <c r="F45" t="n">
-        <v>151.29</v>
+        <v>133.35</v>
       </c>
       <c r="G45" t="n">
-        <v>457.65</v>
+        <v>4327.25</v>
       </c>
     </row>
     <row r="46">
@@ -1311,13 +1276,13 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="n">
-        <v>1.91</v>
+        <v>43.27</v>
       </c>
       <c r="F46" t="n">
-        <v>151.92</v>
+        <v>134.68</v>
       </c>
       <c r="G46" t="n">
-        <v>305.74</v>
+        <v>4192.56</v>
       </c>
     </row>
     <row r="47">
@@ -1328,13 +1293,13 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="n">
-        <v>1.27</v>
+        <v>41.93</v>
       </c>
       <c r="F47" t="n">
-        <v>152.55</v>
+        <v>136.03</v>
       </c>
       <c r="G47" t="n">
-        <v>153.19</v>
+        <v>4056.53</v>
       </c>
     </row>
     <row r="48">
@@ -1345,12 +1310,1634 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="n">
-        <v>0.64</v>
+        <v>40.57</v>
       </c>
       <c r="F48" t="n">
-        <v>153.19</v>
+        <v>137.39</v>
       </c>
       <c r="G48" t="n">
+        <v>3919.14</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>36</v>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>39.19</v>
+      </c>
+      <c r="F49" t="n">
+        <v>138.76</v>
+      </c>
+      <c r="G49" t="n">
+        <v>3780.38</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>37</v>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="F50" t="n">
+        <v>140.15</v>
+      </c>
+      <c r="G50" t="n">
+        <v>3640.23</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>38</v>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="F51" t="n">
+        <v>141.55</v>
+      </c>
+      <c r="G51" t="n">
+        <v>3498.67</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>39</v>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>34.99</v>
+      </c>
+      <c r="F52" t="n">
+        <v>142.97</v>
+      </c>
+      <c r="G52" t="n">
+        <v>3355.71</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>40</v>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>33.56</v>
+      </c>
+      <c r="F53" t="n">
+        <v>144.4</v>
+      </c>
+      <c r="G53" t="n">
+        <v>3211.31</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>41</v>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>32.11</v>
+      </c>
+      <c r="F54" t="n">
+        <v>145.84</v>
+      </c>
+      <c r="G54" t="n">
+        <v>3065.46</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>42</v>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>30.65</v>
+      </c>
+      <c r="F55" t="n">
+        <v>147.3</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2918.16</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>43</v>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>29.18</v>
+      </c>
+      <c r="F56" t="n">
+        <v>148.77</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2769.39</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>44</v>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>27.69</v>
+      </c>
+      <c r="F57" t="n">
+        <v>150.26</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2619.13</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>45</v>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>26.19</v>
+      </c>
+      <c r="F58" t="n">
+        <v>151.76</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2467.36</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>46</v>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>24.67</v>
+      </c>
+      <c r="F59" t="n">
+        <v>153.28</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2314.08</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>47</v>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>23.14</v>
+      </c>
+      <c r="F60" t="n">
+        <v>154.81</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2159.27</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>48</v>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>21.59</v>
+      </c>
+      <c r="F61" t="n">
+        <v>156.36</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2002.9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>49</v>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>20.03</v>
+      </c>
+      <c r="F62" t="n">
+        <v>157.93</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1844.98</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>50</v>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>18.45</v>
+      </c>
+      <c r="F63" t="n">
+        <v>159.51</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1685.47</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>51</v>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>16.85</v>
+      </c>
+      <c r="F64" t="n">
+        <v>161.1</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1524.37</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>52</v>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>15.24</v>
+      </c>
+      <c r="F65" t="n">
+        <v>162.71</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1361.66</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>53</v>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="F66" t="n">
+        <v>164.34</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1197.32</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>54</v>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="F67" t="n">
+        <v>165.98</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1031.34</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>55</v>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>10.31</v>
+      </c>
+      <c r="F68" t="n">
+        <v>167.64</v>
+      </c>
+      <c r="G68" t="n">
+        <v>863.7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>56</v>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="F69" t="n">
+        <v>169.32</v>
+      </c>
+      <c r="G69" t="n">
+        <v>694.38</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>57</v>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="F70" t="n">
+        <v>171.01</v>
+      </c>
+      <c r="G70" t="n">
+        <v>523.36</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>58</v>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="F71" t="n">
+        <v>172.72</v>
+      </c>
+      <c r="G71" t="n">
+        <v>350.64</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>59</v>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="F72" t="n">
+        <v>174.45</v>
+      </c>
+      <c r="G72" t="n">
+        <v>176.19</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>60</v>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="F73" t="n">
+        <v>176.19</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Mēnesis</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>A - Interese</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>A - Summa, kas iet nost no parāda</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>A - Atlikums</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>B - Interese</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>B - Summa, kas iet nost no parāda</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>B - Atlikums</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>26.67</v>
+      </c>
+      <c r="C2" t="n">
+        <v>154.24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3845.76</v>
+      </c>
+      <c r="E2" t="n">
+        <v>80</v>
+      </c>
+      <c r="F2" t="n">
+        <v>97.95999999999999</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7902.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>25.64</v>
+      </c>
+      <c r="C3" t="n">
+        <v>155.27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3690.49</v>
+      </c>
+      <c r="E3" t="n">
+        <v>79.02</v>
+      </c>
+      <c r="F3" t="n">
+        <v>98.94</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7803.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>156.31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3534.18</v>
+      </c>
+      <c r="E4" t="n">
+        <v>78.03</v>
+      </c>
+      <c r="F4" t="n">
+        <v>99.92</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7703.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>23.56</v>
+      </c>
+      <c r="C5" t="n">
+        <v>157.35</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3376.83</v>
+      </c>
+      <c r="E5" t="n">
+        <v>77.03</v>
+      </c>
+      <c r="F5" t="n">
+        <v>100.92</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7602.26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>22.51</v>
+      </c>
+      <c r="C6" t="n">
+        <v>158.4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3218.44</v>
+      </c>
+      <c r="E6" t="n">
+        <v>76.02</v>
+      </c>
+      <c r="F6" t="n">
+        <v>101.93</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7500.33</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>21.46</v>
+      </c>
+      <c r="C7" t="n">
+        <v>159.45</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3058.98</v>
+      </c>
+      <c r="E7" t="n">
+        <v>75</v>
+      </c>
+      <c r="F7" t="n">
+        <v>102.95</v>
+      </c>
+      <c r="G7" t="n">
+        <v>7397.38</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="C8" t="n">
+        <v>160.52</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2898.47</v>
+      </c>
+      <c r="E8" t="n">
+        <v>73.97</v>
+      </c>
+      <c r="F8" t="n">
+        <v>103.98</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7293.39</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>19.32</v>
+      </c>
+      <c r="C9" t="n">
+        <v>161.59</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2736.88</v>
+      </c>
+      <c r="E9" t="n">
+        <v>72.93000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>105.02</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7188.37</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="C10" t="n">
+        <v>162.66</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2574.22</v>
+      </c>
+      <c r="E10" t="n">
+        <v>71.88</v>
+      </c>
+      <c r="F10" t="n">
+        <v>106.07</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7082.3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>17.16</v>
+      </c>
+      <c r="C11" t="n">
+        <v>163.75</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2410.47</v>
+      </c>
+      <c r="E11" t="n">
+        <v>70.81999999999999</v>
+      </c>
+      <c r="F11" t="n">
+        <v>107.13</v>
+      </c>
+      <c r="G11" t="n">
+        <v>6975.17</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>14.74</v>
+      </c>
+      <c r="C12" t="n">
+        <v>166.17</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2044.3</v>
+      </c>
+      <c r="E12" t="n">
+        <v>67.75</v>
+      </c>
+      <c r="F12" t="n">
+        <v>110.2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>6664.96</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>13.63</v>
+      </c>
+      <c r="C13" t="n">
+        <v>167.28</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1877.02</v>
+      </c>
+      <c r="E13" t="n">
+        <v>66.65000000000001</v>
+      </c>
+      <c r="F13" t="n">
+        <v>111.31</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6553.66</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="C14" t="n">
+        <v>168.4</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1708.62</v>
+      </c>
+      <c r="E14" t="n">
+        <v>65.54000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>112.42</v>
+      </c>
+      <c r="G14" t="n">
+        <v>6441.24</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="C15" t="n">
+        <v>169.52</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1539.1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>64.41</v>
+      </c>
+      <c r="F15" t="n">
+        <v>113.54</v>
+      </c>
+      <c r="G15" t="n">
+        <v>6327.7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="C16" t="n">
+        <v>170.65</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1368.45</v>
+      </c>
+      <c r="E16" t="n">
+        <v>63.28</v>
+      </c>
+      <c r="F16" t="n">
+        <v>114.68</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6213.02</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="C17" t="n">
+        <v>171.79</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1196.67</v>
+      </c>
+      <c r="E17" t="n">
+        <v>62.13</v>
+      </c>
+      <c r="F17" t="n">
+        <v>115.83</v>
+      </c>
+      <c r="G17" t="n">
+        <v>6097.19</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="C18" t="n">
+        <v>172.93</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1023.74</v>
+      </c>
+      <c r="E18" t="n">
+        <v>60.97</v>
+      </c>
+      <c r="F18" t="n">
+        <v>116.98</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5980.21</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="C19" t="n">
+        <v>174.08</v>
+      </c>
+      <c r="D19" t="n">
+        <v>849.65</v>
+      </c>
+      <c r="E19" t="n">
+        <v>59.8</v>
+      </c>
+      <c r="F19" t="n">
+        <v>118.15</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5862.05</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="C20" t="n">
+        <v>175.24</v>
+      </c>
+      <c r="D20" t="n">
+        <v>674.41</v>
+      </c>
+      <c r="E20" t="n">
+        <v>58.62</v>
+      </c>
+      <c r="F20" t="n">
+        <v>119.34</v>
+      </c>
+      <c r="G20" t="n">
+        <v>5742.72</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C21" t="n">
+        <v>176.41</v>
+      </c>
+      <c r="D21" t="n">
+        <v>497.99</v>
+      </c>
+      <c r="E21" t="n">
+        <v>57.43</v>
+      </c>
+      <c r="F21" t="n">
+        <v>120.53</v>
+      </c>
+      <c r="G21" t="n">
+        <v>5622.19</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="C22" t="n">
+        <v>177.59</v>
+      </c>
+      <c r="D22" t="n">
+        <v>320.41</v>
+      </c>
+      <c r="E22" t="n">
+        <v>56.22</v>
+      </c>
+      <c r="F22" t="n">
+        <v>121.73</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5500.46</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="C23" t="n">
+        <v>178.77</v>
+      </c>
+      <c r="D23" t="n">
+        <v>141.63</v>
+      </c>
+      <c r="E23" t="n">
+        <v>55</v>
+      </c>
+      <c r="F23" t="n">
+        <v>122.95</v>
+      </c>
+      <c r="G23" t="n">
+        <v>5377.51</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C24" t="n">
+        <v>141.63</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>53.78</v>
+      </c>
+      <c r="F24" t="n">
+        <v>124.18</v>
+      </c>
+      <c r="G24" t="n">
+        <v>5253.33</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>52.53</v>
+      </c>
+      <c r="F25" t="n">
+        <v>125.42</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5127.9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>51.28</v>
+      </c>
+      <c r="F26" t="n">
+        <v>126.68</v>
+      </c>
+      <c r="G26" t="n">
+        <v>5001.23</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>50.01</v>
+      </c>
+      <c r="F27" t="n">
+        <v>127.94</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4873.28</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>48.73</v>
+      </c>
+      <c r="F28" t="n">
+        <v>129.22</v>
+      </c>
+      <c r="G28" t="n">
+        <v>4744.06</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>47.44</v>
+      </c>
+      <c r="F29" t="n">
+        <v>130.51</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4613.55</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>46.14</v>
+      </c>
+      <c r="F30" t="n">
+        <v>131.82</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4481.73</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>44.82</v>
+      </c>
+      <c r="F31" t="n">
+        <v>133.14</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4348.59</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>43.49</v>
+      </c>
+      <c r="F32" t="n">
+        <v>134.47</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4214.12</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>42.14</v>
+      </c>
+      <c r="F33" t="n">
+        <v>135.81</v>
+      </c>
+      <c r="G33" t="n">
+        <v>4078.3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>40.78</v>
+      </c>
+      <c r="F34" t="n">
+        <v>137.17</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3941.13</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>39.41</v>
+      </c>
+      <c r="F35" t="n">
+        <v>138.54</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3802.59</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>38.03</v>
+      </c>
+      <c r="F36" t="n">
+        <v>139.93</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3662.66</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>36.63</v>
+      </c>
+      <c r="F37" t="n">
+        <v>141.33</v>
+      </c>
+      <c r="G37" t="n">
+        <v>3521.33</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>35.21</v>
+      </c>
+      <c r="F38" t="n">
+        <v>142.74</v>
+      </c>
+      <c r="G38" t="n">
+        <v>3378.59</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>33.79</v>
+      </c>
+      <c r="F39" t="n">
+        <v>144.17</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3234.42</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>32.34</v>
+      </c>
+      <c r="F40" t="n">
+        <v>145.61</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3088.8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>30.89</v>
+      </c>
+      <c r="F41" t="n">
+        <v>147.07</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2941.74</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>29.42</v>
+      </c>
+      <c r="F42" t="n">
+        <v>148.54</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2793.2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>27.93</v>
+      </c>
+      <c r="F43" t="n">
+        <v>150.02</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2643.18</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>26.43</v>
+      </c>
+      <c r="F44" t="n">
+        <v>151.52</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2491.65</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>24.92</v>
+      </c>
+      <c r="F45" t="n">
+        <v>153.04</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2338.61</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>23.39</v>
+      </c>
+      <c r="F46" t="n">
+        <v>154.57</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2184.04</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>21.84</v>
+      </c>
+      <c r="F47" t="n">
+        <v>156.12</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2027.93</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>20.28</v>
+      </c>
+      <c r="F48" t="n">
+        <v>157.68</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1870.25</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="F49" t="n">
+        <v>159.25</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>17.11</v>
+      </c>
+      <c r="F50" t="n">
+        <v>160.85</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1550.15</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F51" t="n">
+        <v>162.45</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1387.7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>13.88</v>
+      </c>
+      <c r="F52" t="n">
+        <v>164.08</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1223.62</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="F53" t="n">
+        <v>165.72</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1057.9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>10.58</v>
+      </c>
+      <c r="F54" t="n">
+        <v>167.38</v>
+      </c>
+      <c r="G54" t="n">
+        <v>890.52</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="F55" t="n">
+        <v>169.05</v>
+      </c>
+      <c r="G55" t="n">
+        <v>721.47</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="F56" t="n">
+        <v>170.74</v>
+      </c>
+      <c r="G56" t="n">
+        <v>550.73</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="F57" t="n">
+        <v>172.45</v>
+      </c>
+      <c r="G57" t="n">
+        <v>378.28</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="F58" t="n">
+        <v>174.17</v>
+      </c>
+      <c r="G58" t="n">
+        <v>204.11</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="F59" t="n">
+        <v>175.91</v>
+      </c>
+      <c r="G59" t="n">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F60" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="G60" t="n">
         <v>0</v>
       </c>
     </row>

--- a/kreditu_salidzinasana.xlsx
+++ b/kreditu_salidzinasana.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Kredītu salīdzinājums" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Pēc papildiemaksas (11, 200.0)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Pēc papildiemaksas (20, 450.0)" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,10 +446,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="C2" t="n">
-        <v>8000</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>7.000000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C4" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -485,10 +485,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4122.58</v>
+        <v>9146.98</v>
       </c>
       <c r="C6" t="n">
-        <v>10349.9</v>
+        <v>7587.43</v>
       </c>
     </row>
     <row r="8">
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>322.58</v>
+        <v>1596.99</v>
       </c>
       <c r="C8" t="n">
-        <v>2549.9</v>
+        <v>837.4400000000001</v>
       </c>
     </row>
     <row r="9">
@@ -511,10 +511,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.06</v>
+        <v>19.96</v>
       </c>
       <c r="C9" t="n">
-        <v>31.87</v>
+        <v>11.63</v>
       </c>
     </row>
     <row r="10">
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>180.91</v>
+        <v>162.21</v>
       </c>
       <c r="C10" t="n">
-        <v>177.96</v>
+        <v>202.34</v>
       </c>
     </row>
     <row r="11">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.0306</v>
+        <v>1.1434</v>
       </c>
       <c r="C11" t="n">
-        <v>1.2937</v>
+        <v>1.0538</v>
       </c>
     </row>
     <row r="13">
@@ -585,22 +585,22 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>26.67</v>
+        <v>53.33</v>
       </c>
       <c r="C14" t="n">
-        <v>154.24</v>
+        <v>108.88</v>
       </c>
       <c r="D14" t="n">
-        <v>3845.76</v>
+        <v>7891.12</v>
       </c>
       <c r="E14" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="F14" t="n">
-        <v>97.95999999999999</v>
+        <v>160.34</v>
       </c>
       <c r="G14" t="n">
-        <v>7902.04</v>
+        <v>7039.66</v>
       </c>
     </row>
     <row r="15">
@@ -608,22 +608,22 @@
         <v>2</v>
       </c>
       <c r="B15" t="n">
-        <v>25.64</v>
+        <v>52.61</v>
       </c>
       <c r="C15" t="n">
-        <v>155.27</v>
+        <v>109.6</v>
       </c>
       <c r="D15" t="n">
-        <v>3690.49</v>
+        <v>7781.52</v>
       </c>
       <c r="E15" t="n">
-        <v>79.02</v>
+        <v>41.06</v>
       </c>
       <c r="F15" t="n">
-        <v>98.94</v>
+        <v>161.27</v>
       </c>
       <c r="G15" t="n">
-        <v>7803.11</v>
+        <v>6878.39</v>
       </c>
     </row>
     <row r="16">
@@ -631,22 +631,22 @@
         <v>3</v>
       </c>
       <c r="B16" t="n">
-        <v>24.6</v>
+        <v>51.88</v>
       </c>
       <c r="C16" t="n">
-        <v>156.31</v>
+        <v>110.33</v>
       </c>
       <c r="D16" t="n">
-        <v>3534.18</v>
+        <v>7671.18</v>
       </c>
       <c r="E16" t="n">
-        <v>78.03</v>
+        <v>40.12</v>
       </c>
       <c r="F16" t="n">
-        <v>99.92</v>
+        <v>162.21</v>
       </c>
       <c r="G16" t="n">
-        <v>7703.18</v>
+        <v>6716.17</v>
       </c>
     </row>
     <row r="17">
@@ -654,22 +654,22 @@
         <v>4</v>
       </c>
       <c r="B17" t="n">
-        <v>23.56</v>
+        <v>51.14</v>
       </c>
       <c r="C17" t="n">
-        <v>157.35</v>
+        <v>111.07</v>
       </c>
       <c r="D17" t="n">
-        <v>3376.83</v>
+        <v>7560.11</v>
       </c>
       <c r="E17" t="n">
-        <v>77.03</v>
+        <v>39.18</v>
       </c>
       <c r="F17" t="n">
-        <v>100.92</v>
+        <v>163.16</v>
       </c>
       <c r="G17" t="n">
-        <v>7602.26</v>
+        <v>6553.01</v>
       </c>
     </row>
     <row r="18">
@@ -677,22 +677,22 @@
         <v>5</v>
       </c>
       <c r="B18" t="n">
-        <v>22.51</v>
+        <v>50.4</v>
       </c>
       <c r="C18" t="n">
-        <v>158.4</v>
+        <v>111.81</v>
       </c>
       <c r="D18" t="n">
-        <v>3218.44</v>
+        <v>7448.3</v>
       </c>
       <c r="E18" t="n">
-        <v>76.02</v>
+        <v>38.23</v>
       </c>
       <c r="F18" t="n">
-        <v>101.93</v>
+        <v>164.11</v>
       </c>
       <c r="G18" t="n">
-        <v>7500.33</v>
+        <v>6388.9</v>
       </c>
     </row>
     <row r="19">
@@ -700,22 +700,22 @@
         <v>6</v>
       </c>
       <c r="B19" t="n">
-        <v>21.46</v>
+        <v>49.66</v>
       </c>
       <c r="C19" t="n">
-        <v>159.45</v>
+        <v>112.56</v>
       </c>
       <c r="D19" t="n">
-        <v>3058.98</v>
+        <v>7335.75</v>
       </c>
       <c r="E19" t="n">
-        <v>75</v>
+        <v>37.27</v>
       </c>
       <c r="F19" t="n">
-        <v>102.95</v>
+        <v>165.07</v>
       </c>
       <c r="G19" t="n">
-        <v>7397.38</v>
+        <v>6223.83</v>
       </c>
     </row>
     <row r="20">
@@ -723,22 +723,22 @@
         <v>7</v>
       </c>
       <c r="B20" t="n">
-        <v>20.39</v>
+        <v>48.9</v>
       </c>
       <c r="C20" t="n">
-        <v>160.52</v>
+        <v>113.31</v>
       </c>
       <c r="D20" t="n">
-        <v>2898.47</v>
+        <v>7222.44</v>
       </c>
       <c r="E20" t="n">
-        <v>73.97</v>
+        <v>36.31</v>
       </c>
       <c r="F20" t="n">
-        <v>103.98</v>
+        <v>166.03</v>
       </c>
       <c r="G20" t="n">
-        <v>7293.39</v>
+        <v>6057.8</v>
       </c>
     </row>
     <row r="21">
@@ -746,22 +746,22 @@
         <v>8</v>
       </c>
       <c r="B21" t="n">
-        <v>19.32</v>
+        <v>48.15</v>
       </c>
       <c r="C21" t="n">
-        <v>161.59</v>
+        <v>114.06</v>
       </c>
       <c r="D21" t="n">
-        <v>2736.88</v>
+        <v>7108.38</v>
       </c>
       <c r="E21" t="n">
-        <v>72.93000000000001</v>
+        <v>35.34</v>
       </c>
       <c r="F21" t="n">
-        <v>105.02</v>
+        <v>167</v>
       </c>
       <c r="G21" t="n">
-        <v>7188.37</v>
+        <v>5890.8</v>
       </c>
     </row>
     <row r="22">
@@ -769,22 +769,22 @@
         <v>9</v>
       </c>
       <c r="B22" t="n">
-        <v>18.25</v>
+        <v>47.39</v>
       </c>
       <c r="C22" t="n">
-        <v>162.66</v>
+        <v>114.82</v>
       </c>
       <c r="D22" t="n">
-        <v>2574.22</v>
+        <v>6993.56</v>
       </c>
       <c r="E22" t="n">
-        <v>71.88</v>
+        <v>34.36</v>
       </c>
       <c r="F22" t="n">
-        <v>106.07</v>
+        <v>167.98</v>
       </c>
       <c r="G22" t="n">
-        <v>7082.3</v>
+        <v>5722.82</v>
       </c>
     </row>
     <row r="23">
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B23" t="n">
-        <v>17.16</v>
+        <v>46.62</v>
       </c>
       <c r="C23" t="n">
-        <v>163.75</v>
+        <v>115.59</v>
       </c>
       <c r="D23" t="n">
-        <v>2410.47</v>
+        <v>6877.97</v>
       </c>
       <c r="E23" t="n">
-        <v>70.81999999999999</v>
+        <v>33.38</v>
       </c>
       <c r="F23" t="n">
-        <v>107.13</v>
+        <v>168.95</v>
       </c>
       <c r="G23" t="n">
-        <v>6975.17</v>
+        <v>5553.87</v>
       </c>
     </row>
     <row r="24">
@@ -815,22 +815,22 @@
         <v>11</v>
       </c>
       <c r="B24" t="n">
-        <v>16.07</v>
+        <v>45.85</v>
       </c>
       <c r="C24" t="n">
-        <v>164.84</v>
+        <v>116.36</v>
       </c>
       <c r="D24" t="n">
-        <v>2245.63</v>
+        <v>6761.61</v>
       </c>
       <c r="E24" t="n">
-        <v>69.75</v>
+        <v>32.4</v>
       </c>
       <c r="F24" t="n">
-        <v>108.2</v>
+        <v>169.94</v>
       </c>
       <c r="G24" t="n">
-        <v>6866.96</v>
+        <v>5383.93</v>
       </c>
     </row>
     <row r="25">
@@ -838,22 +838,22 @@
         <v>12</v>
       </c>
       <c r="B25" t="n">
-        <v>14.97</v>
+        <v>45.08</v>
       </c>
       <c r="C25" t="n">
-        <v>165.94</v>
+        <v>117.13</v>
       </c>
       <c r="D25" t="n">
-        <v>2079.69</v>
+        <v>6644.48</v>
       </c>
       <c r="E25" t="n">
-        <v>68.67</v>
+        <v>31.41</v>
       </c>
       <c r="F25" t="n">
-        <v>109.29</v>
+        <v>170.93</v>
       </c>
       <c r="G25" t="n">
-        <v>6757.68</v>
+        <v>5213</v>
       </c>
     </row>
     <row r="26">
@@ -861,22 +861,22 @@
         <v>13</v>
       </c>
       <c r="B26" t="n">
-        <v>13.86</v>
+        <v>44.3</v>
       </c>
       <c r="C26" t="n">
-        <v>167.04</v>
+        <v>117.91</v>
       </c>
       <c r="D26" t="n">
-        <v>1912.65</v>
+        <v>6526.56</v>
       </c>
       <c r="E26" t="n">
-        <v>67.58</v>
+        <v>30.41</v>
       </c>
       <c r="F26" t="n">
-        <v>110.38</v>
+        <v>171.93</v>
       </c>
       <c r="G26" t="n">
-        <v>6647.3</v>
+        <v>5041.07</v>
       </c>
     </row>
     <row r="27">
@@ -884,22 +884,22 @@
         <v>14</v>
       </c>
       <c r="B27" t="n">
-        <v>12.75</v>
+        <v>43.51</v>
       </c>
       <c r="C27" t="n">
-        <v>168.16</v>
+        <v>118.7</v>
       </c>
       <c r="D27" t="n">
-        <v>1744.49</v>
+        <v>6407.86</v>
       </c>
       <c r="E27" t="n">
-        <v>66.47</v>
+        <v>29.41</v>
       </c>
       <c r="F27" t="n">
-        <v>111.48</v>
+        <v>172.93</v>
       </c>
       <c r="G27" t="n">
-        <v>6535.82</v>
+        <v>4868.14</v>
       </c>
     </row>
     <row r="28">
@@ -907,22 +907,22 @@
         <v>15</v>
       </c>
       <c r="B28" t="n">
-        <v>11.63</v>
+        <v>42.72</v>
       </c>
       <c r="C28" t="n">
-        <v>169.28</v>
+        <v>119.49</v>
       </c>
       <c r="D28" t="n">
-        <v>1575.21</v>
+        <v>6288.37</v>
       </c>
       <c r="E28" t="n">
-        <v>65.36</v>
+        <v>28.4</v>
       </c>
       <c r="F28" t="n">
-        <v>112.6</v>
+        <v>173.94</v>
       </c>
       <c r="G28" t="n">
-        <v>6423.22</v>
+        <v>4694.2</v>
       </c>
     </row>
     <row r="29">
@@ -930,22 +930,22 @@
         <v>16</v>
       </c>
       <c r="B29" t="n">
-        <v>10.5</v>
+        <v>41.92</v>
       </c>
       <c r="C29" t="n">
-        <v>170.41</v>
+        <v>120.29</v>
       </c>
       <c r="D29" t="n">
-        <v>1404.8</v>
+        <v>6168.08</v>
       </c>
       <c r="E29" t="n">
-        <v>64.23</v>
+        <v>27.38</v>
       </c>
       <c r="F29" t="n">
-        <v>113.72</v>
+        <v>174.96</v>
       </c>
       <c r="G29" t="n">
-        <v>6309.5</v>
+        <v>4519.24</v>
       </c>
     </row>
     <row r="30">
@@ -953,22 +953,22 @@
         <v>17</v>
       </c>
       <c r="B30" t="n">
-        <v>9.369999999999999</v>
+        <v>41.12</v>
       </c>
       <c r="C30" t="n">
-        <v>171.54</v>
+        <v>121.09</v>
       </c>
       <c r="D30" t="n">
-        <v>1233.26</v>
+        <v>6046.99</v>
       </c>
       <c r="E30" t="n">
-        <v>63.09</v>
+        <v>26.36</v>
       </c>
       <c r="F30" t="n">
-        <v>114.86</v>
+        <v>175.98</v>
       </c>
       <c r="G30" t="n">
-        <v>6194.64</v>
+        <v>4343.26</v>
       </c>
     </row>
     <row r="31">
@@ -976,22 +976,22 @@
         <v>18</v>
       </c>
       <c r="B31" t="n">
-        <v>8.220000000000001</v>
+        <v>40.31</v>
       </c>
       <c r="C31" t="n">
-        <v>172.69</v>
+        <v>121.9</v>
       </c>
       <c r="D31" t="n">
-        <v>1060.57</v>
+        <v>5925.09</v>
       </c>
       <c r="E31" t="n">
-        <v>61.95</v>
+        <v>25.34</v>
       </c>
       <c r="F31" t="n">
-        <v>116.01</v>
+        <v>177</v>
       </c>
       <c r="G31" t="n">
-        <v>6078.63</v>
+        <v>4166.26</v>
       </c>
     </row>
     <row r="32">
@@ -999,22 +999,22 @@
         <v>19</v>
       </c>
       <c r="B32" t="n">
-        <v>7.07</v>
+        <v>39.5</v>
       </c>
       <c r="C32" t="n">
-        <v>173.84</v>
+        <v>122.71</v>
       </c>
       <c r="D32" t="n">
-        <v>886.73</v>
+        <v>5802.38</v>
       </c>
       <c r="E32" t="n">
-        <v>60.79</v>
+        <v>24.3</v>
       </c>
       <c r="F32" t="n">
-        <v>117.17</v>
+        <v>178.03</v>
       </c>
       <c r="G32" t="n">
-        <v>5961.46</v>
+        <v>3988.23</v>
       </c>
     </row>
     <row r="33">
@@ -1022,22 +1022,22 @@
         <v>20</v>
       </c>
       <c r="B33" t="n">
-        <v>5.91</v>
+        <v>38.68</v>
       </c>
       <c r="C33" t="n">
-        <v>175</v>
+        <v>123.53</v>
       </c>
       <c r="D33" t="n">
-        <v>711.74</v>
+        <v>5678.86</v>
       </c>
       <c r="E33" t="n">
-        <v>59.61</v>
+        <v>23.26</v>
       </c>
       <c r="F33" t="n">
-        <v>118.34</v>
+        <v>179.07</v>
       </c>
       <c r="G33" t="n">
-        <v>5843.12</v>
+        <v>3809.15</v>
       </c>
     </row>
     <row r="34">
@@ -1045,22 +1045,22 @@
         <v>21</v>
       </c>
       <c r="B34" t="n">
-        <v>4.74</v>
+        <v>37.86</v>
       </c>
       <c r="C34" t="n">
-        <v>176.16</v>
+        <v>124.35</v>
       </c>
       <c r="D34" t="n">
-        <v>535.5700000000001</v>
+        <v>5554.5</v>
       </c>
       <c r="E34" t="n">
-        <v>58.43</v>
+        <v>22.22</v>
       </c>
       <c r="F34" t="n">
-        <v>119.52</v>
+        <v>180.12</v>
       </c>
       <c r="G34" t="n">
-        <v>5723.59</v>
+        <v>3629.04</v>
       </c>
     </row>
     <row r="35">
@@ -1068,22 +1068,22 @@
         <v>22</v>
       </c>
       <c r="B35" t="n">
-        <v>3.57</v>
+        <v>37.03</v>
       </c>
       <c r="C35" t="n">
-        <v>177.34</v>
+        <v>125.18</v>
       </c>
       <c r="D35" t="n">
-        <v>358.23</v>
+        <v>5429.32</v>
       </c>
       <c r="E35" t="n">
-        <v>57.24</v>
+        <v>21.17</v>
       </c>
       <c r="F35" t="n">
-        <v>120.72</v>
+        <v>181.17</v>
       </c>
       <c r="G35" t="n">
-        <v>5602.87</v>
+        <v>3447.87</v>
       </c>
     </row>
     <row r="36">
@@ -1091,22 +1091,22 @@
         <v>23</v>
       </c>
       <c r="B36" t="n">
-        <v>2.39</v>
+        <v>36.2</v>
       </c>
       <c r="C36" t="n">
-        <v>178.52</v>
+        <v>126.02</v>
       </c>
       <c r="D36" t="n">
-        <v>179.71</v>
+        <v>5303.31</v>
       </c>
       <c r="E36" t="n">
-        <v>56.03</v>
+        <v>20.11</v>
       </c>
       <c r="F36" t="n">
-        <v>121.93</v>
+        <v>182.23</v>
       </c>
       <c r="G36" t="n">
-        <v>5480.94</v>
+        <v>3265.64</v>
       </c>
     </row>
     <row r="37">
@@ -1114,635 +1114,731 @@
         <v>24</v>
       </c>
       <c r="B37" t="n">
-        <v>1.2</v>
+        <v>35.36</v>
       </c>
       <c r="C37" t="n">
-        <v>179.71</v>
+        <v>126.86</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>5176.45</v>
       </c>
       <c r="E37" t="n">
-        <v>54.81</v>
+        <v>19.05</v>
       </c>
       <c r="F37" t="n">
-        <v>123.15</v>
+        <v>183.29</v>
       </c>
       <c r="G37" t="n">
-        <v>5357.8</v>
+        <v>3082.35</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>25</v>
       </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
+      <c r="B38" t="n">
+        <v>34.51</v>
+      </c>
+      <c r="C38" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="D38" t="n">
+        <v>5048.75</v>
+      </c>
       <c r="E38" t="n">
-        <v>53.58</v>
+        <v>17.98</v>
       </c>
       <c r="F38" t="n">
-        <v>124.38</v>
+        <v>184.36</v>
       </c>
       <c r="G38" t="n">
-        <v>5233.42</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>26</v>
       </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
+      <c r="B39" t="n">
+        <v>33.66</v>
+      </c>
+      <c r="C39" t="n">
+        <v>128.55</v>
+      </c>
+      <c r="D39" t="n">
+        <v>4920.2</v>
+      </c>
       <c r="E39" t="n">
-        <v>52.33</v>
+        <v>16.9</v>
       </c>
       <c r="F39" t="n">
-        <v>125.62</v>
+        <v>185.43</v>
       </c>
       <c r="G39" t="n">
-        <v>5107.8</v>
+        <v>2712.56</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>27</v>
       </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
+      <c r="B40" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="C40" t="n">
+        <v>129.41</v>
+      </c>
+      <c r="D40" t="n">
+        <v>4790.79</v>
+      </c>
       <c r="E40" t="n">
-        <v>51.08</v>
+        <v>15.82</v>
       </c>
       <c r="F40" t="n">
-        <v>126.88</v>
+        <v>186.51</v>
       </c>
       <c r="G40" t="n">
-        <v>4980.92</v>
+        <v>2526.05</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>28</v>
       </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
+      <c r="B41" t="n">
+        <v>31.94</v>
+      </c>
+      <c r="C41" t="n">
+        <v>130.27</v>
+      </c>
+      <c r="D41" t="n">
+        <v>4660.51</v>
+      </c>
       <c r="E41" t="n">
-        <v>49.81</v>
+        <v>14.74</v>
       </c>
       <c r="F41" t="n">
-        <v>128.15</v>
+        <v>187.6</v>
       </c>
       <c r="G41" t="n">
-        <v>4852.78</v>
+        <v>2338.45</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>29</v>
       </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
+      <c r="B42" t="n">
+        <v>31.07</v>
+      </c>
+      <c r="C42" t="n">
+        <v>131.14</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4529.37</v>
+      </c>
       <c r="E42" t="n">
-        <v>48.53</v>
+        <v>13.64</v>
       </c>
       <c r="F42" t="n">
-        <v>129.43</v>
+        <v>188.7</v>
       </c>
       <c r="G42" t="n">
-        <v>4723.35</v>
+        <v>2149.75</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>30</v>
       </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
+      <c r="B43" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="C43" t="n">
+        <v>132.02</v>
+      </c>
+      <c r="D43" t="n">
+        <v>4397.36</v>
+      </c>
       <c r="E43" t="n">
-        <v>47.23</v>
+        <v>12.54</v>
       </c>
       <c r="F43" t="n">
-        <v>130.72</v>
+        <v>189.8</v>
       </c>
       <c r="G43" t="n">
-        <v>4592.63</v>
+        <v>1959.95</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>31</v>
       </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
+      <c r="B44" t="n">
+        <v>29.32</v>
+      </c>
+      <c r="C44" t="n">
+        <v>132.9</v>
+      </c>
+      <c r="D44" t="n">
+        <v>4264.46</v>
+      </c>
       <c r="E44" t="n">
-        <v>45.93</v>
+        <v>11.43</v>
       </c>
       <c r="F44" t="n">
-        <v>132.03</v>
+        <v>190.91</v>
       </c>
       <c r="G44" t="n">
-        <v>4460.6</v>
+        <v>1769.05</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>32</v>
       </c>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
+      <c r="B45" t="n">
+        <v>28.43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>133.78</v>
+      </c>
+      <c r="D45" t="n">
+        <v>4130.68</v>
+      </c>
       <c r="E45" t="n">
-        <v>44.61</v>
+        <v>10.32</v>
       </c>
       <c r="F45" t="n">
-        <v>133.35</v>
+        <v>192.02</v>
       </c>
       <c r="G45" t="n">
-        <v>4327.25</v>
+        <v>1577.03</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>33</v>
       </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
+      <c r="B46" t="n">
+        <v>27.54</v>
+      </c>
+      <c r="C46" t="n">
+        <v>134.67</v>
+      </c>
+      <c r="D46" t="n">
+        <v>3996.01</v>
+      </c>
       <c r="E46" t="n">
-        <v>43.27</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F46" t="n">
-        <v>134.68</v>
+        <v>193.14</v>
       </c>
       <c r="G46" t="n">
-        <v>4192.56</v>
+        <v>1383.89</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>34</v>
       </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
+      <c r="B47" t="n">
+        <v>26.64</v>
+      </c>
+      <c r="C47" t="n">
+        <v>135.57</v>
+      </c>
+      <c r="D47" t="n">
+        <v>3860.44</v>
+      </c>
       <c r="E47" t="n">
-        <v>41.93</v>
+        <v>8.07</v>
       </c>
       <c r="F47" t="n">
-        <v>136.03</v>
+        <v>194.27</v>
       </c>
       <c r="G47" t="n">
-        <v>4056.53</v>
+        <v>1189.62</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>35</v>
       </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
+      <c r="B48" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="C48" t="n">
+        <v>136.47</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3723.96</v>
+      </c>
       <c r="E48" t="n">
-        <v>40.57</v>
+        <v>6.94</v>
       </c>
       <c r="F48" t="n">
-        <v>137.39</v>
+        <v>195.4</v>
       </c>
       <c r="G48" t="n">
-        <v>3919.14</v>
+        <v>994.22</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>36</v>
       </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
+      <c r="B49" t="n">
+        <v>24.83</v>
+      </c>
+      <c r="C49" t="n">
+        <v>137.38</v>
+      </c>
+      <c r="D49" t="n">
+        <v>3586.58</v>
+      </c>
       <c r="E49" t="n">
-        <v>39.19</v>
+        <v>5.8</v>
       </c>
       <c r="F49" t="n">
-        <v>138.76</v>
+        <v>196.54</v>
       </c>
       <c r="G49" t="n">
-        <v>3780.38</v>
+        <v>797.6900000000001</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>37</v>
       </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
+      <c r="B50" t="n">
+        <v>23.91</v>
+      </c>
+      <c r="C50" t="n">
+        <v>138.3</v>
+      </c>
+      <c r="D50" t="n">
+        <v>3448.28</v>
+      </c>
       <c r="E50" t="n">
-        <v>37.8</v>
+        <v>4.65</v>
       </c>
       <c r="F50" t="n">
-        <v>140.15</v>
+        <v>197.68</v>
       </c>
       <c r="G50" t="n">
-        <v>3640.23</v>
+        <v>600</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>38</v>
       </c>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
+      <c r="B51" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="C51" t="n">
+        <v>139.22</v>
+      </c>
+      <c r="D51" t="n">
+        <v>3309.05</v>
+      </c>
       <c r="E51" t="n">
-        <v>36.4</v>
+        <v>3.5</v>
       </c>
       <c r="F51" t="n">
-        <v>141.55</v>
+        <v>198.84</v>
       </c>
       <c r="G51" t="n">
-        <v>3498.67</v>
+        <v>401.16</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>39</v>
       </c>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
+      <c r="B52" t="n">
+        <v>22.06</v>
+      </c>
+      <c r="C52" t="n">
+        <v>140.15</v>
+      </c>
+      <c r="D52" t="n">
+        <v>3168.9</v>
+      </c>
       <c r="E52" t="n">
-        <v>34.99</v>
+        <v>2.34</v>
       </c>
       <c r="F52" t="n">
-        <v>142.97</v>
+        <v>200</v>
       </c>
       <c r="G52" t="n">
-        <v>3355.71</v>
+        <v>201.16</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>40</v>
       </c>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
+      <c r="B53" t="n">
+        <v>21.13</v>
+      </c>
+      <c r="C53" t="n">
+        <v>141.09</v>
+      </c>
+      <c r="D53" t="n">
+        <v>3027.82</v>
+      </c>
       <c r="E53" t="n">
-        <v>33.56</v>
+        <v>1.17</v>
       </c>
       <c r="F53" t="n">
-        <v>144.4</v>
+        <v>201.16</v>
       </c>
       <c r="G53" t="n">
-        <v>3211.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>41</v>
       </c>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="n">
-        <v>32.11</v>
-      </c>
-      <c r="F54" t="n">
-        <v>145.84</v>
-      </c>
-      <c r="G54" t="n">
-        <v>3065.46</v>
-      </c>
+      <c r="B54" t="n">
+        <v>20.19</v>
+      </c>
+      <c r="C54" t="n">
+        <v>142.03</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2885.79</v>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>42</v>
       </c>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="n">
-        <v>30.65</v>
-      </c>
-      <c r="F55" t="n">
-        <v>147.3</v>
-      </c>
-      <c r="G55" t="n">
-        <v>2918.16</v>
-      </c>
+      <c r="B55" t="n">
+        <v>19.24</v>
+      </c>
+      <c r="C55" t="n">
+        <v>142.97</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2742.82</v>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>43</v>
       </c>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="n">
-        <v>29.18</v>
-      </c>
-      <c r="F56" t="n">
-        <v>148.77</v>
-      </c>
-      <c r="G56" t="n">
-        <v>2769.39</v>
-      </c>
+      <c r="B56" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="C56" t="n">
+        <v>143.93</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2598.89</v>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>44</v>
       </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="n">
-        <v>27.69</v>
-      </c>
-      <c r="F57" t="n">
-        <v>150.26</v>
-      </c>
-      <c r="G57" t="n">
-        <v>2619.13</v>
-      </c>
+      <c r="B57" t="n">
+        <v>17.33</v>
+      </c>
+      <c r="C57" t="n">
+        <v>144.89</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2454.01</v>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>45</v>
       </c>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="n">
-        <v>26.19</v>
-      </c>
-      <c r="F58" t="n">
-        <v>151.76</v>
-      </c>
-      <c r="G58" t="n">
-        <v>2467.36</v>
-      </c>
+      <c r="B58" t="n">
+        <v>16.36</v>
+      </c>
+      <c r="C58" t="n">
+        <v>145.85</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2308.16</v>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>46</v>
       </c>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="n">
-        <v>24.67</v>
-      </c>
-      <c r="F59" t="n">
-        <v>153.28</v>
-      </c>
-      <c r="G59" t="n">
-        <v>2314.08</v>
-      </c>
+      <c r="B59" t="n">
+        <v>15.39</v>
+      </c>
+      <c r="C59" t="n">
+        <v>146.82</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2161.33</v>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>47</v>
       </c>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="n">
-        <v>23.14</v>
-      </c>
-      <c r="F60" t="n">
-        <v>154.81</v>
-      </c>
-      <c r="G60" t="n">
-        <v>2159.27</v>
-      </c>
+      <c r="B60" t="n">
+        <v>14.41</v>
+      </c>
+      <c r="C60" t="n">
+        <v>147.8</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2013.53</v>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>48</v>
       </c>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="n">
-        <v>21.59</v>
-      </c>
-      <c r="F61" t="n">
-        <v>156.36</v>
-      </c>
-      <c r="G61" t="n">
-        <v>2002.9</v>
-      </c>
+      <c r="B61" t="n">
+        <v>13.42</v>
+      </c>
+      <c r="C61" t="n">
+        <v>148.79</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1864.74</v>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>49</v>
       </c>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="n">
-        <v>20.03</v>
-      </c>
-      <c r="F62" t="n">
-        <v>157.93</v>
-      </c>
-      <c r="G62" t="n">
-        <v>1844.98</v>
-      </c>
+      <c r="B62" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="C62" t="n">
+        <v>149.78</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1714.96</v>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>50</v>
       </c>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="n">
-        <v>18.45</v>
-      </c>
-      <c r="F63" t="n">
-        <v>159.51</v>
-      </c>
-      <c r="G63" t="n">
-        <v>1685.47</v>
-      </c>
+      <c r="B63" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="C63" t="n">
+        <v>150.78</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1564.19</v>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>51</v>
       </c>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="n">
-        <v>16.85</v>
-      </c>
-      <c r="F64" t="n">
-        <v>161.1</v>
-      </c>
-      <c r="G64" t="n">
-        <v>1524.37</v>
-      </c>
+      <c r="B64" t="n">
+        <v>10.43</v>
+      </c>
+      <c r="C64" t="n">
+        <v>151.78</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1412.4</v>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>52</v>
       </c>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="n">
-        <v>15.24</v>
-      </c>
-      <c r="F65" t="n">
-        <v>162.71</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1361.66</v>
-      </c>
+      <c r="B65" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="C65" t="n">
+        <v>152.8</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1259.61</v>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>53</v>
       </c>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="n">
-        <v>13.62</v>
-      </c>
-      <c r="F66" t="n">
-        <v>164.34</v>
-      </c>
-      <c r="G66" t="n">
-        <v>1197.32</v>
-      </c>
+      <c r="B66" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="C66" t="n">
+        <v>153.81</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1105.79</v>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>54</v>
       </c>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="n">
-        <v>11.97</v>
-      </c>
-      <c r="F67" t="n">
-        <v>165.98</v>
-      </c>
-      <c r="G67" t="n">
-        <v>1031.34</v>
-      </c>
+      <c r="B67" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="C67" t="n">
+        <v>154.84</v>
+      </c>
+      <c r="D67" t="n">
+        <v>950.96</v>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>55</v>
       </c>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="n">
-        <v>10.31</v>
-      </c>
-      <c r="F68" t="n">
-        <v>167.64</v>
-      </c>
-      <c r="G68" t="n">
-        <v>863.7</v>
-      </c>
+      <c r="B68" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="C68" t="n">
+        <v>155.87</v>
+      </c>
+      <c r="D68" t="n">
+        <v>795.08</v>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>56</v>
       </c>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="n">
-        <v>8.640000000000001</v>
-      </c>
-      <c r="F69" t="n">
-        <v>169.32</v>
-      </c>
-      <c r="G69" t="n">
-        <v>694.38</v>
-      </c>
+      <c r="B69" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="C69" t="n">
+        <v>156.91</v>
+      </c>
+      <c r="D69" t="n">
+        <v>638.17</v>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>57</v>
       </c>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="F70" t="n">
-        <v>171.01</v>
-      </c>
-      <c r="G70" t="n">
-        <v>523.36</v>
-      </c>
+      <c r="B70" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="C70" t="n">
+        <v>157.96</v>
+      </c>
+      <c r="D70" t="n">
+        <v>480.22</v>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>58</v>
       </c>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="F71" t="n">
-        <v>172.72</v>
-      </c>
-      <c r="G71" t="n">
-        <v>350.64</v>
-      </c>
+      <c r="B71" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C71" t="n">
+        <v>159.01</v>
+      </c>
+      <c r="D71" t="n">
+        <v>321.21</v>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>59</v>
       </c>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="F72" t="n">
-        <v>174.45</v>
-      </c>
-      <c r="G72" t="n">
-        <v>176.19</v>
-      </c>
+      <c r="B72" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="C72" t="n">
+        <v>160.07</v>
+      </c>
+      <c r="D72" t="n">
+        <v>161.14</v>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>60</v>
       </c>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="F73" t="n">
-        <v>176.19</v>
-      </c>
-      <c r="G73" t="n">
+      <c r="B73" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="C73" t="n">
+        <v>161.14</v>
+      </c>
+      <c r="D73" t="n">
         <v>0</v>
       </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1755,7 +1851,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1805,22 +1901,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>26.67</v>
+        <v>53.33</v>
       </c>
       <c r="C2" t="n">
-        <v>154.24</v>
+        <v>108.88</v>
       </c>
       <c r="D2" t="n">
-        <v>3845.76</v>
+        <v>7891.12</v>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="F2" t="n">
-        <v>97.95999999999999</v>
+        <v>160.34</v>
       </c>
       <c r="G2" t="n">
-        <v>7902.04</v>
+        <v>7039.66</v>
       </c>
     </row>
     <row r="3">
@@ -1828,22 +1924,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>25.64</v>
+        <v>52.61</v>
       </c>
       <c r="C3" t="n">
-        <v>155.27</v>
+        <v>109.6</v>
       </c>
       <c r="D3" t="n">
-        <v>3690.49</v>
+        <v>7781.52</v>
       </c>
       <c r="E3" t="n">
-        <v>79.02</v>
+        <v>41.06</v>
       </c>
       <c r="F3" t="n">
-        <v>98.94</v>
+        <v>161.27</v>
       </c>
       <c r="G3" t="n">
-        <v>7803.11</v>
+        <v>6878.39</v>
       </c>
     </row>
     <row r="4">
@@ -1851,22 +1947,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.6</v>
+        <v>51.88</v>
       </c>
       <c r="C4" t="n">
-        <v>156.31</v>
+        <v>110.33</v>
       </c>
       <c r="D4" t="n">
-        <v>3534.18</v>
+        <v>7671.18</v>
       </c>
       <c r="E4" t="n">
-        <v>78.03</v>
+        <v>40.12</v>
       </c>
       <c r="F4" t="n">
-        <v>99.92</v>
+        <v>162.21</v>
       </c>
       <c r="G4" t="n">
-        <v>7703.18</v>
+        <v>6716.17</v>
       </c>
     </row>
     <row r="5">
@@ -1874,22 +1970,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.56</v>
+        <v>51.14</v>
       </c>
       <c r="C5" t="n">
-        <v>157.35</v>
+        <v>111.07</v>
       </c>
       <c r="D5" t="n">
-        <v>3376.83</v>
+        <v>7560.11</v>
       </c>
       <c r="E5" t="n">
-        <v>77.03</v>
+        <v>39.18</v>
       </c>
       <c r="F5" t="n">
-        <v>100.92</v>
+        <v>163.16</v>
       </c>
       <c r="G5" t="n">
-        <v>7602.26</v>
+        <v>6553.01</v>
       </c>
     </row>
     <row r="6">
@@ -1897,22 +1993,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>22.51</v>
+        <v>50.4</v>
       </c>
       <c r="C6" t="n">
-        <v>158.4</v>
+        <v>111.81</v>
       </c>
       <c r="D6" t="n">
-        <v>3218.44</v>
+        <v>7448.3</v>
       </c>
       <c r="E6" t="n">
-        <v>76.02</v>
+        <v>38.23</v>
       </c>
       <c r="F6" t="n">
-        <v>101.93</v>
+        <v>164.11</v>
       </c>
       <c r="G6" t="n">
-        <v>7500.33</v>
+        <v>6388.9</v>
       </c>
     </row>
     <row r="7">
@@ -1920,22 +2016,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.46</v>
+        <v>49.66</v>
       </c>
       <c r="C7" t="n">
-        <v>159.45</v>
+        <v>112.56</v>
       </c>
       <c r="D7" t="n">
-        <v>3058.98</v>
+        <v>7335.75</v>
       </c>
       <c r="E7" t="n">
-        <v>75</v>
+        <v>37.27</v>
       </c>
       <c r="F7" t="n">
-        <v>102.95</v>
+        <v>165.07</v>
       </c>
       <c r="G7" t="n">
-        <v>7397.38</v>
+        <v>6223.83</v>
       </c>
     </row>
     <row r="8">
@@ -1943,22 +2039,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.39</v>
+        <v>48.9</v>
       </c>
       <c r="C8" t="n">
-        <v>160.52</v>
+        <v>113.31</v>
       </c>
       <c r="D8" t="n">
-        <v>2898.47</v>
+        <v>7222.44</v>
       </c>
       <c r="E8" t="n">
-        <v>73.97</v>
+        <v>36.31</v>
       </c>
       <c r="F8" t="n">
-        <v>103.98</v>
+        <v>166.03</v>
       </c>
       <c r="G8" t="n">
-        <v>7293.39</v>
+        <v>6057.8</v>
       </c>
     </row>
     <row r="9">
@@ -1966,22 +2062,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.32</v>
+        <v>48.15</v>
       </c>
       <c r="C9" t="n">
-        <v>161.59</v>
+        <v>114.06</v>
       </c>
       <c r="D9" t="n">
-        <v>2736.88</v>
+        <v>7108.38</v>
       </c>
       <c r="E9" t="n">
-        <v>72.93000000000001</v>
+        <v>35.34</v>
       </c>
       <c r="F9" t="n">
-        <v>105.02</v>
+        <v>167</v>
       </c>
       <c r="G9" t="n">
-        <v>7188.37</v>
+        <v>5890.8</v>
       </c>
     </row>
     <row r="10">
@@ -1989,22 +2085,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.25</v>
+        <v>47.39</v>
       </c>
       <c r="C10" t="n">
-        <v>162.66</v>
+        <v>114.82</v>
       </c>
       <c r="D10" t="n">
-        <v>2574.22</v>
+        <v>6993.56</v>
       </c>
       <c r="E10" t="n">
-        <v>71.88</v>
+        <v>34.36</v>
       </c>
       <c r="F10" t="n">
-        <v>106.07</v>
+        <v>167.98</v>
       </c>
       <c r="G10" t="n">
-        <v>7082.3</v>
+        <v>5722.82</v>
       </c>
     </row>
     <row r="11">
@@ -2012,22 +2108,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.16</v>
+        <v>46.62</v>
       </c>
       <c r="C11" t="n">
-        <v>163.75</v>
+        <v>115.59</v>
       </c>
       <c r="D11" t="n">
-        <v>2410.47</v>
+        <v>6877.97</v>
       </c>
       <c r="E11" t="n">
-        <v>70.81999999999999</v>
+        <v>33.38</v>
       </c>
       <c r="F11" t="n">
-        <v>107.13</v>
+        <v>168.95</v>
       </c>
       <c r="G11" t="n">
-        <v>6975.17</v>
+        <v>5553.87</v>
       </c>
     </row>
     <row r="12">
@@ -2035,22 +2131,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.74</v>
+        <v>45.85</v>
       </c>
       <c r="C12" t="n">
-        <v>166.17</v>
+        <v>116.36</v>
       </c>
       <c r="D12" t="n">
-        <v>2044.3</v>
+        <v>6761.61</v>
       </c>
       <c r="E12" t="n">
-        <v>67.75</v>
+        <v>32.4</v>
       </c>
       <c r="F12" t="n">
-        <v>110.2</v>
+        <v>169.94</v>
       </c>
       <c r="G12" t="n">
-        <v>6664.96</v>
+        <v>5383.93</v>
       </c>
     </row>
     <row r="13">
@@ -2058,22 +2154,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.63</v>
+        <v>45.08</v>
       </c>
       <c r="C13" t="n">
-        <v>167.28</v>
+        <v>117.13</v>
       </c>
       <c r="D13" t="n">
-        <v>1877.02</v>
+        <v>6644.48</v>
       </c>
       <c r="E13" t="n">
-        <v>66.65000000000001</v>
+        <v>31.41</v>
       </c>
       <c r="F13" t="n">
-        <v>111.31</v>
+        <v>170.93</v>
       </c>
       <c r="G13" t="n">
-        <v>6553.66</v>
+        <v>5213</v>
       </c>
     </row>
     <row r="14">
@@ -2081,22 +2177,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12.51</v>
+        <v>44.3</v>
       </c>
       <c r="C14" t="n">
-        <v>168.4</v>
+        <v>117.91</v>
       </c>
       <c r="D14" t="n">
-        <v>1708.62</v>
+        <v>6526.56</v>
       </c>
       <c r="E14" t="n">
-        <v>65.54000000000001</v>
+        <v>30.41</v>
       </c>
       <c r="F14" t="n">
-        <v>112.42</v>
+        <v>171.93</v>
       </c>
       <c r="G14" t="n">
-        <v>6441.24</v>
+        <v>5041.07</v>
       </c>
     </row>
     <row r="15">
@@ -2104,22 +2200,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>11.39</v>
+        <v>43.51</v>
       </c>
       <c r="C15" t="n">
-        <v>169.52</v>
+        <v>118.7</v>
       </c>
       <c r="D15" t="n">
-        <v>1539.1</v>
+        <v>6407.86</v>
       </c>
       <c r="E15" t="n">
-        <v>64.41</v>
+        <v>29.41</v>
       </c>
       <c r="F15" t="n">
-        <v>113.54</v>
+        <v>172.93</v>
       </c>
       <c r="G15" t="n">
-        <v>6327.7</v>
+        <v>4868.14</v>
       </c>
     </row>
     <row r="16">
@@ -2127,22 +2223,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>10.26</v>
+        <v>42.72</v>
       </c>
       <c r="C16" t="n">
-        <v>170.65</v>
+        <v>119.49</v>
       </c>
       <c r="D16" t="n">
-        <v>1368.45</v>
+        <v>6288.37</v>
       </c>
       <c r="E16" t="n">
-        <v>63.28</v>
+        <v>28.4</v>
       </c>
       <c r="F16" t="n">
-        <v>114.68</v>
+        <v>173.94</v>
       </c>
       <c r="G16" t="n">
-        <v>6213.02</v>
+        <v>4694.2</v>
       </c>
     </row>
     <row r="17">
@@ -2150,22 +2246,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>9.119999999999999</v>
+        <v>41.92</v>
       </c>
       <c r="C17" t="n">
-        <v>171.79</v>
+        <v>120.29</v>
       </c>
       <c r="D17" t="n">
-        <v>1196.67</v>
+        <v>6168.08</v>
       </c>
       <c r="E17" t="n">
-        <v>62.13</v>
+        <v>27.38</v>
       </c>
       <c r="F17" t="n">
-        <v>115.83</v>
+        <v>174.96</v>
       </c>
       <c r="G17" t="n">
-        <v>6097.19</v>
+        <v>4519.24</v>
       </c>
     </row>
     <row r="18">
@@ -2173,22 +2269,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>7.98</v>
+        <v>41.12</v>
       </c>
       <c r="C18" t="n">
-        <v>172.93</v>
+        <v>121.09</v>
       </c>
       <c r="D18" t="n">
-        <v>1023.74</v>
+        <v>6046.99</v>
       </c>
       <c r="E18" t="n">
-        <v>60.97</v>
+        <v>26.36</v>
       </c>
       <c r="F18" t="n">
-        <v>116.98</v>
+        <v>175.98</v>
       </c>
       <c r="G18" t="n">
-        <v>5980.21</v>
+        <v>4343.26</v>
       </c>
     </row>
     <row r="19">
@@ -2196,22 +2292,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>6.82</v>
+        <v>40.31</v>
       </c>
       <c r="C19" t="n">
-        <v>174.08</v>
+        <v>121.9</v>
       </c>
       <c r="D19" t="n">
-        <v>849.65</v>
+        <v>5925.09</v>
       </c>
       <c r="E19" t="n">
-        <v>59.8</v>
+        <v>25.34</v>
       </c>
       <c r="F19" t="n">
-        <v>118.15</v>
+        <v>177</v>
       </c>
       <c r="G19" t="n">
-        <v>5862.05</v>
+        <v>4166.26</v>
       </c>
     </row>
     <row r="20">
@@ -2219,22 +2315,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>5.66</v>
+        <v>39.5</v>
       </c>
       <c r="C20" t="n">
-        <v>175.24</v>
+        <v>122.71</v>
       </c>
       <c r="D20" t="n">
-        <v>674.41</v>
+        <v>5802.38</v>
       </c>
       <c r="E20" t="n">
-        <v>58.62</v>
+        <v>24.3</v>
       </c>
       <c r="F20" t="n">
-        <v>119.34</v>
+        <v>178.03</v>
       </c>
       <c r="G20" t="n">
-        <v>5742.72</v>
+        <v>3988.23</v>
       </c>
     </row>
     <row r="21">
@@ -2242,22 +2338,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>4.5</v>
+        <v>35.68</v>
       </c>
       <c r="C21" t="n">
-        <v>176.41</v>
+        <v>126.53</v>
       </c>
       <c r="D21" t="n">
-        <v>497.99</v>
+        <v>5225.85</v>
       </c>
       <c r="E21" t="n">
-        <v>57.43</v>
+        <v>20.64</v>
       </c>
       <c r="F21" t="n">
-        <v>120.53</v>
+        <v>181.7</v>
       </c>
       <c r="G21" t="n">
-        <v>5622.19</v>
+        <v>3356.53</v>
       </c>
     </row>
     <row r="22">
@@ -2265,22 +2361,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>3.32</v>
+        <v>34.84</v>
       </c>
       <c r="C22" t="n">
-        <v>177.59</v>
+        <v>127.37</v>
       </c>
       <c r="D22" t="n">
-        <v>320.41</v>
+        <v>5098.48</v>
       </c>
       <c r="E22" t="n">
-        <v>56.22</v>
+        <v>19.58</v>
       </c>
       <c r="F22" t="n">
-        <v>121.73</v>
+        <v>182.76</v>
       </c>
       <c r="G22" t="n">
-        <v>5500.46</v>
+        <v>3173.77</v>
       </c>
     </row>
     <row r="23">
@@ -2288,22 +2384,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>2.14</v>
+        <v>33.99</v>
       </c>
       <c r="C23" t="n">
-        <v>178.77</v>
+        <v>128.22</v>
       </c>
       <c r="D23" t="n">
-        <v>141.63</v>
+        <v>4970.26</v>
       </c>
       <c r="E23" t="n">
-        <v>55</v>
+        <v>18.51</v>
       </c>
       <c r="F23" t="n">
-        <v>122.95</v>
+        <v>183.82</v>
       </c>
       <c r="G23" t="n">
-        <v>5377.51</v>
+        <v>2989.95</v>
       </c>
     </row>
     <row r="24">
@@ -2311,635 +2407,691 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9399999999999999</v>
+        <v>33.14</v>
       </c>
       <c r="C24" t="n">
-        <v>141.63</v>
+        <v>129.08</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>4841.18</v>
       </c>
       <c r="E24" t="n">
-        <v>53.78</v>
+        <v>17.44</v>
       </c>
       <c r="F24" t="n">
-        <v>124.18</v>
+        <v>184.9</v>
       </c>
       <c r="G24" t="n">
-        <v>5253.33</v>
+        <v>2805.05</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>24</v>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>32.27</v>
+      </c>
+      <c r="C25" t="n">
+        <v>129.94</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4711.25</v>
+      </c>
       <c r="E25" t="n">
-        <v>52.53</v>
+        <v>16.36</v>
       </c>
       <c r="F25" t="n">
-        <v>125.42</v>
+        <v>185.98</v>
       </c>
       <c r="G25" t="n">
-        <v>5127.9</v>
+        <v>2619.08</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>25</v>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>31.41</v>
+      </c>
+      <c r="C26" t="n">
+        <v>130.8</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4580.44</v>
+      </c>
       <c r="E26" t="n">
-        <v>51.28</v>
+        <v>15.28</v>
       </c>
       <c r="F26" t="n">
-        <v>126.68</v>
+        <v>187.06</v>
       </c>
       <c r="G26" t="n">
-        <v>5001.23</v>
+        <v>2432.02</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>26</v>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
+      <c r="B27" t="n">
+        <v>30.54</v>
+      </c>
+      <c r="C27" t="n">
+        <v>131.67</v>
+      </c>
+      <c r="D27" t="n">
+        <v>4448.77</v>
+      </c>
       <c r="E27" t="n">
-        <v>50.01</v>
+        <v>14.19</v>
       </c>
       <c r="F27" t="n">
-        <v>127.94</v>
+        <v>188.15</v>
       </c>
       <c r="G27" t="n">
-        <v>4873.28</v>
+        <v>2243.87</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>27</v>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
+      <c r="B28" t="n">
+        <v>29.66</v>
+      </c>
+      <c r="C28" t="n">
+        <v>132.55</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4316.21</v>
+      </c>
       <c r="E28" t="n">
-        <v>48.73</v>
+        <v>13.09</v>
       </c>
       <c r="F28" t="n">
-        <v>129.22</v>
+        <v>189.25</v>
       </c>
       <c r="G28" t="n">
-        <v>4744.06</v>
+        <v>2054.62</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>28</v>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
+      <c r="B29" t="n">
+        <v>28.77</v>
+      </c>
+      <c r="C29" t="n">
+        <v>133.44</v>
+      </c>
+      <c r="D29" t="n">
+        <v>4182.78</v>
+      </c>
       <c r="E29" t="n">
-        <v>47.44</v>
+        <v>11.99</v>
       </c>
       <c r="F29" t="n">
-        <v>130.51</v>
+        <v>190.35</v>
       </c>
       <c r="G29" t="n">
-        <v>4613.55</v>
+        <v>1864.26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>29</v>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>27.89</v>
+      </c>
+      <c r="C30" t="n">
+        <v>134.33</v>
+      </c>
+      <c r="D30" t="n">
+        <v>4048.45</v>
+      </c>
       <c r="E30" t="n">
-        <v>46.14</v>
+        <v>10.87</v>
       </c>
       <c r="F30" t="n">
-        <v>131.82</v>
+        <v>191.46</v>
       </c>
       <c r="G30" t="n">
-        <v>4481.73</v>
+        <v>1672.8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>30</v>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
+      <c r="B31" t="n">
+        <v>26.99</v>
+      </c>
+      <c r="C31" t="n">
+        <v>135.22</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3913.23</v>
+      </c>
       <c r="E31" t="n">
-        <v>44.82</v>
+        <v>9.76</v>
       </c>
       <c r="F31" t="n">
-        <v>133.14</v>
+        <v>192.58</v>
       </c>
       <c r="G31" t="n">
-        <v>4348.59</v>
+        <v>1480.22</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>31</v>
       </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
+      <c r="B32" t="n">
+        <v>26.09</v>
+      </c>
+      <c r="C32" t="n">
+        <v>136.12</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3777.11</v>
+      </c>
       <c r="E32" t="n">
-        <v>43.49</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="F32" t="n">
-        <v>134.47</v>
+        <v>193.7</v>
       </c>
       <c r="G32" t="n">
-        <v>4214.12</v>
+        <v>1286.52</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>32</v>
       </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
+      <c r="B33" t="n">
+        <v>25.18</v>
+      </c>
+      <c r="C33" t="n">
+        <v>137.03</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3640.08</v>
+      </c>
       <c r="E33" t="n">
-        <v>42.14</v>
+        <v>7.5</v>
       </c>
       <c r="F33" t="n">
-        <v>135.81</v>
+        <v>194.83</v>
       </c>
       <c r="G33" t="n">
-        <v>4078.3</v>
+        <v>1091.68</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>33</v>
       </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
+      <c r="B34" t="n">
+        <v>24.27</v>
+      </c>
+      <c r="C34" t="n">
+        <v>137.94</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3502.13</v>
+      </c>
       <c r="E34" t="n">
-        <v>40.78</v>
+        <v>6.37</v>
       </c>
       <c r="F34" t="n">
-        <v>137.17</v>
+        <v>195.97</v>
       </c>
       <c r="G34" t="n">
-        <v>3941.13</v>
+        <v>895.71</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>34</v>
       </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
+      <c r="B35" t="n">
+        <v>23.35</v>
+      </c>
+      <c r="C35" t="n">
+        <v>138.86</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3363.27</v>
+      </c>
       <c r="E35" t="n">
-        <v>39.41</v>
+        <v>5.22</v>
       </c>
       <c r="F35" t="n">
-        <v>138.54</v>
+        <v>197.11</v>
       </c>
       <c r="G35" t="n">
-        <v>3802.59</v>
+        <v>698.6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>35</v>
       </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
+      <c r="B36" t="n">
+        <v>22.42</v>
+      </c>
+      <c r="C36" t="n">
+        <v>139.79</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3223.48</v>
+      </c>
       <c r="E36" t="n">
-        <v>38.03</v>
+        <v>4.08</v>
       </c>
       <c r="F36" t="n">
-        <v>139.93</v>
+        <v>198.26</v>
       </c>
       <c r="G36" t="n">
-        <v>3662.66</v>
+        <v>500.34</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>36</v>
       </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
+      <c r="B37" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="C37" t="n">
+        <v>140.72</v>
+      </c>
+      <c r="D37" t="n">
+        <v>3082.76</v>
+      </c>
       <c r="E37" t="n">
-        <v>36.63</v>
+        <v>2.92</v>
       </c>
       <c r="F37" t="n">
-        <v>141.33</v>
+        <v>199.42</v>
       </c>
       <c r="G37" t="n">
-        <v>3521.33</v>
+        <v>300.92</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>37</v>
       </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
+      <c r="B38" t="n">
+        <v>20.55</v>
+      </c>
+      <c r="C38" t="n">
+        <v>141.66</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2941.1</v>
+      </c>
       <c r="E38" t="n">
-        <v>35.21</v>
+        <v>1.76</v>
       </c>
       <c r="F38" t="n">
-        <v>142.74</v>
+        <v>200.58</v>
       </c>
       <c r="G38" t="n">
-        <v>3378.59</v>
+        <v>100.34</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>38</v>
       </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
+      <c r="B39" t="n">
+        <v>19.61</v>
+      </c>
+      <c r="C39" t="n">
+        <v>142.6</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2798.5</v>
+      </c>
       <c r="E39" t="n">
-        <v>33.79</v>
+        <v>0.59</v>
       </c>
       <c r="F39" t="n">
-        <v>144.17</v>
+        <v>100.34</v>
       </c>
       <c r="G39" t="n">
-        <v>3234.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>39</v>
       </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="n">
-        <v>32.34</v>
-      </c>
-      <c r="F40" t="n">
-        <v>145.61</v>
-      </c>
-      <c r="G40" t="n">
-        <v>3088.8</v>
-      </c>
+      <c r="B40" t="n">
+        <v>18.66</v>
+      </c>
+      <c r="C40" t="n">
+        <v>143.55</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2654.94</v>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>40</v>
       </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="n">
-        <v>30.89</v>
-      </c>
-      <c r="F41" t="n">
-        <v>147.07</v>
-      </c>
-      <c r="G41" t="n">
-        <v>2941.74</v>
-      </c>
+      <c r="B41" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="C41" t="n">
+        <v>144.51</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2510.43</v>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>41</v>
       </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="n">
-        <v>29.42</v>
-      </c>
-      <c r="F42" t="n">
-        <v>148.54</v>
-      </c>
-      <c r="G42" t="n">
-        <v>2793.2</v>
-      </c>
+      <c r="B42" t="n">
+        <v>16.74</v>
+      </c>
+      <c r="C42" t="n">
+        <v>145.47</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2364.96</v>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>42</v>
       </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="n">
-        <v>27.93</v>
-      </c>
-      <c r="F43" t="n">
-        <v>150.02</v>
-      </c>
-      <c r="G43" t="n">
-        <v>2643.18</v>
-      </c>
+      <c r="B43" t="n">
+        <v>15.77</v>
+      </c>
+      <c r="C43" t="n">
+        <v>146.44</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2218.51</v>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>43</v>
       </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="n">
-        <v>26.43</v>
-      </c>
-      <c r="F44" t="n">
-        <v>151.52</v>
-      </c>
-      <c r="G44" t="n">
-        <v>2491.65</v>
-      </c>
+      <c r="B44" t="n">
+        <v>14.79</v>
+      </c>
+      <c r="C44" t="n">
+        <v>147.42</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2071.09</v>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>44</v>
       </c>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="n">
-        <v>24.92</v>
-      </c>
-      <c r="F45" t="n">
-        <v>153.04</v>
-      </c>
-      <c r="G45" t="n">
-        <v>2338.61</v>
-      </c>
+      <c r="B45" t="n">
+        <v>13.81</v>
+      </c>
+      <c r="C45" t="n">
+        <v>148.4</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1922.69</v>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>45</v>
       </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="n">
-        <v>23.39</v>
-      </c>
-      <c r="F46" t="n">
-        <v>154.57</v>
-      </c>
-      <c r="G46" t="n">
-        <v>2184.04</v>
-      </c>
+      <c r="B46" t="n">
+        <v>12.82</v>
+      </c>
+      <c r="C46" t="n">
+        <v>149.39</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1773.29</v>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>46</v>
       </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="n">
-        <v>21.84</v>
-      </c>
-      <c r="F47" t="n">
-        <v>156.12</v>
-      </c>
-      <c r="G47" t="n">
-        <v>2027.93</v>
-      </c>
+      <c r="B47" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="C47" t="n">
+        <v>150.39</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1622.9</v>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>47</v>
       </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="n">
-        <v>20.28</v>
-      </c>
-      <c r="F48" t="n">
-        <v>157.68</v>
-      </c>
-      <c r="G48" t="n">
-        <v>1870.25</v>
-      </c>
+      <c r="B48" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="C48" t="n">
+        <v>151.39</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1471.51</v>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>48</v>
       </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="F49" t="n">
-        <v>159.25</v>
-      </c>
-      <c r="G49" t="n">
-        <v>1711</v>
-      </c>
+      <c r="B49" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="C49" t="n">
+        <v>152.4</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1319.11</v>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>49</v>
       </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="n">
-        <v>17.11</v>
-      </c>
-      <c r="F50" t="n">
-        <v>160.85</v>
-      </c>
-      <c r="G50" t="n">
-        <v>1550.15</v>
-      </c>
+      <c r="B50" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="C50" t="n">
+        <v>153.42</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1165.69</v>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>50</v>
       </c>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="F51" t="n">
-        <v>162.45</v>
-      </c>
-      <c r="G51" t="n">
-        <v>1387.7</v>
-      </c>
+      <c r="B51" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="C51" t="n">
+        <v>154.44</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1011.25</v>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>51</v>
       </c>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="n">
-        <v>13.88</v>
-      </c>
-      <c r="F52" t="n">
-        <v>164.08</v>
-      </c>
-      <c r="G52" t="n">
-        <v>1223.62</v>
-      </c>
+      <c r="B52" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="C52" t="n">
+        <v>155.47</v>
+      </c>
+      <c r="D52" t="n">
+        <v>855.78</v>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>52</v>
       </c>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="F53" t="n">
-        <v>165.72</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1057.9</v>
-      </c>
+      <c r="B53" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="C53" t="n">
+        <v>156.51</v>
+      </c>
+      <c r="D53" t="n">
+        <v>699.28</v>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>53</v>
       </c>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="n">
-        <v>10.58</v>
-      </c>
-      <c r="F54" t="n">
-        <v>167.38</v>
-      </c>
-      <c r="G54" t="n">
-        <v>890.52</v>
-      </c>
+      <c r="B54" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="C54" t="n">
+        <v>157.55</v>
+      </c>
+      <c r="D54" t="n">
+        <v>541.73</v>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>54</v>
       </c>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="F55" t="n">
-        <v>169.05</v>
-      </c>
-      <c r="G55" t="n">
-        <v>721.47</v>
-      </c>
+      <c r="B55" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="C55" t="n">
+        <v>158.6</v>
+      </c>
+      <c r="D55" t="n">
+        <v>383.13</v>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>55</v>
       </c>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="F56" t="n">
-        <v>170.74</v>
-      </c>
-      <c r="G56" t="n">
-        <v>550.73</v>
-      </c>
+      <c r="B56" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="C56" t="n">
+        <v>159.66</v>
+      </c>
+      <c r="D56" t="n">
+        <v>223.47</v>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>56</v>
       </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="F57" t="n">
-        <v>172.45</v>
-      </c>
-      <c r="G57" t="n">
-        <v>378.28</v>
-      </c>
+      <c r="B57" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="C57" t="n">
+        <v>160.72</v>
+      </c>
+      <c r="D57" t="n">
+        <v>62.75</v>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>57</v>
       </c>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="F58" t="n">
-        <v>174.17</v>
-      </c>
-      <c r="G58" t="n">
-        <v>204.11</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="F59" t="n">
-        <v>175.91</v>
-      </c>
-      <c r="G59" t="n">
-        <v>28.2</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="F60" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="G60" t="n">
+      <c r="B58" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="C58" t="n">
+        <v>62.75</v>
+      </c>
+      <c r="D58" t="n">
         <v>0</v>
       </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
